--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/General.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/General.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14901" uniqueCount="9784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14921" uniqueCount="9801">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -4297,7 +4297,7 @@
     <t xml:space="preserve">noHome</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.222</t>
+    <t xml:space="preserve">EA 23.229 Patch 3</t>
   </si>
   <si>
     <t xml:space="preserve">자택 없음</t>
@@ -24641,6 +24641,9 @@
   </si>
   <si>
     <t xml:space="preserve">bit_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.222</t>
   </si>
   <si>
     <t xml:space="preserve">#1의 비트</t>
@@ -27319,6 +27322,54 @@
   </si>
   <si>
     <t xml:space="preserve">・舶来商人へのアクセス。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guild_fighter_benefit3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・현상범 등장 확률 상승.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・ Increased chance of bounty targets appearing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・賞金首の発生確率上昇。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guild_mage_benefit3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・선택 가능한 전문영역 증가.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・ An additional domain to specialize.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・選択可能な専門領域の増加。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guild_thief_benefit3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・자연생성되는 가구의 품질 증가.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・ Increased quality of naturally generated furniture.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・自然生成される家具の品質上昇。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guild_merchant_benefit3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・투자한 가게의 규모 상승.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・ Increased shop level of invested shops.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・投資した店の規模の上昇。</t>
   </si>
   <si>
     <t xml:space="preserve">guild_benefit_trainer</t>
@@ -29977,12 +30028,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2619"/>
+  <dimension ref="A1:F2623"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A2607" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A2403" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F2622" activeCellId="0" sqref="F2622"/>
+      <selection pane="bottomLeft" activeCell="D2422" activeCellId="0" sqref="D2422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -72148,44 +72199,44 @@
         <v>8127</v>
       </c>
       <c r="B2186" s="0" t="s">
-        <v>1424</v>
+        <v>8128</v>
       </c>
       <c r="C2186" s="0" t="s">
         <v>8103</v>
       </c>
       <c r="D2186" s="0" t="s">
-        <v>8128</v>
+        <v>8129</v>
       </c>
       <c r="E2186" s="0" t="s">
-        <v>8129</v>
+        <v>8130</v>
       </c>
       <c r="F2186" s="0" t="s">
-        <v>8130</v>
+        <v>8131</v>
       </c>
     </row>
     <row r="2187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2187" s="0" t="s">
-        <v>8131</v>
+        <v>8132</v>
       </c>
       <c r="B2187" s="0" t="s">
-        <v>1424</v>
+        <v>8128</v>
       </c>
       <c r="C2187" s="0" t="s">
         <v>8103</v>
       </c>
       <c r="D2187" s="0" t="s">
-        <v>8132</v>
+        <v>8133</v>
       </c>
       <c r="E2187" s="0" t="s">
-        <v>8133</v>
+        <v>8134</v>
       </c>
       <c r="F2187" s="0" t="s">
-        <v>8134</v>
+        <v>8135</v>
       </c>
     </row>
     <row r="2188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2188" s="0" t="s">
-        <v>8135</v>
+        <v>8136</v>
       </c>
       <c r="B2188" s="0" t="s">
         <v>135</v>
@@ -72194,18 +72245,18 @@
         <v>8103</v>
       </c>
       <c r="D2188" s="0" t="s">
-        <v>8136</v>
+        <v>8137</v>
       </c>
       <c r="E2188" s="0" t="s">
-        <v>8137</v>
+        <v>8138</v>
       </c>
       <c r="F2188" s="0" t="s">
-        <v>8138</v>
+        <v>8139</v>
       </c>
     </row>
     <row r="2189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2189" s="0" t="s">
-        <v>8139</v>
+        <v>8140</v>
       </c>
       <c r="B2189" s="0" t="s">
         <v>7</v>
@@ -72214,18 +72265,18 @@
         <v>8103</v>
       </c>
       <c r="D2189" s="0" t="s">
-        <v>8140</v>
+        <v>8141</v>
       </c>
       <c r="E2189" s="0" t="s">
         <v>218</v>
       </c>
       <c r="F2189" s="0" t="s">
-        <v>8141</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="2190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2190" s="0" t="s">
-        <v>8142</v>
+        <v>8143</v>
       </c>
       <c r="B2190" s="0" t="s">
         <v>32</v>
@@ -72234,18 +72285,18 @@
         <v>8103</v>
       </c>
       <c r="D2190" s="0" t="s">
-        <v>8143</v>
+        <v>8144</v>
       </c>
       <c r="E2190" s="0" t="s">
         <v>218</v>
       </c>
       <c r="F2190" s="0" t="s">
-        <v>8144</v>
+        <v>8145</v>
       </c>
     </row>
     <row r="2191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2191" s="0" t="s">
-        <v>8145</v>
+        <v>8146</v>
       </c>
       <c r="B2191" s="0" t="s">
         <v>32</v>
@@ -72254,18 +72305,18 @@
         <v>8103</v>
       </c>
       <c r="D2191" s="0" t="s">
-        <v>8146</v>
+        <v>8147</v>
       </c>
       <c r="E2191" s="0" t="s">
-        <v>8147</v>
+        <v>8148</v>
       </c>
       <c r="F2191" s="0" t="s">
-        <v>8148</v>
+        <v>8149</v>
       </c>
     </row>
     <row r="2192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2192" s="0" t="s">
-        <v>8149</v>
+        <v>8150</v>
       </c>
       <c r="B2192" s="0" t="s">
         <v>115</v>
@@ -72274,18 +72325,18 @@
         <v>8103</v>
       </c>
       <c r="D2192" s="0" t="s">
-        <v>8150</v>
+        <v>8151</v>
       </c>
       <c r="E2192" s="0" t="s">
         <v>218</v>
       </c>
       <c r="F2192" s="0" t="s">
-        <v>8151</v>
+        <v>8152</v>
       </c>
     </row>
     <row r="2193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2193" s="0" t="s">
-        <v>8152</v>
+        <v>8153</v>
       </c>
       <c r="B2193" s="0" t="s">
         <v>32</v>
@@ -72294,18 +72345,18 @@
         <v>8103</v>
       </c>
       <c r="D2193" s="0" t="s">
-        <v>8153</v>
+        <v>8154</v>
       </c>
       <c r="E2193" s="0" t="s">
         <v>218</v>
       </c>
       <c r="F2193" s="0" t="s">
-        <v>8154</v>
+        <v>8155</v>
       </c>
     </row>
     <row r="2194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2194" s="0" t="s">
-        <v>8155</v>
+        <v>8156</v>
       </c>
       <c r="B2194" s="0" t="s">
         <v>32</v>
@@ -72314,18 +72365,18 @@
         <v>8103</v>
       </c>
       <c r="D2194" s="0" t="s">
-        <v>8156</v>
+        <v>8157</v>
       </c>
       <c r="E2194" s="0" t="s">
-        <v>8157</v>
+        <v>8158</v>
       </c>
       <c r="F2194" s="0" t="s">
-        <v>8158</v>
+        <v>8159</v>
       </c>
     </row>
     <row r="2195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2195" s="0" t="s">
-        <v>8159</v>
+        <v>8160</v>
       </c>
       <c r="B2195" s="0" t="s">
         <v>32</v>
@@ -72334,18 +72385,18 @@
         <v>8103</v>
       </c>
       <c r="D2195" s="0" t="s">
-        <v>8160</v>
+        <v>8161</v>
       </c>
       <c r="E2195" s="0" t="s">
-        <v>8161</v>
+        <v>8162</v>
       </c>
       <c r="F2195" s="0" t="s">
-        <v>8162</v>
+        <v>8163</v>
       </c>
     </row>
     <row r="2196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2196" s="0" t="s">
-        <v>8163</v>
+        <v>8164</v>
       </c>
       <c r="B2196" s="0" t="s">
         <v>32</v>
@@ -72354,18 +72405,18 @@
         <v>8103</v>
       </c>
       <c r="D2196" s="0" t="s">
-        <v>8164</v>
+        <v>8165</v>
       </c>
       <c r="E2196" s="0" t="s">
-        <v>8165</v>
+        <v>8166</v>
       </c>
       <c r="F2196" s="0" t="s">
-        <v>8166</v>
+        <v>8167</v>
       </c>
     </row>
     <row r="2197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2197" s="0" t="s">
-        <v>8167</v>
+        <v>8168</v>
       </c>
       <c r="B2197" s="0" t="s">
         <v>32</v>
@@ -72374,18 +72425,18 @@
         <v>8103</v>
       </c>
       <c r="D2197" s="0" t="s">
-        <v>8168</v>
+        <v>8169</v>
       </c>
       <c r="E2197" s="0" t="s">
-        <v>8169</v>
+        <v>8170</v>
       </c>
       <c r="F2197" s="0" t="s">
-        <v>8170</v>
+        <v>8171</v>
       </c>
     </row>
     <row r="2198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2198" s="0" t="s">
-        <v>8171</v>
+        <v>8172</v>
       </c>
       <c r="B2198" s="0" t="s">
         <v>32</v>
@@ -72394,18 +72445,18 @@
         <v>8103</v>
       </c>
       <c r="D2198" s="0" t="s">
-        <v>8172</v>
+        <v>8173</v>
       </c>
       <c r="E2198" s="0" t="s">
-        <v>8173</v>
+        <v>8174</v>
       </c>
       <c r="F2198" s="0" t="s">
-        <v>8174</v>
+        <v>8175</v>
       </c>
     </row>
     <row r="2199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2199" s="0" t="s">
-        <v>8175</v>
+        <v>8176</v>
       </c>
       <c r="B2199" s="0" t="s">
         <v>171</v>
@@ -72414,18 +72465,18 @@
         <v>8103</v>
       </c>
       <c r="D2199" s="0" t="s">
-        <v>8176</v>
+        <v>8177</v>
       </c>
       <c r="E2199" s="0" t="s">
-        <v>8177</v>
+        <v>8178</v>
       </c>
       <c r="F2199" s="0" t="s">
-        <v>8178</v>
+        <v>8179</v>
       </c>
     </row>
     <row r="2200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2200" s="0" t="s">
-        <v>8179</v>
+        <v>8180</v>
       </c>
       <c r="B2200" s="0" t="s">
         <v>4197</v>
@@ -72434,18 +72485,18 @@
         <v>8103</v>
       </c>
       <c r="D2200" s="0" t="s">
-        <v>8180</v>
+        <v>8181</v>
       </c>
       <c r="E2200" s="0" t="s">
-        <v>8181</v>
+        <v>8182</v>
       </c>
       <c r="F2200" s="0" t="s">
-        <v>8182</v>
+        <v>8183</v>
       </c>
     </row>
     <row r="2201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2201" s="0" t="s">
-        <v>8183</v>
+        <v>8184</v>
       </c>
       <c r="B2201" s="0" t="s">
         <v>166</v>
@@ -72454,18 +72505,18 @@
         <v>8103</v>
       </c>
       <c r="D2201" s="0" t="s">
-        <v>8184</v>
+        <v>8185</v>
       </c>
       <c r="E2201" s="0" t="s">
-        <v>8185</v>
+        <v>8186</v>
       </c>
       <c r="F2201" s="0" t="s">
-        <v>8186</v>
+        <v>8187</v>
       </c>
     </row>
     <row r="2202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2202" s="0" t="s">
-        <v>8187</v>
+        <v>8188</v>
       </c>
       <c r="B2202" s="0" t="s">
         <v>7</v>
@@ -72474,24 +72525,24 @@
         <v>8103</v>
       </c>
       <c r="D2202" s="0" t="s">
-        <v>8188</v>
+        <v>8189</v>
       </c>
       <c r="E2202" s="0" t="s">
         <v>218</v>
       </c>
       <c r="F2202" s="0" t="s">
-        <v>8189</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="2203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2203" s="0" t="s">
-        <v>8190</v>
+        <v>8191</v>
       </c>
       <c r="B2203" s="0" t="s">
         <v>55</v>
       </c>
       <c r="D2203" s="0" t="s">
-        <v>8191</v>
+        <v>8192</v>
       </c>
       <c r="E2203" s="0" t="s">
         <v>989</v>
@@ -72502,24 +72553,24 @@
     </row>
     <row r="2204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2204" s="0" t="s">
-        <v>8192</v>
+        <v>8193</v>
       </c>
       <c r="B2204" s="0" t="s">
         <v>55</v>
       </c>
       <c r="D2204" s="0" t="s">
-        <v>8193</v>
+        <v>8194</v>
       </c>
       <c r="E2204" s="0" t="s">
-        <v>8194</v>
+        <v>8195</v>
       </c>
       <c r="F2204" s="0" t="s">
-        <v>8195</v>
+        <v>8196</v>
       </c>
     </row>
     <row r="2205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2205" s="0" t="s">
-        <v>8196</v>
+        <v>8197</v>
       </c>
       <c r="B2205" s="0" t="s">
         <v>55</v>
@@ -72528,32 +72579,32 @@
         <v>1501</v>
       </c>
       <c r="E2205" s="0" t="s">
-        <v>8197</v>
+        <v>8198</v>
       </c>
       <c r="F2205" s="0" t="s">
-        <v>8198</v>
+        <v>8199</v>
       </c>
     </row>
     <row r="2206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2206" s="0" t="s">
-        <v>8199</v>
+        <v>8200</v>
       </c>
       <c r="B2206" s="0" t="s">
         <v>55</v>
       </c>
       <c r="D2206" s="0" t="s">
-        <v>8200</v>
+        <v>8201</v>
       </c>
       <c r="E2206" s="0" t="s">
-        <v>8201</v>
+        <v>8202</v>
       </c>
       <c r="F2206" s="0" t="s">
-        <v>8202</v>
+        <v>8203</v>
       </c>
     </row>
     <row r="2207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2207" s="0" t="s">
-        <v>8203</v>
+        <v>8204</v>
       </c>
       <c r="B2207" s="0" t="s">
         <v>55</v>
@@ -72570,67 +72621,67 @@
     </row>
     <row r="2208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2208" s="0" t="s">
-        <v>8204</v>
+        <v>8205</v>
       </c>
       <c r="B2208" s="0" t="s">
         <v>55</v>
       </c>
       <c r="D2208" s="0" t="s">
-        <v>8205</v>
+        <v>8206</v>
       </c>
       <c r="E2208" s="0" t="s">
-        <v>8205</v>
+        <v>8206</v>
       </c>
       <c r="F2208" s="0" t="s">
-        <v>8205</v>
+        <v>8206</v>
       </c>
     </row>
     <row r="2209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2209" s="0" t="s">
-        <v>8206</v>
+        <v>8207</v>
       </c>
       <c r="B2209" s="0" t="s">
         <v>50</v>
       </c>
       <c r="D2209" s="0" t="s">
-        <v>8207</v>
+        <v>8208</v>
       </c>
       <c r="E2209" s="0" t="s">
-        <v>8208</v>
+        <v>8209</v>
       </c>
       <c r="F2209" s="0" t="s">
-        <v>8208</v>
+        <v>8209</v>
       </c>
     </row>
     <row r="2210" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2210" s="0" t="s">
-        <v>8209</v>
+        <v>8210</v>
       </c>
       <c r="B2210" s="0" t="s">
         <v>1811</v>
       </c>
       <c r="C2210" s="0" t="s">
-        <v>8210</v>
+        <v>8211</v>
       </c>
       <c r="D2210" s="2" t="s">
-        <v>8211</v>
+        <v>8212</v>
       </c>
       <c r="E2210" s="2" t="s">
-        <v>8212</v>
+        <v>8213</v>
       </c>
       <c r="F2210" s="2" t="s">
-        <v>8213</v>
+        <v>8214</v>
       </c>
     </row>
     <row r="2211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2211" s="0" t="s">
-        <v>8214</v>
+        <v>8215</v>
       </c>
       <c r="B2211" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2211" s="0" t="s">
-        <v>8210</v>
+        <v>8211</v>
       </c>
       <c r="D2211" s="0" t="s">
         <v>3436</v>
@@ -72639,58 +72690,58 @@
         <v>3437</v>
       </c>
       <c r="F2211" s="0" t="s">
-        <v>8215</v>
+        <v>8216</v>
       </c>
     </row>
     <row r="2212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2212" s="0" t="s">
-        <v>8216</v>
+        <v>8217</v>
       </c>
       <c r="B2212" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2212" s="0" t="s">
-        <v>8210</v>
+        <v>8211</v>
       </c>
       <c r="D2212" s="0" t="s">
-        <v>8217</v>
+        <v>8218</v>
       </c>
       <c r="E2212" s="0" t="s">
-        <v>8218</v>
+        <v>8219</v>
       </c>
       <c r="F2212" s="0" t="s">
-        <v>8219</v>
+        <v>8220</v>
       </c>
     </row>
     <row r="2213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2213" s="0" t="s">
-        <v>8220</v>
+        <v>8221</v>
       </c>
       <c r="B2213" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2213" s="0" t="s">
-        <v>8210</v>
+        <v>8211</v>
       </c>
       <c r="D2213" s="0" t="s">
-        <v>8221</v>
+        <v>8222</v>
       </c>
       <c r="E2213" s="0" t="s">
-        <v>8222</v>
+        <v>8223</v>
       </c>
       <c r="F2213" s="0" t="s">
-        <v>8223</v>
+        <v>8224</v>
       </c>
     </row>
     <row r="2214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2214" s="0" t="s">
-        <v>8224</v>
+        <v>8225</v>
       </c>
       <c r="B2214" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2214" s="0" t="s">
-        <v>8210</v>
+        <v>8211</v>
       </c>
       <c r="D2214" s="0" t="s">
         <v>3469</v>
@@ -72704,264 +72755,264 @@
     </row>
     <row r="2215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2215" s="0" t="s">
-        <v>8225</v>
+        <v>8226</v>
       </c>
       <c r="B2215" s="0" t="s">
         <v>632</v>
       </c>
       <c r="C2215" s="0" t="s">
-        <v>8210</v>
+        <v>8211</v>
       </c>
       <c r="D2215" s="0" t="s">
-        <v>8226</v>
+        <v>8227</v>
       </c>
       <c r="E2215" s="0" t="s">
-        <v>8227</v>
+        <v>8228</v>
       </c>
       <c r="F2215" s="0" t="s">
-        <v>8228</v>
+        <v>8229</v>
       </c>
     </row>
     <row r="2216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2216" s="0" t="s">
-        <v>8229</v>
+        <v>8230</v>
       </c>
       <c r="B2216" s="0" t="s">
         <v>597</v>
       </c>
       <c r="C2216" s="0" t="s">
-        <v>8210</v>
+        <v>8211</v>
       </c>
       <c r="D2216" s="0" t="s">
-        <v>8230</v>
+        <v>8231</v>
       </c>
       <c r="E2216" s="0" t="s">
-        <v>8231</v>
+        <v>8232</v>
       </c>
       <c r="F2216" s="0" t="s">
-        <v>8232</v>
+        <v>8233</v>
       </c>
     </row>
     <row r="2217" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2217" s="0" t="s">
-        <v>8233</v>
+        <v>8234</v>
       </c>
       <c r="B2217" s="0" t="s">
         <v>632</v>
       </c>
       <c r="C2217" s="0" t="s">
-        <v>8210</v>
+        <v>8211</v>
       </c>
       <c r="D2217" s="2" t="s">
-        <v>8234</v>
+        <v>8235</v>
       </c>
       <c r="E2217" s="2" t="s">
-        <v>8235</v>
+        <v>8236</v>
       </c>
       <c r="F2217" s="2" t="s">
-        <v>8236</v>
+        <v>8237</v>
       </c>
     </row>
     <row r="2218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2218" s="0" t="s">
-        <v>8237</v>
+        <v>8238</v>
       </c>
       <c r="B2218" s="0" t="s">
         <v>632</v>
       </c>
       <c r="C2218" s="0" t="s">
-        <v>8210</v>
+        <v>8211</v>
       </c>
       <c r="D2218" s="0" t="s">
-        <v>8238</v>
+        <v>8239</v>
       </c>
       <c r="E2218" s="0" t="s">
-        <v>8239</v>
+        <v>8240</v>
       </c>
       <c r="F2218" s="0" t="s">
-        <v>8240</v>
+        <v>8241</v>
       </c>
     </row>
     <row r="2219" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2219" s="0" t="s">
-        <v>8241</v>
+        <v>8242</v>
       </c>
       <c r="B2219" s="0" t="s">
         <v>632</v>
       </c>
       <c r="C2219" s="0" t="s">
-        <v>8210</v>
+        <v>8211</v>
       </c>
       <c r="D2219" s="2" t="s">
-        <v>8242</v>
+        <v>8243</v>
       </c>
       <c r="E2219" s="2" t="s">
-        <v>8243</v>
+        <v>8244</v>
       </c>
       <c r="F2219" s="2" t="s">
-        <v>8244</v>
+        <v>8245</v>
       </c>
     </row>
     <row r="2220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2220" s="0" t="s">
-        <v>8245</v>
+        <v>8246</v>
       </c>
       <c r="B2220" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2220" s="0" t="s">
-        <v>8210</v>
+        <v>8211</v>
       </c>
       <c r="D2220" s="0" t="s">
-        <v>8246</v>
+        <v>8247</v>
       </c>
       <c r="E2220" s="0" t="s">
+        <v>8248</v>
+      </c>
+      <c r="F2220" s="0" t="s">
         <v>8247</v>
-      </c>
-      <c r="F2220" s="0" t="s">
-        <v>8246</v>
       </c>
     </row>
     <row r="2221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2221" s="0" t="s">
-        <v>8248</v>
+        <v>8249</v>
       </c>
       <c r="B2221" s="0" t="s">
-        <v>8249</v>
+        <v>8250</v>
       </c>
       <c r="C2221" s="0" t="s">
-        <v>8210</v>
+        <v>8211</v>
       </c>
       <c r="D2221" s="0" t="s">
-        <v>8250</v>
+        <v>8251</v>
       </c>
       <c r="E2221" s="0" t="s">
-        <v>8251</v>
+        <v>8252</v>
       </c>
       <c r="F2221" s="0" t="s">
-        <v>8252</v>
+        <v>8253</v>
       </c>
     </row>
     <row r="2222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2222" s="0" t="s">
-        <v>8253</v>
+        <v>8254</v>
       </c>
       <c r="B2222" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2222" s="0" t="s">
-        <v>8210</v>
+        <v>8211</v>
       </c>
       <c r="D2222" s="0" t="s">
-        <v>8254</v>
+        <v>8255</v>
       </c>
       <c r="E2222" s="0" t="s">
-        <v>8255</v>
+        <v>8256</v>
       </c>
       <c r="F2222" s="0" t="s">
-        <v>8256</v>
+        <v>8257</v>
       </c>
     </row>
     <row r="2223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2223" s="0" t="s">
-        <v>8257</v>
+        <v>8258</v>
       </c>
       <c r="B2223" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2223" s="0" t="s">
-        <v>8210</v>
+        <v>8211</v>
       </c>
       <c r="D2223" s="0" t="s">
-        <v>8258</v>
+        <v>8259</v>
       </c>
       <c r="E2223" s="0" t="s">
-        <v>8259</v>
+        <v>8260</v>
       </c>
       <c r="F2223" s="0" t="s">
-        <v>8260</v>
+        <v>8261</v>
       </c>
     </row>
     <row r="2224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2224" s="0" t="s">
-        <v>8261</v>
+        <v>8262</v>
       </c>
       <c r="B2224" s="0" t="s">
         <v>2665</v>
       </c>
       <c r="C2224" s="0" t="s">
-        <v>8210</v>
+        <v>8211</v>
       </c>
       <c r="D2224" s="0" t="s">
-        <v>8262</v>
+        <v>8263</v>
       </c>
       <c r="E2224" s="0" t="s">
-        <v>8263</v>
+        <v>8264</v>
       </c>
       <c r="F2224" s="0" t="s">
-        <v>8264</v>
+        <v>8265</v>
       </c>
     </row>
     <row r="2225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2225" s="0" t="s">
-        <v>8265</v>
+        <v>8266</v>
       </c>
       <c r="B2225" s="0" t="s">
         <v>2665</v>
       </c>
       <c r="C2225" s="0" t="s">
-        <v>8210</v>
+        <v>8211</v>
       </c>
       <c r="D2225" s="0" t="s">
-        <v>8266</v>
+        <v>8267</v>
       </c>
       <c r="E2225" s="0" t="s">
-        <v>8267</v>
+        <v>8268</v>
       </c>
       <c r="F2225" s="0" t="s">
-        <v>8268</v>
+        <v>8269</v>
       </c>
     </row>
     <row r="2226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2226" s="0" t="s">
-        <v>8269</v>
+        <v>8270</v>
       </c>
       <c r="B2226" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2226" s="0" t="s">
-        <v>8210</v>
+        <v>8211</v>
       </c>
       <c r="D2226" s="0" t="s">
-        <v>8270</v>
+        <v>8271</v>
       </c>
       <c r="E2226" s="0" t="s">
-        <v>8271</v>
+        <v>8272</v>
       </c>
       <c r="F2226" s="0" t="s">
-        <v>8272</v>
+        <v>8273</v>
       </c>
     </row>
     <row r="2227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2227" s="0" t="s">
-        <v>8273</v>
+        <v>8274</v>
       </c>
       <c r="B2227" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D2227" s="0" t="s">
-        <v>8274</v>
+        <v>8275</v>
       </c>
       <c r="E2227" s="0" t="s">
-        <v>8275</v>
+        <v>8276</v>
       </c>
       <c r="F2227" s="0" t="s">
-        <v>8276</v>
+        <v>8277</v>
       </c>
     </row>
     <row r="2228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2228" s="0" t="s">
-        <v>8277</v>
+        <v>8278</v>
       </c>
       <c r="B2228" s="0" t="s">
         <v>7</v>
@@ -72970,18 +73021,18 @@
         <v>2523</v>
       </c>
       <c r="D2228" s="0" t="s">
-        <v>8278</v>
+        <v>8279</v>
       </c>
       <c r="E2228" s="0" t="s">
-        <v>8279</v>
+        <v>8280</v>
       </c>
       <c r="F2228" s="0" t="s">
-        <v>8280</v>
+        <v>8281</v>
       </c>
     </row>
     <row r="2229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2229" s="0" t="s">
-        <v>8281</v>
+        <v>8282</v>
       </c>
       <c r="B2229" s="0" t="s">
         <v>7</v>
@@ -72990,18 +73041,18 @@
         <v>2523</v>
       </c>
       <c r="D2229" s="0" t="s">
-        <v>8282</v>
+        <v>8283</v>
       </c>
       <c r="E2229" s="0" t="s">
-        <v>8283</v>
+        <v>8284</v>
       </c>
       <c r="F2229" s="0" t="s">
-        <v>8284</v>
+        <v>8285</v>
       </c>
     </row>
     <row r="2230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2230" s="0" t="s">
-        <v>8285</v>
+        <v>8286</v>
       </c>
       <c r="B2230" s="0" t="s">
         <v>7</v>
@@ -73010,18 +73061,18 @@
         <v>2523</v>
       </c>
       <c r="D2230" s="0" t="s">
-        <v>8286</v>
+        <v>8287</v>
       </c>
       <c r="E2230" s="0" t="s">
-        <v>8287</v>
+        <v>8288</v>
       </c>
       <c r="F2230" s="0" t="s">
-        <v>8288</v>
+        <v>8289</v>
       </c>
     </row>
     <row r="2231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2231" s="0" t="s">
-        <v>8289</v>
+        <v>8290</v>
       </c>
       <c r="B2231" s="0" t="s">
         <v>7</v>
@@ -73030,18 +73081,18 @@
         <v>2523</v>
       </c>
       <c r="D2231" s="0" t="s">
-        <v>8290</v>
+        <v>8291</v>
       </c>
       <c r="E2231" s="0" t="s">
-        <v>8291</v>
+        <v>8292</v>
       </c>
       <c r="F2231" s="0" t="s">
-        <v>8292</v>
+        <v>8293</v>
       </c>
     </row>
     <row r="2232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2232" s="0" t="s">
-        <v>8293</v>
+        <v>8294</v>
       </c>
       <c r="B2232" s="0" t="s">
         <v>7</v>
@@ -73050,18 +73101,18 @@
         <v>2523</v>
       </c>
       <c r="D2232" s="0" t="s">
-        <v>8294</v>
+        <v>8295</v>
       </c>
       <c r="E2232" s="0" t="s">
-        <v>8295</v>
+        <v>8296</v>
       </c>
       <c r="F2232" s="0" t="s">
-        <v>8296</v>
+        <v>8297</v>
       </c>
     </row>
     <row r="2233" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2233" s="0" t="s">
-        <v>8297</v>
+        <v>8298</v>
       </c>
       <c r="B2233" s="0" t="s">
         <v>7</v>
@@ -73070,52 +73121,52 @@
         <v>2523</v>
       </c>
       <c r="D2233" s="2" t="s">
-        <v>8298</v>
+        <v>8299</v>
       </c>
       <c r="E2233" s="2" t="s">
-        <v>8299</v>
+        <v>8300</v>
       </c>
       <c r="F2233" s="2" t="s">
-        <v>8300</v>
+        <v>8301</v>
       </c>
     </row>
     <row r="2234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2234" s="0" t="s">
-        <v>8301</v>
+        <v>8302</v>
       </c>
       <c r="B2234" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D2234" s="0" t="s">
-        <v>8302</v>
+        <v>8303</v>
       </c>
       <c r="E2234" s="0" t="s">
-        <v>8303</v>
+        <v>8304</v>
       </c>
       <c r="F2234" s="0" t="s">
-        <v>8304</v>
+        <v>8305</v>
       </c>
     </row>
     <row r="2235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2235" s="0" t="s">
-        <v>8305</v>
+        <v>8306</v>
       </c>
       <c r="B2235" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D2235" s="0" t="s">
-        <v>8306</v>
+        <v>8307</v>
       </c>
       <c r="E2235" s="0" t="s">
-        <v>8307</v>
+        <v>8308</v>
       </c>
       <c r="F2235" s="0" t="s">
-        <v>8308</v>
+        <v>8309</v>
       </c>
     </row>
     <row r="2236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2236" s="0" t="s">
-        <v>8309</v>
+        <v>8310</v>
       </c>
       <c r="B2236" s="0" t="s">
         <v>7</v>
@@ -73124,18 +73175,18 @@
         <v>7341</v>
       </c>
       <c r="D2236" s="0" t="s">
-        <v>8310</v>
+        <v>8311</v>
       </c>
       <c r="E2236" s="0" t="s">
-        <v>8311</v>
+        <v>8312</v>
       </c>
       <c r="F2236" s="0" t="s">
-        <v>8312</v>
+        <v>8313</v>
       </c>
     </row>
     <row r="2237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2237" s="0" t="s">
-        <v>8313</v>
+        <v>8314</v>
       </c>
       <c r="B2237" s="0" t="s">
         <v>7</v>
@@ -73144,18 +73195,18 @@
         <v>7341</v>
       </c>
       <c r="D2237" s="0" t="s">
-        <v>8314</v>
+        <v>8315</v>
       </c>
       <c r="E2237" s="0" t="s">
-        <v>8315</v>
+        <v>8316</v>
       </c>
       <c r="F2237" s="0" t="s">
-        <v>8316</v>
+        <v>8317</v>
       </c>
     </row>
     <row r="2238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2238" s="0" t="s">
-        <v>8317</v>
+        <v>8318</v>
       </c>
       <c r="B2238" s="0" t="s">
         <v>7</v>
@@ -73164,18 +73215,18 @@
         <v>7341</v>
       </c>
       <c r="D2238" s="0" t="s">
-        <v>8318</v>
+        <v>8319</v>
       </c>
       <c r="E2238" s="0" t="s">
-        <v>8319</v>
+        <v>8320</v>
       </c>
       <c r="F2238" s="0" t="s">
-        <v>8320</v>
+        <v>8321</v>
       </c>
     </row>
     <row r="2239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2239" s="0" t="s">
-        <v>8321</v>
+        <v>8322</v>
       </c>
       <c r="B2239" s="0" t="s">
         <v>7</v>
@@ -73184,18 +73235,18 @@
         <v>7341</v>
       </c>
       <c r="D2239" s="0" t="s">
-        <v>8322</v>
+        <v>8323</v>
       </c>
       <c r="E2239" s="0" t="s">
-        <v>8323</v>
+        <v>8324</v>
       </c>
       <c r="F2239" s="0" t="s">
-        <v>8324</v>
+        <v>8325</v>
       </c>
     </row>
     <row r="2240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2240" s="0" t="s">
-        <v>8325</v>
+        <v>8326</v>
       </c>
       <c r="B2240" s="0" t="s">
         <v>7</v>
@@ -73204,18 +73255,18 @@
         <v>7341</v>
       </c>
       <c r="D2240" s="0" t="s">
-        <v>8326</v>
+        <v>8327</v>
       </c>
       <c r="E2240" s="0" t="s">
-        <v>8327</v>
+        <v>8328</v>
       </c>
       <c r="F2240" s="0" t="s">
-        <v>8328</v>
+        <v>8329</v>
       </c>
     </row>
     <row r="2241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2241" s="0" t="s">
-        <v>8329</v>
+        <v>8330</v>
       </c>
       <c r="B2241" s="0" t="s">
         <v>7</v>
@@ -73224,18 +73275,18 @@
         <v>7341</v>
       </c>
       <c r="D2241" s="0" t="s">
-        <v>8330</v>
+        <v>8331</v>
       </c>
       <c r="E2241" s="0" t="s">
-        <v>8331</v>
+        <v>8332</v>
       </c>
       <c r="F2241" s="0" t="s">
-        <v>8332</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="2242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2242" s="0" t="s">
-        <v>8333</v>
+        <v>8334</v>
       </c>
       <c r="B2242" s="0" t="s">
         <v>7</v>
@@ -73244,18 +73295,18 @@
         <v>7341</v>
       </c>
       <c r="D2242" s="0" t="s">
-        <v>8334</v>
+        <v>8335</v>
       </c>
       <c r="E2242" s="0" t="s">
-        <v>8334</v>
+        <v>8335</v>
       </c>
       <c r="F2242" s="0" t="s">
-        <v>8334</v>
+        <v>8335</v>
       </c>
     </row>
     <row r="2243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2243" s="0" t="s">
-        <v>8335</v>
+        <v>8336</v>
       </c>
       <c r="B2243" s="0" t="s">
         <v>7</v>
@@ -73264,38 +73315,38 @@
         <v>7341</v>
       </c>
       <c r="D2243" s="0" t="s">
-        <v>8336</v>
+        <v>8337</v>
       </c>
       <c r="E2243" s="0" t="s">
-        <v>8336</v>
+        <v>8337</v>
       </c>
       <c r="F2243" s="0" t="s">
-        <v>8336</v>
+        <v>8337</v>
       </c>
     </row>
     <row r="2244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2244" s="0" t="s">
-        <v>8337</v>
+        <v>8338</v>
       </c>
       <c r="B2244" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2244" s="0" t="s">
-        <v>8338</v>
+        <v>8339</v>
       </c>
       <c r="D2244" s="0" t="s">
-        <v>8339</v>
+        <v>8340</v>
       </c>
       <c r="E2244" s="0" t="s">
-        <v>8340</v>
+        <v>8341</v>
       </c>
       <c r="F2244" s="0" t="s">
-        <v>8341</v>
+        <v>8342</v>
       </c>
     </row>
     <row r="2245" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2245" s="0" t="s">
-        <v>8342</v>
+        <v>8343</v>
       </c>
       <c r="B2245" s="0" t="s">
         <v>7</v>
@@ -73304,18 +73355,18 @@
         <v>7341</v>
       </c>
       <c r="D2245" s="2" t="s">
-        <v>8343</v>
+        <v>8344</v>
       </c>
       <c r="E2245" s="2" t="s">
-        <v>8344</v>
+        <v>8345</v>
       </c>
       <c r="F2245" s="2" t="s">
-        <v>8345</v>
+        <v>8346</v>
       </c>
     </row>
     <row r="2246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2246" s="0" t="s">
-        <v>8346</v>
+        <v>8347</v>
       </c>
       <c r="B2246" s="0" t="s">
         <v>7</v>
@@ -73324,221 +73375,221 @@
         <v>7341</v>
       </c>
       <c r="D2246" s="0" t="s">
-        <v>8347</v>
+        <v>8348</v>
       </c>
       <c r="E2246" s="0" t="s">
-        <v>8348</v>
+        <v>8349</v>
       </c>
       <c r="F2246" s="0" t="s">
-        <v>8349</v>
+        <v>8350</v>
       </c>
     </row>
     <row r="2247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2247" s="0" t="s">
-        <v>8350</v>
+        <v>8351</v>
       </c>
       <c r="B2247" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2247" s="0" t="s">
-        <v>8338</v>
+        <v>8339</v>
       </c>
       <c r="D2247" s="0" t="s">
-        <v>8351</v>
+        <v>8352</v>
       </c>
       <c r="E2247" s="0" t="s">
-        <v>8352</v>
+        <v>8353</v>
       </c>
       <c r="F2247" s="0" t="s">
-        <v>8353</v>
+        <v>8354</v>
       </c>
     </row>
     <row r="2248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2248" s="0" t="s">
-        <v>8354</v>
+        <v>8355</v>
       </c>
       <c r="B2248" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2248" s="0" t="s">
-        <v>8338</v>
+        <v>8339</v>
       </c>
       <c r="D2248" s="0" t="s">
-        <v>8355</v>
+        <v>8356</v>
       </c>
       <c r="E2248" s="0" t="s">
-        <v>8356</v>
+        <v>8357</v>
       </c>
       <c r="F2248" s="0" t="s">
-        <v>8357</v>
+        <v>8358</v>
       </c>
     </row>
     <row r="2249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2249" s="0" t="s">
-        <v>8358</v>
+        <v>8359</v>
       </c>
       <c r="B2249" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D2249" s="0" t="s">
-        <v>8359</v>
+        <v>8360</v>
       </c>
       <c r="E2249" s="0" t="s">
-        <v>8360</v>
+        <v>8361</v>
       </c>
       <c r="F2249" s="0" t="s">
-        <v>8361</v>
+        <v>8362</v>
       </c>
     </row>
     <row r="2250" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2250" s="0" t="s">
-        <v>8362</v>
+        <v>8363</v>
       </c>
       <c r="B2250" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2250" s="0" t="s">
-        <v>8338</v>
+        <v>8339</v>
       </c>
       <c r="D2250" s="2" t="s">
-        <v>8363</v>
+        <v>8364</v>
       </c>
       <c r="E2250" s="2" t="s">
-        <v>8364</v>
+        <v>8365</v>
       </c>
       <c r="F2250" s="2" t="s">
-        <v>8365</v>
+        <v>8366</v>
       </c>
     </row>
     <row r="2251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2251" s="0" t="s">
-        <v>8366</v>
+        <v>8367</v>
       </c>
       <c r="B2251" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2251" s="0" t="s">
-        <v>8338</v>
+        <v>8339</v>
       </c>
       <c r="D2251" s="0" t="s">
-        <v>8367</v>
+        <v>8368</v>
       </c>
       <c r="E2251" s="0" t="s">
-        <v>8368</v>
+        <v>8369</v>
       </c>
       <c r="F2251" s="0" t="s">
-        <v>8369</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="2252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2252" s="0" t="s">
-        <v>8370</v>
+        <v>8371</v>
       </c>
       <c r="B2252" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2252" s="0" t="s">
-        <v>8338</v>
+        <v>8339</v>
       </c>
       <c r="D2252" s="0" t="s">
-        <v>8371</v>
+        <v>8372</v>
       </c>
       <c r="E2252" s="0" t="s">
-        <v>8372</v>
+        <v>8373</v>
       </c>
       <c r="F2252" s="0" t="s">
-        <v>8373</v>
+        <v>8374</v>
       </c>
     </row>
     <row r="2253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2253" s="0" t="s">
-        <v>8374</v>
+        <v>8375</v>
       </c>
       <c r="B2253" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2253" s="0" t="s">
-        <v>8338</v>
+        <v>8339</v>
       </c>
       <c r="D2253" s="0" t="s">
-        <v>8375</v>
+        <v>8376</v>
       </c>
       <c r="E2253" s="0" t="s">
-        <v>8376</v>
+        <v>8377</v>
       </c>
       <c r="F2253" s="0" t="s">
-        <v>8377</v>
+        <v>8378</v>
       </c>
     </row>
     <row r="2254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2254" s="0" t="s">
-        <v>8378</v>
+        <v>8379</v>
       </c>
       <c r="B2254" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2254" s="0" t="s">
-        <v>8379</v>
+        <v>8380</v>
       </c>
       <c r="D2254" s="0" t="s">
-        <v>8380</v>
+        <v>8381</v>
       </c>
       <c r="E2254" s="0" t="s">
-        <v>8381</v>
+        <v>8382</v>
       </c>
       <c r="F2254" s="0" t="s">
-        <v>8382</v>
+        <v>8383</v>
       </c>
     </row>
     <row r="2255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2255" s="0" t="s">
-        <v>8383</v>
+        <v>8384</v>
       </c>
       <c r="B2255" s="0" t="s">
         <v>108</v>
       </c>
       <c r="C2255" s="0" t="s">
-        <v>8379</v>
+        <v>8380</v>
       </c>
       <c r="D2255" s="0" t="s">
-        <v>8384</v>
+        <v>8385</v>
       </c>
       <c r="E2255" s="0" t="s">
-        <v>8385</v>
+        <v>8386</v>
       </c>
       <c r="F2255" s="0" t="s">
-        <v>8386</v>
+        <v>8387</v>
       </c>
     </row>
     <row r="2256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2256" s="0" t="s">
-        <v>8387</v>
+        <v>8388</v>
       </c>
       <c r="B2256" s="0" t="s">
         <v>32</v>
       </c>
       <c r="C2256" s="0" t="s">
-        <v>8379</v>
+        <v>8380</v>
       </c>
       <c r="D2256" s="0" t="s">
-        <v>8388</v>
+        <v>8389</v>
       </c>
       <c r="E2256" s="0" t="s">
         <v>1324</v>
       </c>
       <c r="F2256" s="0" t="s">
-        <v>8389</v>
+        <v>8390</v>
       </c>
     </row>
     <row r="2257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2257" s="0" t="s">
-        <v>8390</v>
+        <v>8391</v>
       </c>
       <c r="B2257" s="0" t="s">
         <v>166</v>
       </c>
       <c r="C2257" s="0" t="s">
-        <v>8379</v>
+        <v>8380</v>
       </c>
       <c r="D2257" s="0" t="s">
         <v>4930</v>
@@ -73552,59 +73603,59 @@
     </row>
     <row r="2258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2258" s="0" t="s">
-        <v>8391</v>
+        <v>8392</v>
       </c>
       <c r="B2258" s="0" t="s">
         <v>340</v>
       </c>
       <c r="C2258" s="0" t="s">
-        <v>8379</v>
+        <v>8380</v>
       </c>
       <c r="D2258" s="0" t="s">
-        <v>8392</v>
+        <v>8393</v>
       </c>
       <c r="E2258" s="0" t="s">
         <v>880</v>
       </c>
       <c r="F2258" s="0" t="s">
-        <v>8393</v>
+        <v>8394</v>
       </c>
     </row>
     <row r="2259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2259" s="0" t="s">
-        <v>8394</v>
+        <v>8395</v>
       </c>
       <c r="B2259" s="0" t="s">
         <v>340</v>
       </c>
       <c r="C2259" s="0" t="s">
-        <v>8395</v>
+        <v>8396</v>
       </c>
       <c r="D2259" s="0" t="s">
-        <v>8396</v>
+        <v>8397</v>
       </c>
       <c r="E2259" s="0" t="s">
-        <v>8397</v>
+        <v>8398</v>
       </c>
       <c r="F2259" s="0" t="s">
-        <v>8398</v>
+        <v>8399</v>
       </c>
     </row>
     <row r="2260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2260" s="0" t="s">
-        <v>8399</v>
+        <v>8400</v>
       </c>
       <c r="B2260" s="0" t="s">
         <v>340</v>
       </c>
       <c r="C2260" s="0" t="s">
-        <v>8395</v>
+        <v>8396</v>
       </c>
       <c r="D2260" s="0" t="s">
         <v>5522</v>
       </c>
       <c r="E2260" s="0" t="s">
-        <v>8400</v>
+        <v>8401</v>
       </c>
       <c r="F2260" s="0" t="s">
         <v>5524</v>
@@ -73612,471 +73663,471 @@
     </row>
     <row r="2261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2261" s="0" t="s">
-        <v>8401</v>
+        <v>8402</v>
       </c>
       <c r="B2261" s="0" t="s">
         <v>340</v>
       </c>
       <c r="C2261" s="0" t="s">
-        <v>8395</v>
+        <v>8396</v>
       </c>
       <c r="D2261" s="0" t="s">
-        <v>8402</v>
+        <v>8403</v>
       </c>
       <c r="E2261" s="0" t="s">
         <v>5532</v>
       </c>
       <c r="F2261" s="0" t="s">
-        <v>8403</v>
+        <v>8404</v>
       </c>
     </row>
     <row r="2262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2262" s="0" t="s">
-        <v>8404</v>
+        <v>8405</v>
       </c>
       <c r="B2262" s="0" t="s">
         <v>340</v>
       </c>
       <c r="C2262" s="0" t="s">
-        <v>8395</v>
+        <v>8396</v>
       </c>
       <c r="D2262" s="0" t="s">
-        <v>8405</v>
+        <v>8406</v>
       </c>
       <c r="E2262" s="0" t="s">
-        <v>8406</v>
+        <v>8407</v>
       </c>
       <c r="F2262" s="0" t="s">
-        <v>8407</v>
+        <v>8408</v>
       </c>
     </row>
     <row r="2263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2263" s="0" t="s">
-        <v>8408</v>
+        <v>8409</v>
       </c>
       <c r="B2263" s="0" t="s">
         <v>340</v>
       </c>
       <c r="C2263" s="0" t="s">
-        <v>8395</v>
+        <v>8396</v>
       </c>
       <c r="D2263" s="0" t="s">
-        <v>8409</v>
+        <v>8410</v>
       </c>
       <c r="E2263" s="0" t="s">
-        <v>8410</v>
+        <v>8411</v>
       </c>
       <c r="F2263" s="0" t="s">
-        <v>8411</v>
+        <v>8412</v>
       </c>
     </row>
     <row r="2264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2264" s="0" t="s">
-        <v>8412</v>
+        <v>8413</v>
       </c>
       <c r="B2264" s="0" t="s">
         <v>135</v>
       </c>
       <c r="C2264" s="0" t="s">
-        <v>8395</v>
+        <v>8396</v>
       </c>
       <c r="D2264" s="0" t="s">
-        <v>8413</v>
+        <v>8414</v>
       </c>
       <c r="E2264" s="0" t="s">
-        <v>8414</v>
+        <v>8415</v>
       </c>
       <c r="F2264" s="0" t="s">
-        <v>8415</v>
+        <v>8416</v>
       </c>
     </row>
     <row r="2265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2265" s="0" t="s">
-        <v>8416</v>
+        <v>8417</v>
       </c>
       <c r="B2265" s="0" t="s">
         <v>135</v>
       </c>
       <c r="C2265" s="0" t="s">
-        <v>8395</v>
+        <v>8396</v>
       </c>
       <c r="D2265" s="0" t="s">
-        <v>8417</v>
+        <v>8418</v>
       </c>
       <c r="E2265" s="0" t="s">
-        <v>8418</v>
+        <v>8419</v>
       </c>
       <c r="F2265" s="0" t="s">
-        <v>8419</v>
+        <v>8420</v>
       </c>
     </row>
     <row r="2266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2266" s="0" t="s">
-        <v>8420</v>
+        <v>8421</v>
       </c>
       <c r="B2266" s="0" t="s">
         <v>135</v>
       </c>
       <c r="C2266" s="0" t="s">
-        <v>8395</v>
+        <v>8396</v>
       </c>
       <c r="D2266" s="0" t="s">
-        <v>8421</v>
+        <v>8422</v>
       </c>
       <c r="E2266" s="0" t="s">
-        <v>8422</v>
+        <v>8423</v>
       </c>
       <c r="F2266" s="0" t="s">
-        <v>8423</v>
+        <v>8424</v>
       </c>
     </row>
     <row r="2267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2267" s="0" t="s">
-        <v>8424</v>
+        <v>8425</v>
       </c>
       <c r="B2267" s="0" t="s">
         <v>340</v>
       </c>
       <c r="C2267" s="0" t="s">
-        <v>8395</v>
+        <v>8396</v>
       </c>
       <c r="D2267" s="0" t="s">
-        <v>8425</v>
+        <v>8426</v>
       </c>
       <c r="E2267" s="0" t="s">
-        <v>8426</v>
+        <v>8427</v>
       </c>
       <c r="F2267" s="0" t="s">
-        <v>8427</v>
+        <v>8428</v>
       </c>
     </row>
     <row r="2268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2268" s="0" t="s">
-        <v>8428</v>
+        <v>8429</v>
       </c>
       <c r="B2268" s="0" t="s">
         <v>135</v>
       </c>
       <c r="C2268" s="0" t="s">
-        <v>8395</v>
+        <v>8396</v>
       </c>
       <c r="D2268" s="0" t="s">
-        <v>8429</v>
+        <v>8430</v>
       </c>
       <c r="E2268" s="0" t="s">
-        <v>8430</v>
+        <v>8431</v>
       </c>
       <c r="F2268" s="0" t="s">
-        <v>8431</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="2269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2269" s="0" t="s">
-        <v>8432</v>
+        <v>8433</v>
       </c>
       <c r="B2269" s="0" t="s">
         <v>340</v>
       </c>
       <c r="C2269" s="0" t="s">
-        <v>8395</v>
+        <v>8396</v>
       </c>
       <c r="D2269" s="0" t="s">
-        <v>8433</v>
+        <v>8434</v>
       </c>
       <c r="E2269" s="0" t="s">
-        <v>8434</v>
+        <v>8435</v>
       </c>
       <c r="F2269" s="0" t="s">
-        <v>8435</v>
+        <v>8436</v>
       </c>
     </row>
     <row r="2270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2270" s="0" t="s">
-        <v>8436</v>
+        <v>8437</v>
       </c>
       <c r="B2270" s="0" t="s">
         <v>340</v>
       </c>
       <c r="C2270" s="0" t="s">
-        <v>8395</v>
+        <v>8396</v>
       </c>
       <c r="D2270" s="0" t="s">
-        <v>8437</v>
+        <v>8438</v>
       </c>
       <c r="E2270" s="0" t="s">
-        <v>8438</v>
+        <v>8439</v>
       </c>
       <c r="F2270" s="0" t="s">
-        <v>8439</v>
+        <v>8440</v>
       </c>
     </row>
     <row r="2271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2271" s="0" t="s">
-        <v>8440</v>
+        <v>8441</v>
       </c>
       <c r="B2271" s="0" t="s">
         <v>64</v>
       </c>
       <c r="C2271" s="0" t="s">
-        <v>8441</v>
+        <v>8442</v>
       </c>
       <c r="D2271" s="0" t="s">
-        <v>8442</v>
+        <v>8443</v>
       </c>
       <c r="E2271" s="0" t="s">
-        <v>8443</v>
+        <v>8444</v>
       </c>
       <c r="F2271" s="0" t="s">
-        <v>8444</v>
+        <v>8445</v>
       </c>
     </row>
     <row r="2272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2272" s="0" t="s">
-        <v>8445</v>
+        <v>8446</v>
       </c>
       <c r="B2272" s="0" t="s">
         <v>148</v>
       </c>
       <c r="C2272" s="0" t="s">
-        <v>8441</v>
+        <v>8442</v>
       </c>
       <c r="D2272" s="0" t="s">
-        <v>8446</v>
+        <v>8447</v>
       </c>
       <c r="E2272" s="0" t="s">
-        <v>8447</v>
+        <v>8448</v>
       </c>
       <c r="F2272" s="0" t="s">
-        <v>8448</v>
+        <v>8449</v>
       </c>
     </row>
     <row r="2273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2273" s="0" t="s">
-        <v>8449</v>
+        <v>8450</v>
       </c>
       <c r="B2273" s="0" t="s">
         <v>64</v>
       </c>
       <c r="C2273" s="0" t="s">
-        <v>8441</v>
+        <v>8442</v>
       </c>
       <c r="D2273" s="0" t="s">
-        <v>8450</v>
+        <v>8451</v>
       </c>
       <c r="E2273" s="0" t="s">
-        <v>8451</v>
+        <v>8452</v>
       </c>
       <c r="F2273" s="0" t="s">
-        <v>8452</v>
+        <v>8453</v>
       </c>
     </row>
     <row r="2274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2274" s="0" t="s">
-        <v>8453</v>
+        <v>8454</v>
       </c>
       <c r="B2274" s="0" t="s">
         <v>148</v>
       </c>
       <c r="D2274" s="0" t="s">
-        <v>8454</v>
+        <v>8455</v>
       </c>
       <c r="E2274" s="0" t="s">
-        <v>8455</v>
+        <v>8456</v>
       </c>
       <c r="F2274" s="0" t="s">
-        <v>8456</v>
+        <v>8457</v>
       </c>
     </row>
     <row r="2275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2275" s="0" t="s">
-        <v>8457</v>
+        <v>8458</v>
       </c>
       <c r="B2275" s="0" t="s">
         <v>148</v>
       </c>
       <c r="D2275" s="0" t="s">
-        <v>8458</v>
+        <v>8459</v>
       </c>
       <c r="E2275" s="0" t="s">
-        <v>8459</v>
+        <v>8460</v>
       </c>
       <c r="F2275" s="0" t="s">
-        <v>8460</v>
+        <v>8461</v>
       </c>
     </row>
     <row r="2276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2276" s="0" t="s">
-        <v>8461</v>
+        <v>8462</v>
       </c>
       <c r="B2276" s="0" t="s">
         <v>148</v>
       </c>
       <c r="D2276" s="0" t="s">
-        <v>8462</v>
+        <v>8463</v>
       </c>
       <c r="E2276" s="0" t="s">
-        <v>8463</v>
+        <v>8464</v>
       </c>
       <c r="F2276" s="0" t="s">
-        <v>8464</v>
+        <v>8465</v>
       </c>
     </row>
     <row r="2277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2277" s="0" t="s">
-        <v>8465</v>
+        <v>8466</v>
       </c>
       <c r="B2277" s="0" t="s">
         <v>632</v>
       </c>
       <c r="D2277" s="0" t="s">
-        <v>8466</v>
+        <v>8467</v>
       </c>
       <c r="E2277" s="0" t="s">
-        <v>8467</v>
+        <v>8468</v>
       </c>
       <c r="F2277" s="0" t="s">
-        <v>8468</v>
+        <v>8469</v>
       </c>
     </row>
     <row r="2278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2278" s="0" t="s">
-        <v>8469</v>
+        <v>8470</v>
       </c>
       <c r="B2278" s="0" t="s">
         <v>64</v>
       </c>
       <c r="D2278" s="0" t="s">
-        <v>8470</v>
+        <v>8471</v>
       </c>
       <c r="E2278" s="0" t="s">
-        <v>8471</v>
+        <v>8472</v>
       </c>
       <c r="F2278" s="0" t="s">
-        <v>8472</v>
+        <v>8473</v>
       </c>
     </row>
     <row r="2279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2279" s="0" t="s">
-        <v>8473</v>
+        <v>8474</v>
       </c>
       <c r="B2279" s="0" t="s">
         <v>32</v>
       </c>
       <c r="D2279" s="0" t="s">
-        <v>8474</v>
+        <v>8475</v>
       </c>
       <c r="E2279" s="0" t="s">
-        <v>8475</v>
+        <v>8476</v>
       </c>
       <c r="F2279" s="0" t="s">
-        <v>8476</v>
+        <v>8477</v>
       </c>
     </row>
     <row r="2280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2280" s="0" t="s">
-        <v>8477</v>
+        <v>8478</v>
       </c>
       <c r="B2280" s="0" t="s">
         <v>64</v>
       </c>
       <c r="D2280" s="0" t="s">
-        <v>8478</v>
+        <v>8479</v>
       </c>
       <c r="E2280" s="0" t="s">
-        <v>8479</v>
+        <v>8480</v>
       </c>
       <c r="F2280" s="0" t="s">
-        <v>8480</v>
+        <v>8481</v>
       </c>
     </row>
     <row r="2281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2281" s="0" t="s">
-        <v>8481</v>
+        <v>8482</v>
       </c>
       <c r="B2281" s="0" t="s">
         <v>64</v>
       </c>
       <c r="D2281" s="0" t="s">
-        <v>8482</v>
+        <v>8483</v>
       </c>
       <c r="E2281" s="0" t="s">
-        <v>8483</v>
+        <v>8484</v>
       </c>
       <c r="F2281" s="0" t="s">
-        <v>8484</v>
+        <v>8485</v>
       </c>
     </row>
     <row r="2282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2282" s="0" t="s">
-        <v>8485</v>
+        <v>8486</v>
       </c>
       <c r="B2282" s="0" t="s">
         <v>64</v>
       </c>
       <c r="D2282" s="0" t="s">
-        <v>8486</v>
+        <v>8487</v>
       </c>
       <c r="E2282" s="0" t="s">
-        <v>8487</v>
+        <v>8488</v>
       </c>
       <c r="F2282" s="0" t="s">
-        <v>8488</v>
+        <v>8489</v>
       </c>
     </row>
     <row r="2283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2283" s="0" t="s">
-        <v>8489</v>
+        <v>8490</v>
       </c>
       <c r="B2283" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D2283" s="0" t="s">
-        <v>8490</v>
+        <v>8491</v>
       </c>
       <c r="E2283" s="0" t="s">
-        <v>8491</v>
+        <v>8492</v>
       </c>
       <c r="F2283" s="0" t="s">
-        <v>8492</v>
+        <v>8493</v>
       </c>
     </row>
     <row r="2284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2284" s="0" t="s">
-        <v>8493</v>
+        <v>8494</v>
       </c>
       <c r="B2284" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D2284" s="0" t="s">
-        <v>8494</v>
+        <v>8495</v>
       </c>
       <c r="E2284" s="0" t="s">
-        <v>8495</v>
+        <v>8496</v>
       </c>
       <c r="F2284" s="0" t="s">
-        <v>8496</v>
+        <v>8497</v>
       </c>
     </row>
     <row r="2285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2285" s="0" t="s">
-        <v>8497</v>
+        <v>8498</v>
       </c>
       <c r="B2285" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D2285" s="0" t="s">
-        <v>8498</v>
+        <v>8499</v>
       </c>
       <c r="E2285" s="0" t="s">
-        <v>8499</v>
+        <v>8500</v>
       </c>
       <c r="F2285" s="0" t="s">
-        <v>8500</v>
+        <v>8501</v>
       </c>
     </row>
     <row r="2286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2286" s="0" t="s">
-        <v>8501</v>
+        <v>8502</v>
       </c>
       <c r="B2286" s="0" t="s">
         <v>1295</v>
@@ -74093,41 +74144,41 @@
     </row>
     <row r="2287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2287" s="0" t="s">
-        <v>8502</v>
+        <v>8503</v>
       </c>
       <c r="B2287" s="0" t="s">
         <v>1295</v>
       </c>
       <c r="D2287" s="0" t="s">
-        <v>8503</v>
+        <v>8504</v>
       </c>
       <c r="E2287" s="0" t="s">
-        <v>8504</v>
+        <v>8505</v>
       </c>
       <c r="F2287" s="0" t="s">
-        <v>8505</v>
+        <v>8506</v>
       </c>
     </row>
     <row r="2288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2288" s="0" t="s">
-        <v>8506</v>
+        <v>8507</v>
       </c>
       <c r="B2288" s="0" t="s">
         <v>55</v>
       </c>
       <c r="D2288" s="0" t="s">
-        <v>8507</v>
+        <v>8508</v>
       </c>
       <c r="E2288" s="0" t="s">
-        <v>8508</v>
+        <v>8509</v>
       </c>
       <c r="F2288" s="0" t="s">
-        <v>8509</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="2289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2289" s="0" t="s">
-        <v>8510</v>
+        <v>8511</v>
       </c>
       <c r="B2289" s="0" t="s">
         <v>748</v>
@@ -74136,18 +74187,18 @@
         <v>7792</v>
       </c>
       <c r="D2289" s="0" t="s">
-        <v>8511</v>
+        <v>8512</v>
       </c>
       <c r="E2289" s="0" t="s">
-        <v>8512</v>
+        <v>8513</v>
       </c>
       <c r="F2289" s="0" t="s">
-        <v>8513</v>
+        <v>8514</v>
       </c>
     </row>
     <row r="2290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2290" s="0" t="s">
-        <v>8514</v>
+        <v>8515</v>
       </c>
       <c r="B2290" s="0" t="s">
         <v>55</v>
@@ -74156,18 +74207,18 @@
         <v>7792</v>
       </c>
       <c r="D2290" s="0" t="s">
-        <v>8515</v>
+        <v>8516</v>
       </c>
       <c r="E2290" s="0" t="s">
-        <v>8516</v>
+        <v>8517</v>
       </c>
       <c r="F2290" s="0" t="s">
-        <v>8517</v>
+        <v>8518</v>
       </c>
     </row>
     <row r="2291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2291" s="0" t="s">
-        <v>8518</v>
+        <v>8519</v>
       </c>
       <c r="B2291" s="0" t="s">
         <v>2665</v>
@@ -74176,38 +74227,38 @@
         <v>7792</v>
       </c>
       <c r="D2291" s="0" t="s">
-        <v>8519</v>
+        <v>8520</v>
       </c>
       <c r="E2291" s="0" t="s">
-        <v>8520</v>
+        <v>8521</v>
       </c>
       <c r="F2291" s="0" t="s">
-        <v>8521</v>
+        <v>8522</v>
       </c>
     </row>
     <row r="2292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2292" s="0" t="s">
-        <v>8522</v>
+        <v>8523</v>
       </c>
       <c r="B2292" s="0" t="s">
-        <v>8523</v>
+        <v>8524</v>
       </c>
       <c r="C2292" s="0" t="s">
         <v>7792</v>
       </c>
       <c r="D2292" s="0" t="s">
-        <v>8519</v>
+        <v>8520</v>
       </c>
       <c r="E2292" s="0" t="s">
-        <v>8520</v>
+        <v>8521</v>
       </c>
       <c r="F2292" s="0" t="s">
-        <v>8521</v>
+        <v>8522</v>
       </c>
     </row>
     <row r="2293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2293" s="0" t="s">
-        <v>8524</v>
+        <v>8525</v>
       </c>
       <c r="B2293" s="0" t="s">
         <v>55</v>
@@ -74216,18 +74267,18 @@
         <v>7792</v>
       </c>
       <c r="D2293" s="0" t="s">
-        <v>8525</v>
+        <v>8526</v>
       </c>
       <c r="E2293" s="0" t="s">
-        <v>8526</v>
+        <v>8527</v>
       </c>
       <c r="F2293" s="0" t="s">
-        <v>8527</v>
+        <v>8528</v>
       </c>
     </row>
     <row r="2294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2294" s="0" t="s">
-        <v>8528</v>
+        <v>8529</v>
       </c>
       <c r="B2294" s="0" t="s">
         <v>55</v>
@@ -74247,7 +74298,7 @@
     </row>
     <row r="2295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2295" s="0" t="s">
-        <v>8529</v>
+        <v>8530</v>
       </c>
       <c r="B2295" s="0" t="s">
         <v>55</v>
@@ -74256,38 +74307,38 @@
         <v>7792</v>
       </c>
       <c r="D2295" s="0" t="s">
-        <v>8530</v>
+        <v>8531</v>
       </c>
       <c r="E2295" s="0" t="s">
-        <v>8531</v>
+        <v>8532</v>
       </c>
       <c r="F2295" s="0" t="s">
-        <v>8532</v>
+        <v>8533</v>
       </c>
     </row>
     <row r="2296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2296" s="0" t="s">
-        <v>8533</v>
+        <v>8534</v>
       </c>
       <c r="B2296" s="0" t="s">
-        <v>8534</v>
+        <v>8535</v>
       </c>
       <c r="C2296" s="0" t="s">
         <v>7792</v>
       </c>
       <c r="D2296" s="0" t="s">
-        <v>8535</v>
+        <v>8536</v>
       </c>
       <c r="E2296" s="0" t="s">
-        <v>8536</v>
+        <v>8537</v>
       </c>
       <c r="F2296" s="0" t="s">
-        <v>8537</v>
+        <v>8538</v>
       </c>
     </row>
     <row r="2297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2297" s="0" t="s">
-        <v>8538</v>
+        <v>8539</v>
       </c>
       <c r="B2297" s="0" t="s">
         <v>55</v>
@@ -74296,18 +74347,18 @@
         <v>7792</v>
       </c>
       <c r="D2297" s="0" t="s">
-        <v>8539</v>
+        <v>8540</v>
       </c>
       <c r="E2297" s="0" t="s">
         <v>1135</v>
       </c>
       <c r="F2297" s="0" t="s">
-        <v>8540</v>
+        <v>8541</v>
       </c>
     </row>
     <row r="2298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2298" s="0" t="s">
-        <v>8541</v>
+        <v>8542</v>
       </c>
       <c r="B2298" s="0" t="s">
         <v>171</v>
@@ -74316,126 +74367,126 @@
         <v>7792</v>
       </c>
       <c r="D2298" s="0" t="s">
-        <v>8542</v>
+        <v>8543</v>
       </c>
       <c r="E2298" s="0" t="s">
-        <v>8543</v>
+        <v>8544</v>
       </c>
       <c r="F2298" s="0" t="s">
-        <v>8544</v>
+        <v>8545</v>
       </c>
     </row>
     <row r="2299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2299" s="0" t="s">
-        <v>8545</v>
+        <v>8546</v>
       </c>
       <c r="B2299" s="0" t="s">
         <v>55</v>
       </c>
       <c r="D2299" s="0" t="s">
-        <v>8546</v>
+        <v>8547</v>
       </c>
       <c r="E2299" s="0" t="s">
-        <v>8547</v>
+        <v>8548</v>
       </c>
       <c r="F2299" s="0" t="s">
-        <v>8548</v>
+        <v>8549</v>
       </c>
     </row>
     <row r="2300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2300" s="0" t="s">
-        <v>8549</v>
+        <v>8550</v>
       </c>
       <c r="B2300" s="0" t="s">
         <v>4847</v>
       </c>
       <c r="D2300" s="0" t="s">
-        <v>8550</v>
+        <v>8551</v>
       </c>
       <c r="E2300" s="0" t="s">
-        <v>8551</v>
+        <v>8552</v>
       </c>
       <c r="F2300" s="0" t="s">
-        <v>8552</v>
+        <v>8553</v>
       </c>
     </row>
     <row r="2301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2301" s="0" t="s">
-        <v>8553</v>
+        <v>8554</v>
       </c>
       <c r="B2301" s="0" t="s">
         <v>1178</v>
       </c>
       <c r="D2301" s="0" t="s">
-        <v>8554</v>
+        <v>8555</v>
       </c>
       <c r="E2301" s="0" t="s">
-        <v>8555</v>
+        <v>8556</v>
       </c>
       <c r="F2301" s="0" t="s">
-        <v>8556</v>
+        <v>8557</v>
       </c>
     </row>
     <row r="2302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2302" s="0" t="s">
-        <v>8557</v>
+        <v>8558</v>
       </c>
       <c r="B2302" s="0" t="s">
         <v>632</v>
       </c>
       <c r="D2302" s="0" t="s">
-        <v>8558</v>
+        <v>8559</v>
       </c>
       <c r="E2302" s="0" t="s">
-        <v>8559</v>
+        <v>8560</v>
       </c>
       <c r="F2302" s="0" t="s">
-        <v>8560</v>
+        <v>8561</v>
       </c>
     </row>
     <row r="2303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2303" s="0" t="s">
-        <v>8561</v>
+        <v>8562</v>
       </c>
       <c r="B2303" s="0" t="s">
         <v>166</v>
       </c>
       <c r="D2303" s="0" t="s">
-        <v>8562</v>
+        <v>8563</v>
       </c>
       <c r="E2303" s="0" t="s">
-        <v>8563</v>
+        <v>8564</v>
       </c>
       <c r="F2303" s="0" t="s">
-        <v>8564</v>
+        <v>8565</v>
       </c>
     </row>
     <row r="2304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2304" s="0" t="s">
-        <v>8565</v>
+        <v>8566</v>
       </c>
       <c r="B2304" s="0" t="s">
         <v>55</v>
       </c>
       <c r="D2304" s="0" t="s">
-        <v>8566</v>
+        <v>8567</v>
       </c>
       <c r="E2304" s="0" t="s">
-        <v>8567</v>
+        <v>8568</v>
       </c>
       <c r="F2304" s="0" t="s">
-        <v>8568</v>
+        <v>8569</v>
       </c>
     </row>
     <row r="2305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2305" s="0" t="s">
-        <v>8569</v>
+        <v>8570</v>
       </c>
       <c r="B2305" s="0" t="s">
         <v>4847</v>
       </c>
       <c r="D2305" s="0" t="s">
-        <v>8570</v>
+        <v>8571</v>
       </c>
       <c r="E2305" s="0" t="s">
         <v>1442</v>
@@ -74446,7 +74497,7 @@
     </row>
     <row r="2306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2306" s="0" t="s">
-        <v>8571</v>
+        <v>8572</v>
       </c>
       <c r="B2306" s="0" t="s">
         <v>55</v>
@@ -74463,7 +74514,7 @@
     </row>
     <row r="2307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2307" s="0" t="s">
-        <v>8572</v>
+        <v>8573</v>
       </c>
       <c r="B2307" s="0" t="s">
         <v>166</v>
@@ -74480,330 +74531,330 @@
     </row>
     <row r="2308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2308" s="0" t="s">
-        <v>8573</v>
+        <v>8574</v>
       </c>
       <c r="B2308" s="0" t="s">
         <v>551</v>
       </c>
       <c r="D2308" s="0" t="s">
-        <v>8574</v>
+        <v>8575</v>
       </c>
       <c r="E2308" s="0" t="s">
-        <v>8575</v>
+        <v>8576</v>
       </c>
       <c r="F2308" s="0" t="s">
-        <v>8576</v>
+        <v>8577</v>
       </c>
     </row>
     <row r="2309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2309" s="0" t="s">
-        <v>8577</v>
+        <v>8578</v>
       </c>
       <c r="B2309" s="0" t="s">
         <v>166</v>
       </c>
       <c r="D2309" s="0" t="s">
-        <v>8578</v>
+        <v>8579</v>
       </c>
       <c r="E2309" s="0" t="s">
-        <v>8579</v>
+        <v>8580</v>
       </c>
       <c r="F2309" s="0" t="s">
-        <v>8580</v>
+        <v>8581</v>
       </c>
     </row>
     <row r="2310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2310" s="0" t="s">
-        <v>8581</v>
+        <v>8582</v>
       </c>
       <c r="B2310" s="0" t="s">
         <v>166</v>
       </c>
       <c r="D2310" s="0" t="s">
-        <v>8582</v>
+        <v>8583</v>
       </c>
       <c r="E2310" s="0" t="s">
-        <v>8583</v>
+        <v>8584</v>
       </c>
       <c r="F2310" s="0" t="s">
-        <v>8584</v>
+        <v>8585</v>
       </c>
     </row>
     <row r="2311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2311" s="0" t="s">
-        <v>8585</v>
+        <v>8586</v>
       </c>
       <c r="B2311" s="0" t="s">
         <v>166</v>
       </c>
       <c r="D2311" s="0" t="s">
-        <v>8586</v>
+        <v>8587</v>
       </c>
       <c r="E2311" s="0" t="s">
-        <v>8587</v>
+        <v>8588</v>
       </c>
       <c r="F2311" s="0" t="s">
-        <v>8588</v>
+        <v>8589</v>
       </c>
     </row>
     <row r="2312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2312" s="0" t="s">
-        <v>8589</v>
+        <v>8590</v>
       </c>
       <c r="B2312" s="0" t="s">
         <v>1878</v>
       </c>
       <c r="D2312" s="0" t="s">
-        <v>8590</v>
+        <v>8591</v>
       </c>
       <c r="E2312" s="0" t="s">
-        <v>8591</v>
+        <v>8592</v>
       </c>
       <c r="F2312" s="0" t="s">
-        <v>8592</v>
+        <v>8593</v>
       </c>
     </row>
     <row r="2313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2313" s="0" t="s">
-        <v>8593</v>
+        <v>8594</v>
       </c>
       <c r="B2313" s="0" t="s">
         <v>453</v>
       </c>
       <c r="D2313" s="0" t="s">
-        <v>8594</v>
+        <v>8595</v>
       </c>
       <c r="E2313" s="0" t="s">
-        <v>8595</v>
+        <v>8596</v>
       </c>
       <c r="F2313" s="0" t="s">
-        <v>8596</v>
+        <v>8597</v>
       </c>
     </row>
     <row r="2314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2314" s="0" t="s">
-        <v>8597</v>
+        <v>8598</v>
       </c>
       <c r="B2314" s="0" t="s">
         <v>166</v>
       </c>
       <c r="D2314" s="0" t="s">
-        <v>8598</v>
+        <v>8599</v>
       </c>
       <c r="E2314" s="0" t="s">
-        <v>8599</v>
+        <v>8600</v>
       </c>
       <c r="F2314" s="0" t="s">
-        <v>8600</v>
+        <v>8601</v>
       </c>
     </row>
     <row r="2315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2315" s="0" t="s">
-        <v>8601</v>
+        <v>8602</v>
       </c>
       <c r="B2315" s="0" t="s">
         <v>166</v>
       </c>
       <c r="D2315" s="0" t="s">
-        <v>8602</v>
+        <v>8603</v>
       </c>
       <c r="E2315" s="0" t="s">
-        <v>8603</v>
+        <v>8604</v>
       </c>
       <c r="F2315" s="0" t="s">
-        <v>8604</v>
+        <v>8605</v>
       </c>
     </row>
     <row r="2316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2316" s="0" t="s">
-        <v>8605</v>
+        <v>8606</v>
       </c>
       <c r="B2316" s="0" t="s">
         <v>166</v>
       </c>
       <c r="D2316" s="0" t="s">
-        <v>8606</v>
+        <v>8607</v>
       </c>
       <c r="E2316" s="0" t="s">
-        <v>8607</v>
+        <v>8608</v>
       </c>
       <c r="F2316" s="0" t="s">
-        <v>8608</v>
+        <v>8609</v>
       </c>
     </row>
     <row r="2317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2317" s="0" t="s">
-        <v>8609</v>
+        <v>8610</v>
       </c>
       <c r="B2317" s="0" t="s">
         <v>166</v>
       </c>
       <c r="D2317" s="0" t="s">
-        <v>8610</v>
+        <v>8611</v>
       </c>
       <c r="E2317" s="0" t="s">
-        <v>8611</v>
+        <v>8612</v>
       </c>
       <c r="F2317" s="0" t="s">
-        <v>8612</v>
+        <v>8613</v>
       </c>
     </row>
     <row r="2318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2318" s="0" t="s">
-        <v>8613</v>
+        <v>8614</v>
       </c>
       <c r="B2318" s="0" t="s">
         <v>135</v>
       </c>
       <c r="D2318" s="0" t="s">
-        <v>8614</v>
+        <v>8615</v>
       </c>
       <c r="E2318" s="0" t="s">
-        <v>8615</v>
+        <v>8616</v>
       </c>
       <c r="F2318" s="0" t="s">
-        <v>8616</v>
+        <v>8617</v>
       </c>
     </row>
     <row r="2319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2319" s="0" t="s">
-        <v>8617</v>
+        <v>8618</v>
       </c>
       <c r="B2319" s="0" t="s">
         <v>166</v>
       </c>
       <c r="D2319" s="0" t="s">
-        <v>8618</v>
+        <v>8619</v>
       </c>
       <c r="E2319" s="0" t="s">
-        <v>8619</v>
+        <v>8620</v>
       </c>
       <c r="F2319" s="0" t="s">
-        <v>8620</v>
+        <v>8621</v>
       </c>
     </row>
     <row r="2320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2320" s="0" t="s">
-        <v>8621</v>
+        <v>8622</v>
       </c>
       <c r="B2320" s="0" t="s">
         <v>166</v>
       </c>
       <c r="D2320" s="0" t="s">
-        <v>8622</v>
+        <v>8623</v>
       </c>
       <c r="E2320" s="0" t="s">
-        <v>8623</v>
+        <v>8624</v>
       </c>
       <c r="F2320" s="0" t="s">
-        <v>8624</v>
+        <v>8625</v>
       </c>
     </row>
     <row r="2321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2321" s="0" t="s">
-        <v>8625</v>
+        <v>8626</v>
       </c>
       <c r="B2321" s="0" t="s">
         <v>166</v>
       </c>
       <c r="D2321" s="0" t="s">
-        <v>8626</v>
+        <v>8627</v>
       </c>
       <c r="E2321" s="0" t="s">
-        <v>8627</v>
+        <v>8628</v>
       </c>
       <c r="F2321" s="0" t="s">
-        <v>8628</v>
+        <v>8629</v>
       </c>
     </row>
     <row r="2322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2322" s="0" t="s">
-        <v>8629</v>
+        <v>8630</v>
       </c>
       <c r="B2322" s="0" t="s">
         <v>6958</v>
       </c>
       <c r="D2322" s="0" t="s">
-        <v>8630</v>
+        <v>8631</v>
       </c>
       <c r="E2322" s="0" t="s">
-        <v>8631</v>
+        <v>8632</v>
       </c>
       <c r="F2322" s="0" t="s">
-        <v>8632</v>
+        <v>8633</v>
       </c>
     </row>
     <row r="2323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2323" s="0" t="s">
-        <v>8633</v>
+        <v>8634</v>
       </c>
       <c r="B2323" s="0" t="s">
         <v>6958</v>
       </c>
       <c r="D2323" s="0" t="s">
-        <v>8634</v>
+        <v>8635</v>
       </c>
       <c r="E2323" s="0" t="s">
-        <v>8635</v>
+        <v>8636</v>
       </c>
       <c r="F2323" s="0" t="s">
-        <v>8636</v>
+        <v>8637</v>
       </c>
     </row>
     <row r="2324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2324" s="0" t="s">
-        <v>8637</v>
+        <v>8638</v>
       </c>
       <c r="B2324" s="0" t="s">
         <v>6958</v>
       </c>
       <c r="D2324" s="0" t="s">
-        <v>8638</v>
+        <v>8639</v>
       </c>
       <c r="E2324" s="0" t="s">
-        <v>8639</v>
+        <v>8640</v>
       </c>
       <c r="F2324" s="0" t="s">
-        <v>8640</v>
+        <v>8641</v>
       </c>
     </row>
     <row r="2325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2325" s="0" t="s">
-        <v>8641</v>
+        <v>8642</v>
       </c>
       <c r="B2325" s="0" t="s">
         <v>1178</v>
       </c>
       <c r="D2325" s="0" t="s">
-        <v>8642</v>
+        <v>8643</v>
       </c>
       <c r="E2325" s="0" t="s">
-        <v>8643</v>
+        <v>8644</v>
       </c>
       <c r="F2325" s="0" t="s">
-        <v>8644</v>
+        <v>8645</v>
       </c>
     </row>
     <row r="2326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2326" s="0" t="s">
-        <v>8645</v>
+        <v>8646</v>
       </c>
       <c r="B2326" s="0" t="s">
         <v>6958</v>
       </c>
       <c r="D2326" s="0" t="s">
-        <v>8646</v>
+        <v>8647</v>
       </c>
       <c r="E2326" s="0" t="s">
-        <v>8647</v>
+        <v>8648</v>
       </c>
       <c r="F2326" s="0" t="s">
-        <v>8648</v>
+        <v>8649</v>
       </c>
     </row>
     <row r="2327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2327" s="0" t="s">
-        <v>8649</v>
+        <v>8650</v>
       </c>
       <c r="B2327" s="0" t="s">
         <v>166</v>
@@ -74820,24 +74871,24 @@
     </row>
     <row r="2328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2328" s="0" t="s">
-        <v>8650</v>
+        <v>8651</v>
       </c>
       <c r="B2328" s="0" t="s">
         <v>166</v>
       </c>
       <c r="D2328" s="0" t="s">
-        <v>8651</v>
+        <v>8652</v>
       </c>
       <c r="E2328" s="0" t="s">
-        <v>8652</v>
+        <v>8653</v>
       </c>
       <c r="F2328" s="0" t="s">
-        <v>8653</v>
+        <v>8654</v>
       </c>
     </row>
     <row r="2329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2329" s="0" t="s">
-        <v>8654</v>
+        <v>8655</v>
       </c>
       <c r="B2329" s="0" t="s">
         <v>166</v>
@@ -74846,273 +74897,273 @@
         <v>3958</v>
       </c>
       <c r="D2329" s="0" t="s">
-        <v>8655</v>
+        <v>8656</v>
       </c>
       <c r="E2329" s="0" t="s">
-        <v>8655</v>
+        <v>8656</v>
       </c>
       <c r="F2329" s="0" t="s">
-        <v>8655</v>
+        <v>8656</v>
       </c>
     </row>
     <row r="2330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2330" s="0" t="s">
-        <v>8656</v>
+        <v>8657</v>
       </c>
       <c r="B2330" s="0" t="s">
         <v>171</v>
       </c>
       <c r="D2330" s="0" t="s">
-        <v>8657</v>
+        <v>8658</v>
       </c>
       <c r="E2330" s="0" t="s">
-        <v>8658</v>
+        <v>8659</v>
       </c>
       <c r="F2330" s="0" t="s">
-        <v>8659</v>
+        <v>8660</v>
       </c>
     </row>
     <row r="2331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2331" s="0" t="s">
-        <v>8660</v>
+        <v>8661</v>
       </c>
       <c r="B2331" s="0" t="s">
         <v>108</v>
       </c>
       <c r="D2331" s="0" t="s">
-        <v>8661</v>
+        <v>8662</v>
       </c>
       <c r="E2331" s="0" t="s">
-        <v>8662</v>
+        <v>8663</v>
       </c>
       <c r="F2331" s="0" t="s">
-        <v>8663</v>
+        <v>8664</v>
       </c>
     </row>
     <row r="2332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2332" s="0" t="s">
-        <v>8664</v>
+        <v>8665</v>
       </c>
       <c r="B2332" s="0" t="s">
         <v>171</v>
       </c>
       <c r="D2332" s="0" t="s">
-        <v>8665</v>
+        <v>8666</v>
       </c>
       <c r="E2332" s="0" t="s">
-        <v>8666</v>
+        <v>8667</v>
       </c>
       <c r="F2332" s="0" t="s">
-        <v>8667</v>
+        <v>8668</v>
       </c>
     </row>
     <row r="2333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2333" s="0" t="s">
-        <v>8668</v>
+        <v>8669</v>
       </c>
       <c r="B2333" s="0" t="s">
         <v>171</v>
       </c>
       <c r="D2333" s="0" t="s">
-        <v>8669</v>
+        <v>8670</v>
       </c>
       <c r="E2333" s="0" t="s">
-        <v>8670</v>
+        <v>8671</v>
       </c>
       <c r="F2333" s="0" t="s">
-        <v>8671</v>
+        <v>8672</v>
       </c>
     </row>
     <row r="2334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2334" s="0" t="s">
-        <v>8672</v>
+        <v>8673</v>
       </c>
       <c r="B2334" s="0" t="s">
         <v>171</v>
       </c>
       <c r="D2334" s="0" t="s">
-        <v>8673</v>
+        <v>8674</v>
       </c>
       <c r="E2334" s="0" t="s">
-        <v>8674</v>
+        <v>8675</v>
       </c>
       <c r="F2334" s="0" t="s">
-        <v>8675</v>
+        <v>8676</v>
       </c>
     </row>
     <row r="2335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2335" s="0" t="s">
-        <v>8676</v>
+        <v>8677</v>
       </c>
       <c r="B2335" s="0" t="s">
         <v>108</v>
       </c>
       <c r="D2335" s="0" t="s">
-        <v>8677</v>
+        <v>8678</v>
       </c>
       <c r="E2335" s="0" t="s">
-        <v>8678</v>
+        <v>8679</v>
       </c>
       <c r="F2335" s="0" t="s">
-        <v>8679</v>
+        <v>8680</v>
       </c>
     </row>
     <row r="2336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2336" s="0" t="s">
-        <v>8680</v>
+        <v>8681</v>
       </c>
       <c r="B2336" s="0" t="s">
         <v>32</v>
       </c>
       <c r="D2336" s="0" t="s">
-        <v>8681</v>
+        <v>8682</v>
       </c>
       <c r="E2336" s="0" t="s">
-        <v>8682</v>
+        <v>8683</v>
       </c>
       <c r="F2336" s="0" t="s">
-        <v>8683</v>
+        <v>8684</v>
       </c>
     </row>
     <row r="2337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2337" s="0" t="s">
-        <v>8684</v>
+        <v>8685</v>
       </c>
       <c r="B2337" s="0" t="s">
         <v>32</v>
       </c>
       <c r="D2337" s="0" t="s">
-        <v>8685</v>
+        <v>8686</v>
       </c>
       <c r="E2337" s="0" t="s">
-        <v>8686</v>
+        <v>8687</v>
       </c>
       <c r="F2337" s="0" t="s">
-        <v>8687</v>
+        <v>8688</v>
       </c>
     </row>
     <row r="2338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2338" s="0" t="s">
-        <v>8688</v>
+        <v>8689</v>
       </c>
       <c r="B2338" s="0" t="s">
         <v>108</v>
       </c>
       <c r="D2338" s="0" t="s">
-        <v>8689</v>
+        <v>8690</v>
       </c>
       <c r="E2338" s="0" t="s">
-        <v>8690</v>
+        <v>8691</v>
       </c>
       <c r="F2338" s="0" t="s">
-        <v>8691</v>
+        <v>8692</v>
       </c>
     </row>
     <row r="2339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2339" s="0" t="s">
-        <v>8692</v>
+        <v>8693</v>
       </c>
       <c r="B2339" s="0" t="s">
         <v>32</v>
       </c>
       <c r="D2339" s="0" t="s">
-        <v>8693</v>
+        <v>8694</v>
       </c>
       <c r="E2339" s="0" t="s">
-        <v>8694</v>
+        <v>8695</v>
       </c>
       <c r="F2339" s="0" t="s">
-        <v>8695</v>
+        <v>8696</v>
       </c>
     </row>
     <row r="2340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2340" s="0" t="s">
-        <v>8696</v>
+        <v>8697</v>
       </c>
       <c r="B2340" s="0" t="s">
         <v>32</v>
       </c>
       <c r="D2340" s="0" t="s">
-        <v>8697</v>
+        <v>8698</v>
       </c>
       <c r="E2340" s="0" t="s">
-        <v>8698</v>
+        <v>8699</v>
       </c>
       <c r="F2340" s="0" t="s">
-        <v>8699</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="2341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2341" s="0" t="s">
-        <v>8700</v>
+        <v>8701</v>
       </c>
       <c r="B2341" s="0" t="s">
         <v>32</v>
       </c>
       <c r="D2341" s="0" t="s">
-        <v>8701</v>
+        <v>8702</v>
       </c>
       <c r="E2341" s="0" t="s">
-        <v>8702</v>
+        <v>8703</v>
       </c>
       <c r="F2341" s="0" t="s">
-        <v>8703</v>
+        <v>8704</v>
       </c>
     </row>
     <row r="2342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2342" s="0" t="s">
-        <v>8704</v>
+        <v>8705</v>
       </c>
       <c r="B2342" s="0" t="s">
         <v>32</v>
       </c>
       <c r="D2342" s="0" t="s">
-        <v>8705</v>
+        <v>8706</v>
       </c>
       <c r="E2342" s="0" t="s">
-        <v>8706</v>
+        <v>8707</v>
       </c>
       <c r="F2342" s="0" t="s">
-        <v>8707</v>
+        <v>8708</v>
       </c>
     </row>
     <row r="2343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2343" s="0" t="s">
-        <v>8708</v>
+        <v>8709</v>
       </c>
       <c r="B2343" s="0" t="s">
         <v>108</v>
       </c>
       <c r="D2343" s="0" t="s">
-        <v>8709</v>
+        <v>8710</v>
       </c>
       <c r="E2343" s="0" t="s">
-        <v>8710</v>
+        <v>8711</v>
       </c>
       <c r="F2343" s="0" t="s">
-        <v>8711</v>
+        <v>8712</v>
       </c>
     </row>
     <row r="2344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2344" s="0" t="s">
-        <v>8712</v>
+        <v>8713</v>
       </c>
       <c r="B2344" s="0" t="s">
         <v>135</v>
       </c>
       <c r="D2344" s="0" t="s">
-        <v>8713</v>
+        <v>8714</v>
       </c>
       <c r="E2344" s="0" t="s">
-        <v>8714</v>
+        <v>8715</v>
       </c>
       <c r="F2344" s="0" t="s">
-        <v>8715</v>
+        <v>8716</v>
       </c>
     </row>
     <row r="2345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2345" s="0" t="s">
-        <v>8716</v>
+        <v>8717</v>
       </c>
       <c r="B2345" s="0" t="s">
         <v>108</v>
@@ -75121,18 +75172,18 @@
         <v>2536</v>
       </c>
       <c r="D2345" s="0" t="s">
-        <v>8717</v>
+        <v>8718</v>
       </c>
       <c r="E2345" s="0" t="s">
-        <v>8718</v>
+        <v>8719</v>
       </c>
       <c r="F2345" s="0" t="s">
-        <v>8719</v>
+        <v>8720</v>
       </c>
     </row>
     <row r="2346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2346" s="0" t="s">
-        <v>8720</v>
+        <v>8721</v>
       </c>
       <c r="B2346" s="0" t="s">
         <v>1307</v>
@@ -75141,18 +75192,18 @@
         <v>2536</v>
       </c>
       <c r="D2346" s="0" t="s">
-        <v>8721</v>
+        <v>8722</v>
       </c>
       <c r="E2346" s="0" t="s">
-        <v>8722</v>
+        <v>8723</v>
       </c>
       <c r="F2346" s="0" t="s">
-        <v>8723</v>
+        <v>8724</v>
       </c>
     </row>
     <row r="2347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2347" s="0" t="s">
-        <v>8724</v>
+        <v>8725</v>
       </c>
       <c r="B2347" s="0" t="s">
         <v>632</v>
@@ -75161,18 +75212,18 @@
         <v>2536</v>
       </c>
       <c r="D2347" s="0" t="s">
-        <v>8725</v>
+        <v>8726</v>
       </c>
       <c r="E2347" s="0" t="s">
-        <v>8726</v>
+        <v>8727</v>
       </c>
       <c r="F2347" s="0" t="s">
-        <v>8727</v>
+        <v>8728</v>
       </c>
     </row>
     <row r="2348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2348" s="0" t="s">
-        <v>8728</v>
+        <v>8729</v>
       </c>
       <c r="B2348" s="0" t="s">
         <v>632</v>
@@ -75181,18 +75232,18 @@
         <v>3569</v>
       </c>
       <c r="D2348" s="0" t="s">
-        <v>8729</v>
+        <v>8730</v>
       </c>
       <c r="E2348" s="0" t="s">
-        <v>8730</v>
+        <v>8731</v>
       </c>
       <c r="F2348" s="0" t="s">
-        <v>8731</v>
+        <v>8732</v>
       </c>
     </row>
     <row r="2349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2349" s="0" t="s">
-        <v>8732</v>
+        <v>8733</v>
       </c>
       <c r="B2349" s="0" t="s">
         <v>108</v>
@@ -75212,7 +75263,7 @@
     </row>
     <row r="2350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2350" s="0" t="s">
-        <v>8733</v>
+        <v>8734</v>
       </c>
       <c r="B2350" s="0" t="s">
         <v>108</v>
@@ -75232,58 +75283,58 @@
     </row>
     <row r="2351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2351" s="0" t="s">
-        <v>8734</v>
+        <v>8735</v>
       </c>
       <c r="B2351" s="0" t="s">
         <v>108</v>
       </c>
       <c r="D2351" s="0" t="s">
-        <v>8735</v>
+        <v>8736</v>
       </c>
       <c r="E2351" s="0" t="s">
-        <v>8736</v>
+        <v>8737</v>
       </c>
       <c r="F2351" s="0" t="s">
-        <v>8737</v>
+        <v>8738</v>
       </c>
     </row>
     <row r="2352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2352" s="0" t="s">
-        <v>8738</v>
+        <v>8739</v>
       </c>
       <c r="B2352" s="0" t="s">
         <v>108</v>
       </c>
       <c r="D2352" s="0" t="s">
-        <v>8739</v>
+        <v>8740</v>
       </c>
       <c r="E2352" s="0" t="s">
-        <v>8740</v>
+        <v>8741</v>
       </c>
       <c r="F2352" s="0" t="s">
-        <v>8741</v>
+        <v>8742</v>
       </c>
     </row>
     <row r="2353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2353" s="0" t="s">
-        <v>8742</v>
+        <v>8743</v>
       </c>
       <c r="B2353" s="0" t="s">
         <v>108</v>
       </c>
       <c r="D2353" s="0" t="s">
-        <v>8743</v>
+        <v>8744</v>
       </c>
       <c r="E2353" s="0" t="s">
-        <v>8744</v>
+        <v>8745</v>
       </c>
       <c r="F2353" s="0" t="s">
-        <v>8745</v>
+        <v>8746</v>
       </c>
     </row>
     <row r="2354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2354" s="0" t="s">
-        <v>8746</v>
+        <v>8747</v>
       </c>
       <c r="B2354" s="0" t="s">
         <v>108</v>
@@ -75292,35 +75343,35 @@
         <v>3174</v>
       </c>
       <c r="D2354" s="0" t="s">
-        <v>8747</v>
+        <v>8748</v>
       </c>
       <c r="E2354" s="0" t="s">
-        <v>8748</v>
+        <v>8749</v>
       </c>
       <c r="F2354" s="0" t="s">
-        <v>8749</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="2355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2355" s="0" t="s">
-        <v>8750</v>
+        <v>8751</v>
       </c>
       <c r="B2355" s="0" t="s">
         <v>1729</v>
       </c>
       <c r="D2355" s="0" t="s">
-        <v>8751</v>
+        <v>8752</v>
       </c>
       <c r="E2355" s="0" t="s">
-        <v>8752</v>
+        <v>8753</v>
       </c>
       <c r="F2355" s="0" t="s">
-        <v>8753</v>
+        <v>8754</v>
       </c>
     </row>
     <row r="2356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2356" s="0" t="s">
-        <v>8754</v>
+        <v>8755</v>
       </c>
       <c r="B2356" s="0" t="s">
         <v>2885</v>
@@ -75329,55 +75380,55 @@
         <v>5123</v>
       </c>
       <c r="D2356" s="0" t="s">
-        <v>8755</v>
+        <v>8756</v>
       </c>
       <c r="E2356" s="0" t="s">
-        <v>8756</v>
+        <v>8757</v>
       </c>
       <c r="F2356" s="0" t="s">
-        <v>8757</v>
+        <v>8758</v>
       </c>
     </row>
     <row r="2357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2357" s="0" t="s">
-        <v>8758</v>
+        <v>8759</v>
       </c>
       <c r="B2357" s="0" t="s">
         <v>2885</v>
       </c>
       <c r="D2357" s="0" t="s">
-        <v>8759</v>
+        <v>8760</v>
       </c>
       <c r="E2357" s="0" t="s">
-        <v>8760</v>
+        <v>8761</v>
       </c>
       <c r="F2357" s="0" t="s">
-        <v>8761</v>
+        <v>8762</v>
       </c>
     </row>
     <row r="2358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2358" s="0" t="s">
-        <v>8762</v>
+        <v>8763</v>
       </c>
       <c r="B2358" s="0" t="s">
         <v>115</v>
       </c>
       <c r="D2358" s="0" t="s">
-        <v>8763</v>
+        <v>8764</v>
       </c>
       <c r="E2358" s="0" t="s">
-        <v>8764</v>
+        <v>8765</v>
       </c>
       <c r="F2358" s="0" t="s">
-        <v>8765</v>
+        <v>8766</v>
       </c>
     </row>
     <row r="2359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2359" s="0" t="s">
-        <v>8766</v>
+        <v>8767</v>
       </c>
       <c r="B2359" s="0" t="s">
-        <v>8767</v>
+        <v>8768</v>
       </c>
       <c r="C2359" s="0" t="s">
         <v>5123</v>
@@ -75394,81 +75445,81 @@
     </row>
     <row r="2360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2360" s="0" t="s">
-        <v>8768</v>
+        <v>8769</v>
       </c>
       <c r="B2360" s="0" t="s">
         <v>4812</v>
       </c>
       <c r="D2360" s="0" t="s">
-        <v>8769</v>
+        <v>8770</v>
       </c>
       <c r="E2360" s="0" t="s">
-        <v>8770</v>
+        <v>8771</v>
       </c>
       <c r="F2360" s="0" t="s">
-        <v>8771</v>
+        <v>8772</v>
       </c>
     </row>
     <row r="2361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2361" s="0" t="s">
-        <v>8772</v>
+        <v>8773</v>
       </c>
       <c r="B2361" s="0" t="s">
         <v>453</v>
       </c>
       <c r="D2361" s="0" t="s">
-        <v>8773</v>
+        <v>8774</v>
       </c>
       <c r="E2361" s="0" t="s">
-        <v>8774</v>
+        <v>8775</v>
       </c>
       <c r="F2361" s="0" t="s">
-        <v>8775</v>
+        <v>8776</v>
       </c>
     </row>
     <row r="2362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2362" s="0" t="s">
-        <v>8776</v>
+        <v>8777</v>
       </c>
       <c r="B2362" s="0" t="s">
         <v>135</v>
       </c>
       <c r="C2362" s="0" t="s">
-        <v>8777</v>
+        <v>8778</v>
       </c>
       <c r="D2362" s="0" t="s">
-        <v>8778</v>
+        <v>8779</v>
       </c>
       <c r="E2362" s="0" t="s">
-        <v>8779</v>
+        <v>8780</v>
       </c>
       <c r="F2362" s="0" t="s">
-        <v>8780</v>
+        <v>8781</v>
       </c>
     </row>
     <row r="2363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2363" s="0" t="s">
-        <v>8781</v>
+        <v>8782</v>
       </c>
       <c r="B2363" s="0" t="s">
         <v>135</v>
       </c>
       <c r="C2363" s="0" t="s">
-        <v>8777</v>
+        <v>8778</v>
       </c>
       <c r="D2363" s="0" t="s">
-        <v>8782</v>
+        <v>8783</v>
       </c>
       <c r="E2363" s="0" t="s">
-        <v>8783</v>
+        <v>8784</v>
       </c>
       <c r="F2363" s="0" t="s">
-        <v>8784</v>
+        <v>8785</v>
       </c>
     </row>
     <row r="2364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2364" s="0" t="s">
-        <v>8785</v>
+        <v>8786</v>
       </c>
       <c r="B2364" s="0" t="s">
         <v>50</v>
@@ -75488,7 +75539,7 @@
     </row>
     <row r="2365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2365" s="0" t="s">
-        <v>8786</v>
+        <v>8787</v>
       </c>
       <c r="B2365" s="0" t="s">
         <v>135</v>
@@ -75497,18 +75548,18 @@
         <v>3832</v>
       </c>
       <c r="D2365" s="0" t="s">
-        <v>8787</v>
+        <v>8788</v>
       </c>
       <c r="E2365" s="0" t="s">
-        <v>8788</v>
+        <v>8789</v>
       </c>
       <c r="F2365" s="0" t="s">
-        <v>8789</v>
+        <v>8790</v>
       </c>
     </row>
     <row r="2366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2366" s="0" t="s">
-        <v>8790</v>
+        <v>8791</v>
       </c>
       <c r="B2366" s="0" t="s">
         <v>135</v>
@@ -75517,18 +75568,18 @@
         <v>3832</v>
       </c>
       <c r="D2366" s="0" t="s">
-        <v>8791</v>
+        <v>8792</v>
       </c>
       <c r="E2366" s="0" t="s">
-        <v>8792</v>
+        <v>8793</v>
       </c>
       <c r="F2366" s="0" t="s">
-        <v>8793</v>
+        <v>8794</v>
       </c>
     </row>
     <row r="2367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2367" s="0" t="s">
-        <v>8794</v>
+        <v>8795</v>
       </c>
       <c r="B2367" s="0" t="s">
         <v>135</v>
@@ -75537,18 +75588,18 @@
         <v>3832</v>
       </c>
       <c r="D2367" s="0" t="s">
-        <v>8795</v>
+        <v>8796</v>
       </c>
       <c r="E2367" s="0" t="s">
-        <v>8796</v>
+        <v>8797</v>
       </c>
       <c r="F2367" s="0" t="s">
-        <v>8797</v>
+        <v>8798</v>
       </c>
     </row>
     <row r="2368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2368" s="0" t="s">
-        <v>8798</v>
+        <v>8799</v>
       </c>
       <c r="B2368" s="0" t="s">
         <v>135</v>
@@ -75557,18 +75608,18 @@
         <v>3832</v>
       </c>
       <c r="D2368" s="0" t="s">
-        <v>8799</v>
+        <v>8800</v>
       </c>
       <c r="E2368" s="0" t="s">
-        <v>8800</v>
+        <v>8801</v>
       </c>
       <c r="F2368" s="0" t="s">
-        <v>8801</v>
+        <v>8802</v>
       </c>
     </row>
     <row r="2369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2369" s="0" t="s">
-        <v>8802</v>
+        <v>8803</v>
       </c>
       <c r="B2369" s="0" t="s">
         <v>4549</v>
@@ -75577,18 +75628,18 @@
         <v>3832</v>
       </c>
       <c r="D2369" s="0" t="s">
-        <v>8803</v>
+        <v>8804</v>
       </c>
       <c r="E2369" s="0" t="s">
-        <v>8804</v>
+        <v>8805</v>
       </c>
       <c r="F2369" s="0" t="s">
-        <v>8805</v>
+        <v>8806</v>
       </c>
     </row>
     <row r="2370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2370" s="0" t="s">
-        <v>8806</v>
+        <v>8807</v>
       </c>
       <c r="B2370" s="0" t="s">
         <v>4549</v>
@@ -75597,18 +75648,18 @@
         <v>3832</v>
       </c>
       <c r="D2370" s="0" t="s">
-        <v>8807</v>
+        <v>8808</v>
       </c>
       <c r="E2370" s="0" t="s">
-        <v>8808</v>
+        <v>8809</v>
       </c>
       <c r="F2370" s="0" t="s">
-        <v>8809</v>
+        <v>8810</v>
       </c>
     </row>
     <row r="2371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2371" s="0" t="s">
-        <v>8810</v>
+        <v>8811</v>
       </c>
       <c r="B2371" s="0" t="s">
         <v>4549</v>
@@ -75617,18 +75668,18 @@
         <v>3832</v>
       </c>
       <c r="D2371" s="0" t="s">
-        <v>8811</v>
+        <v>8812</v>
       </c>
       <c r="E2371" s="0" t="s">
-        <v>8812</v>
+        <v>8813</v>
       </c>
       <c r="F2371" s="0" t="s">
-        <v>8813</v>
+        <v>8814</v>
       </c>
     </row>
     <row r="2372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2372" s="0" t="s">
-        <v>8814</v>
+        <v>8815</v>
       </c>
       <c r="B2372" s="0" t="s">
         <v>178</v>
@@ -75637,18 +75688,18 @@
         <v>5937</v>
       </c>
       <c r="D2372" s="0" t="s">
-        <v>8815</v>
+        <v>8816</v>
       </c>
       <c r="E2372" s="0" t="s">
-        <v>8816</v>
+        <v>8817</v>
       </c>
       <c r="F2372" s="0" t="s">
-        <v>8817</v>
+        <v>8818</v>
       </c>
     </row>
     <row r="2373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2373" s="0" t="s">
-        <v>8818</v>
+        <v>8819</v>
       </c>
       <c r="B2373" s="0" t="s">
         <v>178</v>
@@ -75657,18 +75708,18 @@
         <v>4633</v>
       </c>
       <c r="D2373" s="0" t="s">
-        <v>8819</v>
+        <v>8820</v>
       </c>
       <c r="E2373" s="0" t="s">
-        <v>8820</v>
+        <v>8821</v>
       </c>
       <c r="F2373" s="0" t="s">
-        <v>8821</v>
+        <v>8822</v>
       </c>
     </row>
     <row r="2374" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2374" s="0" t="s">
-        <v>8822</v>
+        <v>8823</v>
       </c>
       <c r="B2374" s="0" t="s">
         <v>1792</v>
@@ -75677,18 +75728,18 @@
         <v>3174</v>
       </c>
       <c r="D2374" s="2" t="s">
-        <v>8823</v>
+        <v>8824</v>
       </c>
       <c r="E2374" s="2" t="s">
-        <v>8824</v>
+        <v>8825</v>
       </c>
       <c r="F2374" s="2" t="s">
-        <v>8825</v>
+        <v>8826</v>
       </c>
     </row>
     <row r="2375" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2375" s="0" t="s">
-        <v>8826</v>
+        <v>8827</v>
       </c>
       <c r="B2375" s="0" t="s">
         <v>1792</v>
@@ -75697,18 +75748,18 @@
         <v>3174</v>
       </c>
       <c r="D2375" s="2" t="s">
-        <v>8827</v>
+        <v>8828</v>
       </c>
       <c r="E2375" s="2" t="s">
-        <v>8828</v>
+        <v>8829</v>
       </c>
       <c r="F2375" s="2" t="s">
-        <v>8829</v>
+        <v>8830</v>
       </c>
     </row>
     <row r="2376" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2376" s="0" t="s">
-        <v>8830</v>
+        <v>8831</v>
       </c>
       <c r="B2376" s="0" t="s">
         <v>1792</v>
@@ -75717,103 +75768,103 @@
         <v>3174</v>
       </c>
       <c r="D2376" s="2" t="s">
-        <v>8831</v>
+        <v>8832</v>
       </c>
       <c r="E2376" s="2" t="s">
-        <v>8832</v>
+        <v>8833</v>
       </c>
       <c r="F2376" s="2" t="s">
-        <v>8833</v>
+        <v>8834</v>
       </c>
     </row>
     <row r="2377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2377" s="0" t="s">
-        <v>8834</v>
+        <v>8835</v>
       </c>
       <c r="B2377" s="0" t="s">
         <v>592</v>
       </c>
       <c r="D2377" s="0" t="s">
-        <v>8835</v>
+        <v>8836</v>
       </c>
       <c r="E2377" s="0" t="s">
-        <v>8836</v>
+        <v>8837</v>
       </c>
       <c r="F2377" s="0" t="s">
-        <v>8837</v>
+        <v>8838</v>
       </c>
     </row>
     <row r="2378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2378" s="0" t="s">
-        <v>8838</v>
+        <v>8839</v>
       </c>
       <c r="B2378" s="0" t="s">
         <v>592</v>
       </c>
       <c r="D2378" s="0" t="s">
-        <v>8839</v>
+        <v>8840</v>
       </c>
       <c r="E2378" s="0" t="s">
-        <v>8840</v>
+        <v>8841</v>
       </c>
       <c r="F2378" s="0" t="s">
-        <v>8841</v>
+        <v>8842</v>
       </c>
     </row>
     <row r="2379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2379" s="0" t="s">
-        <v>8842</v>
+        <v>8843</v>
       </c>
       <c r="B2379" s="0" t="s">
         <v>2202</v>
       </c>
       <c r="D2379" s="0" t="s">
-        <v>8843</v>
+        <v>8844</v>
       </c>
       <c r="E2379" s="0" t="s">
-        <v>8844</v>
+        <v>8845</v>
       </c>
       <c r="F2379" s="0" t="s">
-        <v>8845</v>
+        <v>8846</v>
       </c>
     </row>
     <row r="2380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2380" s="0" t="s">
-        <v>8846</v>
+        <v>8847</v>
       </c>
       <c r="B2380" s="0" t="s">
         <v>2202</v>
       </c>
       <c r="D2380" s="0" t="s">
-        <v>8847</v>
+        <v>8848</v>
       </c>
       <c r="E2380" s="0" t="s">
-        <v>8848</v>
+        <v>8849</v>
       </c>
       <c r="F2380" s="0" t="s">
-        <v>8849</v>
+        <v>8850</v>
       </c>
     </row>
     <row r="2381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2381" s="0" t="s">
-        <v>8850</v>
+        <v>8851</v>
       </c>
       <c r="B2381" s="0" t="s">
         <v>715</v>
       </c>
       <c r="D2381" s="0" t="s">
-        <v>8851</v>
+        <v>8852</v>
       </c>
       <c r="E2381" s="0" t="s">
-        <v>8852</v>
+        <v>8853</v>
       </c>
       <c r="F2381" s="0" t="s">
-        <v>8853</v>
+        <v>8854</v>
       </c>
     </row>
     <row r="2382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2382" s="0" t="s">
-        <v>8854</v>
+        <v>8855</v>
       </c>
       <c r="B2382" s="0" t="s">
         <v>551</v>
@@ -75822,18 +75873,18 @@
         <v>958</v>
       </c>
       <c r="D2382" s="0" t="s">
-        <v>8855</v>
+        <v>8856</v>
       </c>
       <c r="E2382" s="0" t="s">
-        <v>8856</v>
+        <v>8857</v>
       </c>
       <c r="F2382" s="0" t="s">
-        <v>8857</v>
+        <v>8858</v>
       </c>
     </row>
     <row r="2383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2383" s="0" t="s">
-        <v>8858</v>
+        <v>8859</v>
       </c>
       <c r="B2383" s="0" t="s">
         <v>551</v>
@@ -75842,18 +75893,18 @@
         <v>958</v>
       </c>
       <c r="D2383" s="0" t="s">
-        <v>8859</v>
+        <v>8860</v>
       </c>
       <c r="E2383" s="0" t="s">
-        <v>8860</v>
+        <v>8861</v>
       </c>
       <c r="F2383" s="0" t="s">
-        <v>8861</v>
+        <v>8862</v>
       </c>
     </row>
     <row r="2384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2384" s="0" t="s">
-        <v>8862</v>
+        <v>8863</v>
       </c>
       <c r="B2384" s="0" t="s">
         <v>551</v>
@@ -75862,18 +75913,18 @@
         <v>958</v>
       </c>
       <c r="D2384" s="0" t="s">
-        <v>8863</v>
+        <v>8864</v>
       </c>
       <c r="E2384" s="0" t="s">
-        <v>8864</v>
+        <v>8865</v>
       </c>
       <c r="F2384" s="0" t="s">
-        <v>8865</v>
+        <v>8866</v>
       </c>
     </row>
     <row r="2385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2385" s="0" t="s">
-        <v>8866</v>
+        <v>8867</v>
       </c>
       <c r="B2385" s="0" t="s">
         <v>551</v>
@@ -75882,18 +75933,18 @@
         <v>958</v>
       </c>
       <c r="D2385" s="0" t="s">
-        <v>8867</v>
+        <v>8868</v>
       </c>
       <c r="E2385" s="0" t="s">
-        <v>8868</v>
+        <v>8869</v>
       </c>
       <c r="F2385" s="0" t="s">
-        <v>8869</v>
+        <v>8870</v>
       </c>
     </row>
     <row r="2386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2386" s="0" t="s">
-        <v>8870</v>
+        <v>8871</v>
       </c>
       <c r="B2386" s="0" t="s">
         <v>551</v>
@@ -75902,988 +75953,988 @@
         <v>958</v>
       </c>
       <c r="D2386" s="0" t="s">
-        <v>8871</v>
+        <v>8872</v>
       </c>
       <c r="E2386" s="0" t="s">
-        <v>8872</v>
+        <v>8873</v>
       </c>
       <c r="F2386" s="0" t="s">
-        <v>8873</v>
+        <v>8874</v>
       </c>
     </row>
     <row r="2387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2387" s="0" t="s">
-        <v>8874</v>
+        <v>8875</v>
       </c>
       <c r="B2387" s="0" t="s">
         <v>363</v>
       </c>
       <c r="C2387" s="0" t="s">
-        <v>8875</v>
+        <v>8876</v>
       </c>
       <c r="D2387" s="0" t="s">
-        <v>8876</v>
+        <v>8877</v>
       </c>
       <c r="E2387" s="0" t="s">
-        <v>8877</v>
+        <v>8878</v>
       </c>
       <c r="F2387" s="0" t="s">
-        <v>8878</v>
+        <v>8879</v>
       </c>
     </row>
     <row r="2388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2388" s="0" t="s">
-        <v>8879</v>
+        <v>8880</v>
       </c>
       <c r="B2388" s="0" t="s">
-        <v>8880</v>
+        <v>8881</v>
       </c>
       <c r="C2388" s="0" t="s">
-        <v>8875</v>
+        <v>8876</v>
       </c>
       <c r="D2388" s="0" t="s">
-        <v>8881</v>
+        <v>8882</v>
       </c>
       <c r="E2388" s="0" t="s">
-        <v>8882</v>
+        <v>8883</v>
       </c>
       <c r="F2388" s="0" t="s">
-        <v>8883</v>
+        <v>8884</v>
       </c>
     </row>
     <row r="2389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2389" s="0" t="s">
-        <v>8884</v>
+        <v>8885</v>
       </c>
       <c r="B2389" s="0" t="s">
         <v>551</v>
       </c>
       <c r="C2389" s="0" t="s">
-        <v>8875</v>
+        <v>8876</v>
       </c>
       <c r="D2389" s="0" t="s">
-        <v>8885</v>
+        <v>8886</v>
       </c>
       <c r="E2389" s="0" t="s">
-        <v>8886</v>
+        <v>8887</v>
       </c>
       <c r="F2389" s="0" t="s">
-        <v>8887</v>
+        <v>8888</v>
       </c>
     </row>
     <row r="2390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2390" s="0" t="s">
-        <v>8888</v>
+        <v>8889</v>
       </c>
       <c r="B2390" s="0" t="s">
         <v>551</v>
       </c>
       <c r="C2390" s="0" t="s">
-        <v>8875</v>
+        <v>8876</v>
       </c>
       <c r="D2390" s="0" t="s">
-        <v>8889</v>
+        <v>8890</v>
       </c>
       <c r="E2390" s="0" t="s">
-        <v>8890</v>
+        <v>8891</v>
       </c>
       <c r="F2390" s="0" t="s">
-        <v>8891</v>
+        <v>8892</v>
       </c>
     </row>
     <row r="2391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2391" s="0" t="s">
-        <v>8892</v>
+        <v>8893</v>
       </c>
       <c r="B2391" s="0" t="s">
         <v>551</v>
       </c>
       <c r="C2391" s="0" t="s">
-        <v>8875</v>
+        <v>8876</v>
       </c>
       <c r="D2391" s="0" t="s">
-        <v>8893</v>
+        <v>8894</v>
       </c>
       <c r="E2391" s="0" t="s">
-        <v>8894</v>
+        <v>8895</v>
       </c>
       <c r="F2391" s="0" t="s">
-        <v>8895</v>
+        <v>8896</v>
       </c>
     </row>
     <row r="2392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2392" s="0" t="s">
-        <v>8896</v>
+        <v>8897</v>
       </c>
       <c r="B2392" s="0" t="s">
         <v>115</v>
       </c>
       <c r="C2392" s="0" t="s">
-        <v>8875</v>
+        <v>8876</v>
       </c>
       <c r="D2392" s="0" t="s">
-        <v>8897</v>
+        <v>8898</v>
       </c>
       <c r="E2392" s="0" t="s">
-        <v>8898</v>
+        <v>8899</v>
       </c>
       <c r="F2392" s="0" t="s">
-        <v>8899</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="2393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2393" s="0" t="s">
-        <v>8900</v>
+        <v>8901</v>
       </c>
       <c r="B2393" s="0" t="s">
         <v>115</v>
       </c>
       <c r="C2393" s="0" t="s">
-        <v>8875</v>
+        <v>8876</v>
       </c>
       <c r="D2393" s="0" t="s">
-        <v>8901</v>
+        <v>8902</v>
       </c>
       <c r="E2393" s="0" t="s">
-        <v>8902</v>
+        <v>8903</v>
       </c>
       <c r="F2393" s="0" t="s">
-        <v>8903</v>
+        <v>8904</v>
       </c>
     </row>
     <row r="2394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2394" s="0" t="s">
-        <v>8904</v>
+        <v>8905</v>
       </c>
       <c r="B2394" s="0" t="s">
         <v>115</v>
       </c>
       <c r="C2394" s="0" t="s">
-        <v>8875</v>
+        <v>8876</v>
       </c>
       <c r="D2394" s="0" t="s">
-        <v>8905</v>
+        <v>8906</v>
       </c>
       <c r="E2394" s="0" t="s">
-        <v>8906</v>
+        <v>8907</v>
       </c>
       <c r="F2394" s="0" t="s">
-        <v>8907</v>
+        <v>8908</v>
       </c>
     </row>
     <row r="2395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2395" s="0" t="s">
-        <v>8908</v>
+        <v>8909</v>
       </c>
       <c r="B2395" s="0" t="s">
         <v>2834</v>
       </c>
       <c r="D2395" s="0" t="s">
-        <v>8909</v>
+        <v>8910</v>
       </c>
       <c r="E2395" s="0" t="s">
-        <v>8910</v>
+        <v>8911</v>
       </c>
       <c r="F2395" s="0" t="s">
-        <v>8911</v>
+        <v>8912</v>
       </c>
     </row>
     <row r="2396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2396" s="0" t="s">
-        <v>8912</v>
+        <v>8913</v>
       </c>
       <c r="B2396" s="0" t="s">
         <v>4275</v>
       </c>
       <c r="D2396" s="0" t="s">
-        <v>8913</v>
+        <v>8914</v>
       </c>
       <c r="E2396" s="0" t="s">
-        <v>8914</v>
+        <v>8915</v>
       </c>
       <c r="F2396" s="0" t="s">
-        <v>8915</v>
+        <v>8916</v>
       </c>
     </row>
     <row r="2397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2397" s="0" t="s">
-        <v>8916</v>
+        <v>8917</v>
       </c>
       <c r="B2397" s="0" t="s">
         <v>4275</v>
       </c>
       <c r="D2397" s="0" t="s">
-        <v>8917</v>
+        <v>8918</v>
       </c>
       <c r="E2397" s="0" t="s">
-        <v>8918</v>
+        <v>8919</v>
       </c>
       <c r="F2397" s="0" t="s">
-        <v>8919</v>
+        <v>8920</v>
       </c>
     </row>
     <row r="2398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2398" s="0" t="s">
-        <v>8920</v>
+        <v>8921</v>
       </c>
       <c r="B2398" s="0" t="s">
         <v>4275</v>
       </c>
       <c r="D2398" s="0" t="s">
-        <v>8921</v>
+        <v>8922</v>
       </c>
       <c r="E2398" s="0" t="s">
-        <v>8922</v>
+        <v>8923</v>
       </c>
       <c r="F2398" s="0" t="s">
-        <v>8923</v>
+        <v>8924</v>
       </c>
     </row>
     <row r="2399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2399" s="0" t="s">
-        <v>8924</v>
+        <v>8925</v>
       </c>
       <c r="B2399" s="0" t="s">
         <v>4275</v>
       </c>
       <c r="D2399" s="0" t="s">
-        <v>8925</v>
+        <v>8926</v>
       </c>
       <c r="E2399" s="0" t="s">
-        <v>8926</v>
+        <v>8927</v>
       </c>
       <c r="F2399" s="0" t="s">
-        <v>8927</v>
+        <v>8928</v>
       </c>
     </row>
     <row r="2400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2400" s="0" t="s">
-        <v>8928</v>
+        <v>8929</v>
       </c>
       <c r="B2400" s="0" t="s">
         <v>115</v>
       </c>
       <c r="D2400" s="0" t="s">
-        <v>8929</v>
+        <v>8930</v>
       </c>
       <c r="E2400" s="0" t="s">
-        <v>8930</v>
+        <v>8931</v>
       </c>
       <c r="F2400" s="0" t="s">
-        <v>8931</v>
+        <v>8932</v>
       </c>
     </row>
     <row r="2401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2401" s="0" t="s">
-        <v>8932</v>
+        <v>8933</v>
       </c>
       <c r="B2401" s="0" t="s">
         <v>115</v>
       </c>
       <c r="D2401" s="0" t="s">
-        <v>8933</v>
+        <v>8934</v>
       </c>
       <c r="E2401" s="0" t="s">
-        <v>8934</v>
+        <v>8935</v>
       </c>
       <c r="F2401" s="0" t="s">
-        <v>8935</v>
+        <v>8936</v>
       </c>
     </row>
     <row r="2402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2402" s="0" t="s">
-        <v>8936</v>
+        <v>8937</v>
       </c>
       <c r="B2402" s="0" t="s">
         <v>115</v>
       </c>
       <c r="D2402" s="0" t="s">
-        <v>8937</v>
+        <v>8938</v>
       </c>
       <c r="E2402" s="0" t="s">
-        <v>8938</v>
+        <v>8939</v>
       </c>
       <c r="F2402" s="0" t="s">
-        <v>8939</v>
+        <v>8940</v>
       </c>
     </row>
     <row r="2403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2403" s="0" t="s">
-        <v>8940</v>
+        <v>8941</v>
       </c>
       <c r="B2403" s="0" t="s">
         <v>115</v>
       </c>
       <c r="D2403" s="0" t="s">
-        <v>8941</v>
+        <v>8942</v>
       </c>
       <c r="E2403" s="0" t="s">
-        <v>8942</v>
+        <v>8943</v>
       </c>
       <c r="F2403" s="0" t="s">
-        <v>8943</v>
+        <v>8944</v>
       </c>
     </row>
     <row r="2404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2404" s="0" t="s">
-        <v>8944</v>
+        <v>8945</v>
       </c>
       <c r="B2404" s="0" t="s">
         <v>115</v>
       </c>
       <c r="D2404" s="0" t="s">
-        <v>8945</v>
+        <v>8946</v>
       </c>
       <c r="E2404" s="0" t="s">
-        <v>8946</v>
+        <v>8947</v>
       </c>
       <c r="F2404" s="0" t="s">
-        <v>8947</v>
+        <v>8948</v>
       </c>
     </row>
     <row r="2405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2405" s="0" t="s">
-        <v>8948</v>
+        <v>8949</v>
       </c>
       <c r="B2405" s="0" t="s">
         <v>115</v>
       </c>
       <c r="D2405" s="0" t="s">
-        <v>8949</v>
+        <v>8950</v>
       </c>
       <c r="E2405" s="0" t="s">
-        <v>8950</v>
+        <v>8951</v>
       </c>
       <c r="F2405" s="0" t="s">
-        <v>8951</v>
+        <v>8952</v>
       </c>
     </row>
     <row r="2406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2406" s="0" t="s">
-        <v>8952</v>
+        <v>8953</v>
       </c>
       <c r="B2406" s="0" t="s">
         <v>115</v>
       </c>
       <c r="D2406" s="0" t="s">
-        <v>8953</v>
+        <v>8954</v>
       </c>
       <c r="E2406" s="0" t="s">
-        <v>8954</v>
+        <v>8955</v>
       </c>
       <c r="F2406" s="0" t="s">
-        <v>8955</v>
+        <v>8956</v>
       </c>
     </row>
     <row r="2407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2407" s="0" t="s">
-        <v>8956</v>
+        <v>8957</v>
       </c>
       <c r="B2407" s="0" t="s">
         <v>115</v>
       </c>
       <c r="D2407" s="0" t="s">
-        <v>8957</v>
+        <v>8958</v>
       </c>
       <c r="E2407" s="0" t="s">
-        <v>8958</v>
+        <v>8959</v>
       </c>
       <c r="F2407" s="0" t="s">
-        <v>8959</v>
+        <v>8960</v>
       </c>
     </row>
     <row r="2408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2408" s="0" t="s">
-        <v>8960</v>
+        <v>8961</v>
       </c>
       <c r="B2408" s="0" t="s">
         <v>115</v>
       </c>
       <c r="D2408" s="0" t="s">
-        <v>8961</v>
+        <v>8962</v>
       </c>
       <c r="E2408" s="0" t="s">
-        <v>8962</v>
+        <v>8963</v>
       </c>
       <c r="F2408" s="0" t="s">
-        <v>8963</v>
+        <v>8964</v>
       </c>
     </row>
     <row r="2409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2409" s="0" t="s">
-        <v>8964</v>
+        <v>8965</v>
       </c>
       <c r="B2409" s="0" t="s">
         <v>115</v>
       </c>
       <c r="D2409" s="0" t="s">
-        <v>8965</v>
+        <v>8966</v>
       </c>
       <c r="E2409" s="0" t="s">
-        <v>8966</v>
+        <v>8967</v>
       </c>
       <c r="F2409" s="0" t="s">
-        <v>8967</v>
+        <v>8968</v>
       </c>
     </row>
     <row r="2410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2410" s="0" t="s">
-        <v>8968</v>
+        <v>8969</v>
       </c>
       <c r="B2410" s="0" t="s">
         <v>115</v>
       </c>
       <c r="D2410" s="0" t="s">
-        <v>8969</v>
+        <v>8970</v>
       </c>
       <c r="E2410" s="0" t="s">
-        <v>8970</v>
+        <v>8971</v>
       </c>
       <c r="F2410" s="0" t="s">
-        <v>8971</v>
+        <v>8972</v>
       </c>
     </row>
     <row r="2411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2411" s="0" t="s">
-        <v>8972</v>
+        <v>8973</v>
       </c>
       <c r="B2411" s="0" t="s">
         <v>115</v>
       </c>
       <c r="D2411" s="0" t="s">
-        <v>8973</v>
+        <v>8974</v>
       </c>
       <c r="E2411" s="0" t="s">
-        <v>8974</v>
+        <v>8975</v>
       </c>
       <c r="F2411" s="0" t="s">
-        <v>8975</v>
+        <v>8976</v>
       </c>
     </row>
     <row r="2412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2412" s="0" t="s">
-        <v>8976</v>
+        <v>8977</v>
       </c>
       <c r="B2412" s="0" t="s">
         <v>115</v>
       </c>
       <c r="D2412" s="0" t="s">
-        <v>8977</v>
+        <v>8978</v>
       </c>
       <c r="E2412" s="0" t="s">
-        <v>8978</v>
+        <v>8979</v>
       </c>
       <c r="F2412" s="0" t="s">
-        <v>8979</v>
+        <v>8980</v>
       </c>
     </row>
     <row r="2413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2413" s="0" t="s">
-        <v>8980</v>
+        <v>8981</v>
       </c>
       <c r="B2413" s="0" t="s">
         <v>115</v>
       </c>
       <c r="D2413" s="0" t="s">
-        <v>8981</v>
+        <v>8982</v>
       </c>
       <c r="E2413" s="0" t="s">
-        <v>8982</v>
+        <v>8983</v>
       </c>
       <c r="F2413" s="0" t="s">
-        <v>8983</v>
+        <v>8984</v>
       </c>
     </row>
     <row r="2414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2414" s="0" t="s">
-        <v>8984</v>
+        <v>8985</v>
       </c>
       <c r="B2414" s="0" t="s">
         <v>115</v>
       </c>
       <c r="D2414" s="0" t="s">
-        <v>8985</v>
+        <v>8986</v>
       </c>
       <c r="E2414" s="0" t="s">
-        <v>8986</v>
+        <v>8987</v>
       </c>
       <c r="F2414" s="0" t="s">
-        <v>8987</v>
+        <v>8988</v>
       </c>
     </row>
     <row r="2415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2415" s="0" t="s">
-        <v>8988</v>
+        <v>8989</v>
       </c>
       <c r="B2415" s="0" t="s">
         <v>115</v>
       </c>
       <c r="D2415" s="0" t="s">
-        <v>8989</v>
+        <v>8990</v>
       </c>
       <c r="E2415" s="0" t="s">
-        <v>8990</v>
+        <v>8991</v>
       </c>
       <c r="F2415" s="0" t="s">
-        <v>8991</v>
+        <v>8992</v>
       </c>
     </row>
     <row r="2416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2416" s="0" t="s">
-        <v>8992</v>
+        <v>8993</v>
       </c>
       <c r="B2416" s="0" t="s">
         <v>1752</v>
       </c>
       <c r="D2416" s="0" t="s">
-        <v>8993</v>
+        <v>8994</v>
       </c>
       <c r="E2416" s="0" t="s">
-        <v>8994</v>
+        <v>8995</v>
       </c>
       <c r="F2416" s="0" t="s">
-        <v>8995</v>
+        <v>8996</v>
       </c>
     </row>
     <row r="2417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2417" s="0" t="s">
-        <v>8996</v>
+        <v>8997</v>
       </c>
       <c r="B2417" s="0" t="s">
         <v>115</v>
       </c>
       <c r="D2417" s="0" t="s">
-        <v>8997</v>
+        <v>8998</v>
       </c>
       <c r="E2417" s="0" t="s">
-        <v>8998</v>
+        <v>8999</v>
       </c>
       <c r="F2417" s="0" t="s">
-        <v>8999</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="2418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2418" s="0" t="s">
-        <v>9000</v>
+        <v>9001</v>
       </c>
       <c r="B2418" s="0" t="s">
         <v>115</v>
       </c>
       <c r="D2418" s="0" t="s">
-        <v>9001</v>
+        <v>9002</v>
       </c>
       <c r="E2418" s="0" t="s">
-        <v>9002</v>
+        <v>9003</v>
       </c>
       <c r="F2418" s="0" t="s">
-        <v>9003</v>
+        <v>9004</v>
       </c>
     </row>
     <row r="2419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2419" s="0" t="s">
-        <v>9004</v>
+        <v>9005</v>
       </c>
       <c r="B2419" s="0" t="s">
-        <v>522</v>
+        <v>1424</v>
       </c>
       <c r="D2419" s="0" t="s">
-        <v>9005</v>
+        <v>9006</v>
       </c>
       <c r="E2419" s="0" t="s">
-        <v>9006</v>
+        <v>9007</v>
       </c>
       <c r="F2419" s="0" t="s">
-        <v>9007</v>
+        <v>9008</v>
       </c>
     </row>
     <row r="2420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2420" s="0" t="s">
-        <v>9008</v>
+        <v>9009</v>
       </c>
       <c r="B2420" s="0" t="s">
-        <v>115</v>
+        <v>1424</v>
       </c>
       <c r="D2420" s="0" t="s">
-        <v>9009</v>
+        <v>9010</v>
       </c>
       <c r="E2420" s="0" t="s">
-        <v>9010</v>
+        <v>9011</v>
       </c>
       <c r="F2420" s="0" t="s">
-        <v>9011</v>
+        <v>9012</v>
       </c>
     </row>
     <row r="2421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2421" s="0" t="s">
-        <v>9012</v>
+        <v>9013</v>
       </c>
       <c r="B2421" s="0" t="s">
-        <v>115</v>
+        <v>1424</v>
       </c>
       <c r="D2421" s="0" t="s">
-        <v>9013</v>
+        <v>9014</v>
       </c>
       <c r="E2421" s="0" t="s">
-        <v>9014</v>
+        <v>9015</v>
       </c>
       <c r="F2421" s="0" t="s">
-        <v>9015</v>
+        <v>9016</v>
       </c>
     </row>
     <row r="2422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2422" s="0" t="s">
-        <v>9016</v>
+        <v>9017</v>
       </c>
       <c r="B2422" s="0" t="s">
-        <v>115</v>
+        <v>1424</v>
       </c>
       <c r="D2422" s="0" t="s">
-        <v>9017</v>
+        <v>9018</v>
       </c>
       <c r="E2422" s="0" t="s">
-        <v>9018</v>
+        <v>9019</v>
       </c>
       <c r="F2422" s="0" t="s">
-        <v>9019</v>
+        <v>9020</v>
       </c>
     </row>
     <row r="2423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2423" s="0" t="s">
-        <v>9020</v>
+        <v>9021</v>
       </c>
       <c r="B2423" s="0" t="s">
-        <v>115</v>
+        <v>522</v>
       </c>
       <c r="D2423" s="0" t="s">
-        <v>9021</v>
+        <v>9022</v>
       </c>
       <c r="E2423" s="0" t="s">
-        <v>9022</v>
+        <v>9023</v>
       </c>
       <c r="F2423" s="0" t="s">
-        <v>9023</v>
+        <v>9024</v>
       </c>
     </row>
     <row r="2424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2424" s="0" t="s">
-        <v>9024</v>
+        <v>9025</v>
       </c>
       <c r="B2424" s="0" t="s">
-        <v>277</v>
+        <v>115</v>
       </c>
       <c r="D2424" s="0" t="s">
-        <v>9025</v>
+        <v>9026</v>
       </c>
       <c r="E2424" s="0" t="s">
-        <v>9026</v>
+        <v>9027</v>
       </c>
       <c r="F2424" s="0" t="s">
-        <v>9027</v>
+        <v>9028</v>
       </c>
     </row>
     <row r="2425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2425" s="0" t="s">
-        <v>9028</v>
+        <v>9029</v>
       </c>
       <c r="B2425" s="0" t="s">
-        <v>277</v>
+        <v>115</v>
       </c>
       <c r="D2425" s="0" t="s">
-        <v>9029</v>
+        <v>9030</v>
       </c>
       <c r="E2425" s="0" t="s">
-        <v>9030</v>
+        <v>9031</v>
       </c>
       <c r="F2425" s="0" t="s">
-        <v>9031</v>
-      </c>
-    </row>
-    <row r="2426" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9032</v>
+      </c>
+    </row>
+    <row r="2426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2426" s="0" t="s">
-        <v>9032</v>
+        <v>9033</v>
       </c>
       <c r="B2426" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="D2426" s="2" t="s">
-        <v>9033</v>
-      </c>
-      <c r="E2426" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2426" s="0" t="s">
         <v>9034</v>
       </c>
-      <c r="F2426" s="2" t="s">
+      <c r="E2426" s="0" t="s">
         <v>9035</v>
+      </c>
+      <c r="F2426" s="0" t="s">
+        <v>9036</v>
       </c>
     </row>
     <row r="2427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2427" s="0" t="s">
-        <v>9036</v>
+        <v>9037</v>
       </c>
       <c r="B2427" s="0" t="s">
-        <v>277</v>
+        <v>115</v>
       </c>
       <c r="D2427" s="0" t="s">
-        <v>9037</v>
+        <v>9038</v>
       </c>
       <c r="E2427" s="0" t="s">
-        <v>9038</v>
+        <v>9039</v>
       </c>
       <c r="F2427" s="0" t="s">
-        <v>9039</v>
-      </c>
-    </row>
-    <row r="2428" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9040</v>
+      </c>
+    </row>
+    <row r="2428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2428" s="0" t="s">
-        <v>9040</v>
+        <v>9041</v>
       </c>
       <c r="B2428" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="D2428" s="2" t="s">
-        <v>9041</v>
-      </c>
-      <c r="E2428" s="2" t="s">
+      <c r="D2428" s="0" t="s">
         <v>9042</v>
       </c>
-      <c r="F2428" s="2" t="s">
+      <c r="E2428" s="0" t="s">
         <v>9043</v>
+      </c>
+      <c r="F2428" s="0" t="s">
+        <v>9044</v>
       </c>
     </row>
     <row r="2429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2429" s="0" t="s">
-        <v>9044</v>
+        <v>9045</v>
       </c>
       <c r="B2429" s="0" t="s">
         <v>277</v>
       </c>
       <c r="D2429" s="0" t="s">
-        <v>9045</v>
+        <v>9046</v>
       </c>
       <c r="E2429" s="0" t="s">
-        <v>9046</v>
+        <v>9047</v>
       </c>
       <c r="F2429" s="0" t="s">
-        <v>9047</v>
-      </c>
-    </row>
-    <row r="2430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9048</v>
+      </c>
+    </row>
+    <row r="2430" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2430" s="0" t="s">
-        <v>9048</v>
+        <v>9049</v>
       </c>
       <c r="B2430" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="D2430" s="0" t="s">
-        <v>9049</v>
-      </c>
-      <c r="E2430" s="0" t="s">
+      <c r="D2430" s="2" t="s">
         <v>9050</v>
       </c>
-      <c r="F2430" s="0" t="s">
+      <c r="E2430" s="2" t="s">
         <v>9051</v>
+      </c>
+      <c r="F2430" s="2" t="s">
+        <v>9052</v>
       </c>
     </row>
     <row r="2431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2431" s="0" t="s">
-        <v>9052</v>
+        <v>9053</v>
       </c>
       <c r="B2431" s="0" t="s">
         <v>277</v>
       </c>
       <c r="D2431" s="0" t="s">
-        <v>9053</v>
+        <v>9054</v>
       </c>
       <c r="E2431" s="0" t="s">
-        <v>9054</v>
+        <v>9055</v>
       </c>
       <c r="F2431" s="0" t="s">
-        <v>9055</v>
-      </c>
-    </row>
-    <row r="2432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9056</v>
+      </c>
+    </row>
+    <row r="2432" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2432" s="0" t="s">
-        <v>9056</v>
+        <v>9057</v>
       </c>
       <c r="B2432" s="0" t="s">
         <v>277</v>
       </c>
+      <c r="D2432" s="2" t="s">
+        <v>9058</v>
+      </c>
+      <c r="E2432" s="2" t="s">
+        <v>9059</v>
+      </c>
+      <c r="F2432" s="2" t="s">
+        <v>9060</v>
+      </c>
     </row>
     <row r="2433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2433" s="0" t="s">
-        <v>9057</v>
+        <v>9061</v>
       </c>
       <c r="B2433" s="0" t="s">
         <v>277</v>
       </c>
       <c r="D2433" s="0" t="s">
-        <v>9058</v>
+        <v>9062</v>
       </c>
       <c r="E2433" s="0" t="s">
-        <v>9059</v>
+        <v>9063</v>
       </c>
       <c r="F2433" s="0" t="s">
-        <v>9060</v>
+        <v>9064</v>
       </c>
     </row>
     <row r="2434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2434" s="0" t="s">
-        <v>9061</v>
+        <v>9065</v>
       </c>
       <c r="B2434" s="0" t="s">
         <v>277</v>
       </c>
       <c r="D2434" s="0" t="s">
-        <v>9062</v>
+        <v>9066</v>
       </c>
       <c r="E2434" s="0" t="s">
-        <v>9063</v>
+        <v>9067</v>
       </c>
       <c r="F2434" s="0" t="s">
-        <v>9064</v>
+        <v>9068</v>
       </c>
     </row>
     <row r="2435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2435" s="0" t="s">
-        <v>9065</v>
+        <v>9069</v>
       </c>
       <c r="B2435" s="0" t="s">
         <v>277</v>
       </c>
       <c r="D2435" s="0" t="s">
-        <v>9066</v>
+        <v>9070</v>
       </c>
       <c r="E2435" s="0" t="s">
-        <v>9067</v>
+        <v>9071</v>
       </c>
       <c r="F2435" s="0" t="s">
-        <v>9068</v>
+        <v>9072</v>
       </c>
     </row>
     <row r="2436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2436" s="0" t="s">
-        <v>9069</v>
+        <v>9073</v>
       </c>
       <c r="B2436" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="D2436" s="0" t="s">
-        <v>9070</v>
-      </c>
-      <c r="E2436" s="0" t="s">
-        <v>9071</v>
-      </c>
-      <c r="F2436" s="0" t="s">
-        <v>9072</v>
-      </c>
     </row>
     <row r="2437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2437" s="0" t="s">
-        <v>9073</v>
+        <v>9074</v>
       </c>
       <c r="B2437" s="0" t="s">
         <v>277</v>
       </c>
       <c r="D2437" s="0" t="s">
-        <v>9074</v>
+        <v>9075</v>
       </c>
       <c r="E2437" s="0" t="s">
-        <v>9075</v>
+        <v>9076</v>
       </c>
       <c r="F2437" s="0" t="s">
-        <v>9076</v>
+        <v>9077</v>
       </c>
     </row>
     <row r="2438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2438" s="0" t="s">
-        <v>9077</v>
+        <v>9078</v>
       </c>
       <c r="B2438" s="0" t="s">
         <v>277</v>
       </c>
       <c r="D2438" s="0" t="s">
-        <v>9078</v>
+        <v>9079</v>
       </c>
       <c r="E2438" s="0" t="s">
-        <v>9079</v>
+        <v>9080</v>
       </c>
       <c r="F2438" s="0" t="s">
-        <v>9080</v>
+        <v>9081</v>
       </c>
     </row>
     <row r="2439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2439" s="0" t="s">
-        <v>9081</v>
+        <v>9082</v>
       </c>
       <c r="B2439" s="0" t="s">
-        <v>6958</v>
+        <v>277</v>
       </c>
       <c r="D2439" s="0" t="s">
-        <v>9082</v>
+        <v>9083</v>
       </c>
       <c r="E2439" s="0" t="s">
-        <v>9083</v>
+        <v>9084</v>
       </c>
       <c r="F2439" s="0" t="s">
-        <v>9084</v>
+        <v>9085</v>
       </c>
     </row>
     <row r="2440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2440" s="0" t="s">
-        <v>9085</v>
+        <v>9086</v>
       </c>
       <c r="B2440" s="0" t="s">
         <v>277</v>
       </c>
       <c r="D2440" s="0" t="s">
-        <v>9086</v>
+        <v>9087</v>
       </c>
       <c r="E2440" s="0" t="s">
-        <v>9087</v>
+        <v>9088</v>
       </c>
       <c r="F2440" s="0" t="s">
-        <v>9088</v>
+        <v>9089</v>
       </c>
     </row>
     <row r="2441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2441" s="0" t="s">
-        <v>9089</v>
+        <v>9090</v>
       </c>
       <c r="B2441" s="0" t="s">
         <v>277</v>
       </c>
       <c r="D2441" s="0" t="s">
-        <v>9090</v>
+        <v>9091</v>
       </c>
       <c r="E2441" s="0" t="s">
-        <v>9091</v>
+        <v>9092</v>
       </c>
       <c r="F2441" s="0" t="s">
-        <v>9092</v>
+        <v>9093</v>
       </c>
     </row>
     <row r="2442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2442" s="0" t="s">
-        <v>9093</v>
+        <v>9094</v>
       </c>
       <c r="B2442" s="0" t="s">
         <v>277</v>
       </c>
       <c r="D2442" s="0" t="s">
-        <v>9094</v>
+        <v>9095</v>
       </c>
       <c r="E2442" s="0" t="s">
-        <v>9095</v>
+        <v>9096</v>
       </c>
       <c r="F2442" s="0" t="s">
-        <v>9096</v>
+        <v>9097</v>
       </c>
     </row>
     <row r="2443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2443" s="0" t="s">
-        <v>9097</v>
+        <v>9098</v>
       </c>
       <c r="B2443" s="0" t="s">
-        <v>9098</v>
+        <v>6958</v>
       </c>
       <c r="D2443" s="0" t="s">
         <v>9099</v>
@@ -76900,44 +76951,44 @@
         <v>9102</v>
       </c>
       <c r="B2444" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2444" s="0" t="s">
         <v>9103</v>
       </c>
-      <c r="D2444" s="0" t="s">
+      <c r="E2444" s="0" t="s">
         <v>9104</v>
       </c>
-      <c r="E2444" s="0" t="s">
+      <c r="F2444" s="0" t="s">
         <v>9105</v>
-      </c>
-      <c r="F2444" s="0" t="s">
-        <v>9106</v>
       </c>
     </row>
     <row r="2445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2445" s="0" t="s">
+        <v>9106</v>
+      </c>
+      <c r="B2445" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2445" s="0" t="s">
         <v>9107</v>
       </c>
-      <c r="B2445" s="0" t="s">
-        <v>9103</v>
-      </c>
-      <c r="D2445" s="0" t="s">
+      <c r="E2445" s="0" t="s">
         <v>9108</v>
       </c>
-      <c r="E2445" s="0" t="s">
+      <c r="F2445" s="0" t="s">
         <v>9109</v>
-      </c>
-      <c r="F2445" s="0" t="s">
-        <v>9110</v>
       </c>
     </row>
     <row r="2446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2446" s="0" t="s">
+        <v>9110</v>
+      </c>
+      <c r="B2446" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2446" s="0" t="s">
         <v>9111</v>
-      </c>
-      <c r="B2446" s="0" t="s">
-        <v>9103</v>
-      </c>
-      <c r="D2446" s="0" t="s">
-        <v>4728</v>
       </c>
       <c r="E2446" s="0" t="s">
         <v>9112</v>
@@ -76951,160 +77002,160 @@
         <v>9114</v>
       </c>
       <c r="B2447" s="0" t="s">
-        <v>9103</v>
+        <v>9115</v>
       </c>
       <c r="D2447" s="0" t="s">
-        <v>9115</v>
+        <v>9116</v>
       </c>
       <c r="E2447" s="0" t="s">
-        <v>9116</v>
+        <v>9117</v>
       </c>
       <c r="F2447" s="0" t="s">
-        <v>9117</v>
+        <v>9118</v>
       </c>
     </row>
     <row r="2448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2448" s="0" t="s">
-        <v>9118</v>
+        <v>9119</v>
       </c>
       <c r="B2448" s="0" t="s">
-        <v>9103</v>
+        <v>9120</v>
       </c>
       <c r="D2448" s="0" t="s">
-        <v>9119</v>
+        <v>9121</v>
       </c>
       <c r="E2448" s="0" t="s">
-        <v>9120</v>
+        <v>9122</v>
       </c>
       <c r="F2448" s="0" t="s">
-        <v>9121</v>
+        <v>9123</v>
       </c>
     </row>
     <row r="2449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2449" s="0" t="s">
-        <v>9122</v>
+        <v>9124</v>
       </c>
       <c r="B2449" s="0" t="s">
-        <v>9103</v>
+        <v>9120</v>
       </c>
       <c r="D2449" s="0" t="s">
-        <v>9123</v>
+        <v>9125</v>
       </c>
       <c r="E2449" s="0" t="s">
-        <v>1522</v>
+        <v>9126</v>
       </c>
       <c r="F2449" s="0" t="s">
-        <v>9124</v>
+        <v>9127</v>
       </c>
     </row>
     <row r="2450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2450" s="0" t="s">
-        <v>9125</v>
+        <v>9128</v>
       </c>
       <c r="B2450" s="0" t="s">
-        <v>9103</v>
+        <v>9120</v>
       </c>
       <c r="D2450" s="0" t="s">
-        <v>9126</v>
+        <v>4728</v>
       </c>
       <c r="E2450" s="0" t="s">
-        <v>9127</v>
+        <v>9129</v>
       </c>
       <c r="F2450" s="0" t="s">
-        <v>9128</v>
+        <v>9130</v>
       </c>
     </row>
     <row r="2451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2451" s="0" t="s">
-        <v>9129</v>
+        <v>9131</v>
       </c>
       <c r="B2451" s="0" t="s">
-        <v>9103</v>
+        <v>9120</v>
       </c>
       <c r="D2451" s="0" t="s">
-        <v>9130</v>
+        <v>9132</v>
       </c>
       <c r="E2451" s="0" t="s">
-        <v>9131</v>
+        <v>9133</v>
       </c>
       <c r="F2451" s="0" t="s">
-        <v>9132</v>
+        <v>9134</v>
       </c>
     </row>
     <row r="2452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2452" s="0" t="s">
-        <v>9133</v>
+        <v>9135</v>
       </c>
       <c r="B2452" s="0" t="s">
-        <v>9103</v>
+        <v>9120</v>
       </c>
       <c r="D2452" s="0" t="s">
-        <v>9134</v>
+        <v>9136</v>
       </c>
       <c r="E2452" s="0" t="s">
-        <v>9135</v>
+        <v>9137</v>
       </c>
       <c r="F2452" s="0" t="s">
-        <v>9136</v>
+        <v>9138</v>
       </c>
     </row>
     <row r="2453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2453" s="0" t="s">
-        <v>9137</v>
+        <v>9139</v>
       </c>
       <c r="B2453" s="0" t="s">
-        <v>9103</v>
+        <v>9120</v>
       </c>
       <c r="D2453" s="0" t="s">
-        <v>9138</v>
+        <v>9140</v>
       </c>
       <c r="E2453" s="0" t="s">
-        <v>9139</v>
+        <v>1522</v>
       </c>
       <c r="F2453" s="0" t="s">
-        <v>9140</v>
+        <v>9141</v>
       </c>
     </row>
     <row r="2454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2454" s="0" t="s">
-        <v>9141</v>
+        <v>9142</v>
       </c>
       <c r="B2454" s="0" t="s">
-        <v>4122</v>
+        <v>9120</v>
       </c>
       <c r="D2454" s="0" t="s">
-        <v>9142</v>
+        <v>9143</v>
       </c>
       <c r="E2454" s="0" t="s">
-        <v>9143</v>
+        <v>9144</v>
       </c>
       <c r="F2454" s="0" t="s">
-        <v>9144</v>
+        <v>9145</v>
       </c>
     </row>
     <row r="2455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2455" s="0" t="s">
-        <v>9145</v>
+        <v>9146</v>
       </c>
       <c r="B2455" s="0" t="s">
-        <v>4122</v>
+        <v>9120</v>
       </c>
       <c r="D2455" s="0" t="s">
-        <v>9146</v>
+        <v>9147</v>
       </c>
       <c r="E2455" s="0" t="s">
-        <v>9147</v>
+        <v>9148</v>
       </c>
       <c r="F2455" s="0" t="s">
-        <v>9148</v>
+        <v>9149</v>
       </c>
     </row>
     <row r="2456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2456" s="0" t="s">
-        <v>9149</v>
+        <v>9150</v>
       </c>
       <c r="B2456" s="0" t="s">
-        <v>9150</v>
+        <v>9120</v>
       </c>
       <c r="D2456" s="0" t="s">
         <v>9151</v>
@@ -77121,7 +77172,7 @@
         <v>9154</v>
       </c>
       <c r="B2457" s="0" t="s">
-        <v>50</v>
+        <v>9120</v>
       </c>
       <c r="D2457" s="0" t="s">
         <v>9155</v>
@@ -77138,7 +77189,7 @@
         <v>9158</v>
       </c>
       <c r="B2458" s="0" t="s">
-        <v>2202</v>
+        <v>4122</v>
       </c>
       <c r="D2458" s="0" t="s">
         <v>9159</v>
@@ -77155,7 +77206,7 @@
         <v>9162</v>
       </c>
       <c r="B2459" s="0" t="s">
-        <v>2202</v>
+        <v>4122</v>
       </c>
       <c r="D2459" s="0" t="s">
         <v>9163</v>
@@ -77172,92 +77223,92 @@
         <v>9166</v>
       </c>
       <c r="B2460" s="0" t="s">
-        <v>350</v>
+        <v>9167</v>
       </c>
       <c r="D2460" s="0" t="s">
-        <v>9167</v>
+        <v>9168</v>
       </c>
       <c r="E2460" s="0" t="s">
-        <v>9168</v>
+        <v>9169</v>
       </c>
       <c r="F2460" s="0" t="s">
-        <v>9169</v>
+        <v>9170</v>
       </c>
     </row>
     <row r="2461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2461" s="0" t="s">
-        <v>9170</v>
+        <v>9171</v>
       </c>
       <c r="B2461" s="0" t="s">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="D2461" s="0" t="s">
-        <v>9171</v>
+        <v>9172</v>
       </c>
       <c r="E2461" s="0" t="s">
-        <v>9172</v>
+        <v>9173</v>
       </c>
       <c r="F2461" s="0" t="s">
-        <v>9173</v>
+        <v>9174</v>
       </c>
     </row>
     <row r="2462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2462" s="0" t="s">
-        <v>9174</v>
+        <v>9175</v>
       </c>
       <c r="B2462" s="0" t="s">
-        <v>350</v>
+        <v>2202</v>
       </c>
       <c r="D2462" s="0" t="s">
-        <v>9175</v>
+        <v>9176</v>
       </c>
       <c r="E2462" s="0" t="s">
-        <v>9176</v>
+        <v>9177</v>
       </c>
       <c r="F2462" s="0" t="s">
-        <v>9177</v>
+        <v>9178</v>
       </c>
     </row>
     <row r="2463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2463" s="0" t="s">
-        <v>9178</v>
+        <v>9179</v>
       </c>
       <c r="B2463" s="0" t="s">
-        <v>2665</v>
+        <v>2202</v>
       </c>
       <c r="D2463" s="0" t="s">
-        <v>9179</v>
+        <v>9180</v>
       </c>
       <c r="E2463" s="0" t="s">
-        <v>9180</v>
+        <v>9181</v>
       </c>
       <c r="F2463" s="0" t="s">
-        <v>9181</v>
+        <v>9182</v>
       </c>
     </row>
     <row r="2464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2464" s="0" t="s">
-        <v>9182</v>
+        <v>9183</v>
       </c>
       <c r="B2464" s="0" t="s">
-        <v>592</v>
+        <v>350</v>
       </c>
       <c r="D2464" s="0" t="s">
-        <v>9183</v>
+        <v>9184</v>
       </c>
       <c r="E2464" s="0" t="s">
-        <v>9184</v>
+        <v>9185</v>
       </c>
       <c r="F2464" s="0" t="s">
-        <v>9185</v>
+        <v>9186</v>
       </c>
     </row>
     <row r="2465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2465" s="0" t="s">
-        <v>9186</v>
+        <v>9187</v>
       </c>
       <c r="B2465" s="0" t="s">
-        <v>9187</v>
+        <v>350</v>
       </c>
       <c r="D2465" s="0" t="s">
         <v>9188</v>
@@ -77274,7 +77325,7 @@
         <v>9191</v>
       </c>
       <c r="B2466" s="0" t="s">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="D2466" s="0" t="s">
         <v>9192</v>
@@ -77291,49 +77342,49 @@
         <v>9195</v>
       </c>
       <c r="B2467" s="0" t="s">
+        <v>2665</v>
+      </c>
+      <c r="D2467" s="0" t="s">
         <v>9196</v>
       </c>
-      <c r="D2467" s="0" t="s">
+      <c r="E2467" s="0" t="s">
         <v>9197</v>
       </c>
-      <c r="E2467" s="0" t="s">
+      <c r="F2467" s="0" t="s">
         <v>9198</v>
-      </c>
-      <c r="F2467" s="0" t="s">
-        <v>9199</v>
       </c>
     </row>
     <row r="2468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2468" s="0" t="s">
+        <v>9199</v>
+      </c>
+      <c r="B2468" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="D2468" s="0" t="s">
         <v>9200</v>
       </c>
-      <c r="B2468" s="0" t="s">
-        <v>6958</v>
-      </c>
-      <c r="D2468" s="0" t="s">
+      <c r="E2468" s="0" t="s">
         <v>9201</v>
       </c>
-      <c r="E2468" s="0" t="s">
+      <c r="F2468" s="0" t="s">
         <v>9202</v>
       </c>
-      <c r="F2468" s="0" t="s">
+    </row>
+    <row r="2469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2469" s="0" t="s">
         <v>9203</v>
       </c>
-    </row>
-    <row r="2469" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2469" s="0" t="s">
+      <c r="B2469" s="0" t="s">
         <v>9204</v>
       </c>
-      <c r="B2469" s="0" t="s">
-        <v>6958</v>
-      </c>
-      <c r="D2469" s="2" t="s">
+      <c r="D2469" s="0" t="s">
         <v>9205</v>
       </c>
-      <c r="E2469" s="2" t="s">
+      <c r="E2469" s="0" t="s">
         <v>9206</v>
       </c>
-      <c r="F2469" s="2" t="s">
+      <c r="F2469" s="0" t="s">
         <v>9207</v>
       </c>
     </row>
@@ -77342,7 +77393,7 @@
         <v>9208</v>
       </c>
       <c r="B2470" s="0" t="s">
-        <v>1302</v>
+        <v>50</v>
       </c>
       <c r="D2470" s="0" t="s">
         <v>9209</v>
@@ -77359,335 +77410,335 @@
         <v>9212</v>
       </c>
       <c r="B2471" s="0" t="s">
-        <v>50</v>
+        <v>9213</v>
       </c>
       <c r="D2471" s="0" t="s">
-        <v>9213</v>
+        <v>9214</v>
       </c>
       <c r="E2471" s="0" t="s">
-        <v>9214</v>
+        <v>9215</v>
       </c>
       <c r="F2471" s="0" t="s">
-        <v>9215</v>
+        <v>9216</v>
       </c>
     </row>
     <row r="2472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2472" s="0" t="s">
-        <v>9216</v>
+        <v>9217</v>
       </c>
       <c r="B2472" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2472" s="0" t="s">
-        <v>958</v>
+        <v>6958</v>
       </c>
       <c r="D2472" s="0" t="s">
-        <v>9217</v>
+        <v>9218</v>
       </c>
       <c r="E2472" s="0" t="s">
-        <v>9218</v>
+        <v>9219</v>
       </c>
       <c r="F2472" s="0" t="s">
-        <v>9219</v>
-      </c>
-    </row>
-    <row r="2473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9220</v>
+      </c>
+    </row>
+    <row r="2473" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2473" s="0" t="s">
-        <v>9220</v>
+        <v>9221</v>
       </c>
       <c r="B2473" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2473" s="0" t="s">
-        <v>958</v>
-      </c>
-      <c r="D2473" s="0" t="s">
-        <v>8044</v>
-      </c>
-      <c r="E2473" s="0" t="s">
-        <v>8045</v>
-      </c>
-      <c r="F2473" s="0" t="s">
-        <v>8046</v>
+        <v>6958</v>
+      </c>
+      <c r="D2473" s="2" t="s">
+        <v>9222</v>
+      </c>
+      <c r="E2473" s="2" t="s">
+        <v>9223</v>
+      </c>
+      <c r="F2473" s="2" t="s">
+        <v>9224</v>
       </c>
     </row>
     <row r="2474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2474" s="0" t="s">
-        <v>9221</v>
+        <v>9225</v>
       </c>
       <c r="B2474" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2474" s="0" t="s">
-        <v>958</v>
+        <v>1302</v>
       </c>
       <c r="D2474" s="0" t="s">
-        <v>3201</v>
+        <v>9226</v>
       </c>
       <c r="E2474" s="0" t="s">
-        <v>1297</v>
+        <v>9227</v>
       </c>
       <c r="F2474" s="0" t="s">
-        <v>1298</v>
+        <v>9228</v>
       </c>
     </row>
     <row r="2475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2475" s="0" t="s">
-        <v>9222</v>
+        <v>9229</v>
       </c>
       <c r="B2475" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C2475" s="0" t="s">
-        <v>958</v>
-      </c>
       <c r="D2475" s="0" t="s">
-        <v>9223</v>
+        <v>9230</v>
       </c>
       <c r="E2475" s="0" t="s">
-        <v>9224</v>
+        <v>9231</v>
       </c>
       <c r="F2475" s="0" t="s">
-        <v>9185</v>
+        <v>9232</v>
       </c>
     </row>
     <row r="2476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2476" s="0" t="s">
-        <v>9225</v>
+        <v>9233</v>
       </c>
       <c r="B2476" s="0" t="s">
-        <v>1811</v>
+        <v>50</v>
       </c>
       <c r="C2476" s="0" t="s">
-        <v>9226</v>
+        <v>958</v>
       </c>
       <c r="D2476" s="0" t="s">
-        <v>9227</v>
+        <v>9234</v>
       </c>
       <c r="E2476" s="0" t="s">
-        <v>9228</v>
+        <v>9235</v>
       </c>
       <c r="F2476" s="0" t="s">
-        <v>9229</v>
+        <v>9236</v>
       </c>
     </row>
     <row r="2477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2477" s="0" t="s">
-        <v>9230</v>
+        <v>9237</v>
       </c>
       <c r="B2477" s="0" t="s">
-        <v>1811</v>
+        <v>50</v>
       </c>
       <c r="C2477" s="0" t="s">
-        <v>9226</v>
+        <v>958</v>
       </c>
       <c r="D2477" s="0" t="s">
-        <v>9231</v>
+        <v>8044</v>
       </c>
       <c r="E2477" s="0" t="s">
-        <v>9232</v>
+        <v>8045</v>
       </c>
       <c r="F2477" s="0" t="s">
-        <v>9233</v>
+        <v>8046</v>
       </c>
     </row>
     <row r="2478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2478" s="0" t="s">
-        <v>9234</v>
+        <v>9238</v>
       </c>
       <c r="B2478" s="0" t="s">
-        <v>1811</v>
+        <v>50</v>
       </c>
       <c r="C2478" s="0" t="s">
-        <v>9226</v>
+        <v>958</v>
       </c>
       <c r="D2478" s="0" t="s">
-        <v>9235</v>
+        <v>3201</v>
       </c>
       <c r="E2478" s="0" t="s">
-        <v>9236</v>
+        <v>1297</v>
       </c>
       <c r="F2478" s="0" t="s">
-        <v>9237</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="2479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2479" s="0" t="s">
-        <v>9238</v>
+        <v>9239</v>
       </c>
       <c r="B2479" s="0" t="s">
-        <v>1811</v>
+        <v>50</v>
       </c>
       <c r="C2479" s="0" t="s">
-        <v>9226</v>
+        <v>958</v>
       </c>
       <c r="D2479" s="0" t="s">
-        <v>9239</v>
+        <v>9240</v>
       </c>
       <c r="E2479" s="0" t="s">
-        <v>5527</v>
+        <v>9241</v>
       </c>
       <c r="F2479" s="0" t="s">
-        <v>9240</v>
+        <v>9202</v>
       </c>
     </row>
     <row r="2480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2480" s="0" t="s">
-        <v>9241</v>
+        <v>9242</v>
       </c>
       <c r="B2480" s="0" t="s">
         <v>1811</v>
       </c>
       <c r="C2480" s="0" t="s">
-        <v>9226</v>
+        <v>9243</v>
       </c>
       <c r="D2480" s="0" t="s">
-        <v>9242</v>
+        <v>9244</v>
       </c>
       <c r="E2480" s="0" t="s">
-        <v>9243</v>
+        <v>9245</v>
       </c>
       <c r="F2480" s="0" t="s">
-        <v>9244</v>
+        <v>9246</v>
       </c>
     </row>
     <row r="2481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2481" s="0" t="s">
-        <v>9245</v>
+        <v>9247</v>
       </c>
       <c r="B2481" s="0" t="s">
         <v>1811</v>
       </c>
       <c r="C2481" s="0" t="s">
-        <v>9226</v>
+        <v>9243</v>
       </c>
       <c r="D2481" s="0" t="s">
-        <v>9246</v>
+        <v>9248</v>
       </c>
       <c r="E2481" s="0" t="s">
-        <v>9247</v>
+        <v>9249</v>
       </c>
       <c r="F2481" s="0" t="s">
-        <v>9248</v>
+        <v>9250</v>
       </c>
     </row>
     <row r="2482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2482" s="0" t="s">
-        <v>9249</v>
+        <v>9251</v>
       </c>
       <c r="B2482" s="0" t="s">
         <v>1811</v>
       </c>
       <c r="C2482" s="0" t="s">
-        <v>9226</v>
+        <v>9243</v>
       </c>
       <c r="D2482" s="0" t="s">
-        <v>9250</v>
+        <v>9252</v>
       </c>
       <c r="E2482" s="0" t="s">
-        <v>9251</v>
+        <v>9253</v>
       </c>
       <c r="F2482" s="0" t="s">
-        <v>9252</v>
+        <v>9254</v>
       </c>
     </row>
     <row r="2483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2483" s="0" t="s">
-        <v>9253</v>
+        <v>9255</v>
       </c>
       <c r="B2483" s="0" t="s">
         <v>1811</v>
       </c>
       <c r="C2483" s="0" t="s">
-        <v>9226</v>
+        <v>9243</v>
       </c>
       <c r="D2483" s="0" t="s">
-        <v>9254</v>
+        <v>9256</v>
       </c>
       <c r="E2483" s="0" t="s">
-        <v>9254</v>
+        <v>5527</v>
       </c>
       <c r="F2483" s="0" t="s">
-        <v>9254</v>
+        <v>9257</v>
       </c>
     </row>
     <row r="2484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2484" s="0" t="s">
-        <v>9255</v>
+        <v>9258</v>
       </c>
       <c r="B2484" s="0" t="s">
-        <v>1310</v>
+        <v>1811</v>
+      </c>
+      <c r="C2484" s="0" t="s">
+        <v>9243</v>
       </c>
       <c r="D2484" s="0" t="s">
-        <v>1459</v>
+        <v>9259</v>
       </c>
       <c r="E2484" s="0" t="s">
-        <v>9256</v>
+        <v>9260</v>
       </c>
       <c r="F2484" s="0" t="s">
-        <v>9257</v>
+        <v>9261</v>
       </c>
     </row>
     <row r="2485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2485" s="0" t="s">
-        <v>9258</v>
+        <v>9262</v>
       </c>
       <c r="B2485" s="0" t="s">
-        <v>4549</v>
+        <v>1811</v>
+      </c>
+      <c r="C2485" s="0" t="s">
+        <v>9243</v>
       </c>
       <c r="D2485" s="0" t="s">
-        <v>9259</v>
+        <v>9263</v>
       </c>
       <c r="E2485" s="0" t="s">
-        <v>9260</v>
+        <v>9264</v>
       </c>
       <c r="F2485" s="0" t="s">
-        <v>9261</v>
+        <v>9265</v>
       </c>
     </row>
     <row r="2486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2486" s="0" t="s">
-        <v>9262</v>
+        <v>9266</v>
       </c>
       <c r="B2486" s="0" t="s">
-        <v>9263</v>
+        <v>1811</v>
+      </c>
+      <c r="C2486" s="0" t="s">
+        <v>9243</v>
       </c>
       <c r="D2486" s="0" t="s">
-        <v>9264</v>
+        <v>9267</v>
       </c>
       <c r="E2486" s="0" t="s">
-        <v>9265</v>
+        <v>9268</v>
       </c>
       <c r="F2486" s="0" t="s">
-        <v>9266</v>
+        <v>9269</v>
       </c>
     </row>
     <row r="2487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2487" s="0" t="s">
-        <v>9267</v>
+        <v>9270</v>
       </c>
       <c r="B2487" s="0" t="s">
-        <v>4549</v>
+        <v>1811</v>
+      </c>
+      <c r="C2487" s="0" t="s">
+        <v>9243</v>
       </c>
       <c r="D2487" s="0" t="s">
-        <v>9268</v>
+        <v>9271</v>
       </c>
       <c r="E2487" s="0" t="s">
-        <v>9269</v>
+        <v>9271</v>
       </c>
       <c r="F2487" s="0" t="s">
-        <v>9270</v>
+        <v>9271</v>
       </c>
     </row>
     <row r="2488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2488" s="0" t="s">
-        <v>9271</v>
+        <v>9272</v>
       </c>
       <c r="B2488" s="0" t="s">
-        <v>4549</v>
+        <v>1310</v>
       </c>
       <c r="D2488" s="0" t="s">
-        <v>9272</v>
+        <v>1459</v>
       </c>
       <c r="E2488" s="0" t="s">
         <v>9273</v>
@@ -77701,7 +77752,7 @@
         <v>9275</v>
       </c>
       <c r="B2489" s="0" t="s">
-        <v>1424</v>
+        <v>4549</v>
       </c>
       <c r="D2489" s="0" t="s">
         <v>9276</v>
@@ -77718,1118 +77769,1118 @@
         <v>9279</v>
       </c>
       <c r="B2490" s="0" t="s">
-        <v>1424</v>
+        <v>9280</v>
       </c>
       <c r="D2490" s="0" t="s">
-        <v>9280</v>
+        <v>9281</v>
       </c>
       <c r="E2490" s="0" t="s">
-        <v>9281</v>
+        <v>9282</v>
       </c>
       <c r="F2490" s="0" t="s">
-        <v>9282</v>
+        <v>9283</v>
       </c>
     </row>
     <row r="2491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2491" s="0" t="s">
-        <v>9283</v>
+        <v>9284</v>
       </c>
       <c r="B2491" s="0" t="s">
-        <v>74</v>
+        <v>4549</v>
       </c>
       <c r="D2491" s="0" t="s">
-        <v>9284</v>
+        <v>9285</v>
       </c>
       <c r="E2491" s="0" t="s">
-        <v>9285</v>
+        <v>9286</v>
       </c>
       <c r="F2491" s="0" t="s">
-        <v>9286</v>
+        <v>9287</v>
       </c>
     </row>
     <row r="2492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2492" s="0" t="s">
-        <v>9287</v>
+        <v>9288</v>
       </c>
       <c r="B2492" s="0" t="s">
-        <v>1187</v>
+        <v>4549</v>
       </c>
       <c r="D2492" s="0" t="s">
-        <v>9288</v>
+        <v>9289</v>
       </c>
       <c r="E2492" s="0" t="s">
-        <v>9289</v>
+        <v>9290</v>
       </c>
       <c r="F2492" s="0" t="s">
-        <v>9290</v>
+        <v>9291</v>
       </c>
     </row>
     <row r="2493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2493" s="0" t="s">
-        <v>9291</v>
+        <v>9292</v>
       </c>
       <c r="B2493" s="0" t="s">
-        <v>1187</v>
+        <v>8128</v>
       </c>
       <c r="D2493" s="0" t="s">
-        <v>9292</v>
+        <v>9293</v>
       </c>
       <c r="E2493" s="0" t="s">
-        <v>9293</v>
+        <v>9294</v>
       </c>
       <c r="F2493" s="0" t="s">
-        <v>9294</v>
+        <v>9295</v>
       </c>
     </row>
     <row r="2494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2494" s="0" t="s">
-        <v>9295</v>
+        <v>9296</v>
       </c>
       <c r="B2494" s="0" t="s">
-        <v>1187</v>
+        <v>8128</v>
       </c>
       <c r="D2494" s="0" t="s">
-        <v>9296</v>
+        <v>9297</v>
       </c>
       <c r="E2494" s="0" t="s">
-        <v>9297</v>
+        <v>9298</v>
       </c>
       <c r="F2494" s="0" t="s">
-        <v>9298</v>
+        <v>9299</v>
       </c>
     </row>
     <row r="2495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2495" s="0" t="s">
-        <v>9299</v>
+        <v>9300</v>
       </c>
       <c r="B2495" s="0" t="s">
-        <v>1307</v>
+        <v>74</v>
       </c>
       <c r="D2495" s="0" t="s">
-        <v>9300</v>
+        <v>9301</v>
       </c>
       <c r="E2495" s="0" t="s">
-        <v>9301</v>
+        <v>9302</v>
       </c>
       <c r="F2495" s="0" t="s">
-        <v>9302</v>
+        <v>9303</v>
       </c>
     </row>
     <row r="2496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2496" s="0" t="s">
-        <v>9303</v>
+        <v>9304</v>
       </c>
       <c r="B2496" s="0" t="s">
-        <v>1396</v>
+        <v>1187</v>
       </c>
       <c r="D2496" s="0" t="s">
-        <v>9304</v>
+        <v>9305</v>
       </c>
       <c r="E2496" s="0" t="s">
-        <v>9305</v>
+        <v>9306</v>
       </c>
       <c r="F2496" s="0" t="s">
-        <v>9306</v>
+        <v>9307</v>
       </c>
     </row>
     <row r="2497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2497" s="0" t="s">
-        <v>9307</v>
+        <v>9308</v>
       </c>
       <c r="B2497" s="0" t="s">
-        <v>1302</v>
+        <v>1187</v>
       </c>
       <c r="D2497" s="0" t="s">
-        <v>9308</v>
+        <v>9309</v>
       </c>
       <c r="E2497" s="0" t="s">
-        <v>9309</v>
+        <v>9310</v>
       </c>
       <c r="F2497" s="0" t="s">
-        <v>9310</v>
+        <v>9311</v>
       </c>
     </row>
     <row r="2498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2498" s="0" t="s">
-        <v>9311</v>
+        <v>9312</v>
       </c>
       <c r="B2498" s="0" t="s">
-        <v>345</v>
+        <v>1187</v>
       </c>
       <c r="D2498" s="0" t="s">
-        <v>9312</v>
+        <v>9313</v>
       </c>
       <c r="E2498" s="0" t="s">
-        <v>9313</v>
+        <v>9314</v>
       </c>
       <c r="F2498" s="0" t="s">
-        <v>9314</v>
+        <v>9315</v>
       </c>
     </row>
     <row r="2499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2499" s="0" t="s">
-        <v>9315</v>
+        <v>9316</v>
       </c>
       <c r="B2499" s="0" t="s">
-        <v>345</v>
+        <v>1307</v>
       </c>
       <c r="D2499" s="0" t="s">
-        <v>9316</v>
+        <v>9317</v>
       </c>
       <c r="E2499" s="0" t="s">
-        <v>9317</v>
+        <v>9318</v>
       </c>
       <c r="F2499" s="0" t="s">
-        <v>9318</v>
+        <v>9319</v>
       </c>
     </row>
     <row r="2500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2500" s="0" t="s">
-        <v>9319</v>
+        <v>9320</v>
       </c>
       <c r="B2500" s="0" t="s">
-        <v>345</v>
+        <v>1396</v>
       </c>
       <c r="D2500" s="0" t="s">
-        <v>9320</v>
+        <v>9321</v>
       </c>
       <c r="E2500" s="0" t="s">
-        <v>9321</v>
+        <v>9322</v>
       </c>
       <c r="F2500" s="0" t="s">
-        <v>9322</v>
+        <v>9323</v>
       </c>
     </row>
     <row r="2501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2501" s="0" t="s">
-        <v>9323</v>
+        <v>9324</v>
       </c>
       <c r="B2501" s="0" t="s">
-        <v>345</v>
+        <v>1302</v>
       </c>
       <c r="D2501" s="0" t="s">
-        <v>9324</v>
+        <v>9325</v>
       </c>
       <c r="E2501" s="0" t="s">
-        <v>9325</v>
+        <v>9326</v>
       </c>
       <c r="F2501" s="0" t="s">
-        <v>9326</v>
+        <v>9327</v>
       </c>
     </row>
     <row r="2502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2502" s="0" t="s">
-        <v>9327</v>
+        <v>9328</v>
       </c>
       <c r="B2502" s="0" t="s">
         <v>345</v>
       </c>
       <c r="D2502" s="0" t="s">
-        <v>9328</v>
+        <v>9329</v>
       </c>
       <c r="E2502" s="0" t="s">
-        <v>2482</v>
+        <v>9330</v>
       </c>
       <c r="F2502" s="0" t="s">
-        <v>9329</v>
+        <v>9331</v>
       </c>
     </row>
     <row r="2503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2503" s="0" t="s">
-        <v>9330</v>
+        <v>9332</v>
       </c>
       <c r="B2503" s="0" t="s">
-        <v>1381</v>
+        <v>345</v>
       </c>
       <c r="D2503" s="0" t="s">
-        <v>9331</v>
+        <v>9333</v>
       </c>
       <c r="E2503" s="0" t="s">
-        <v>9332</v>
+        <v>9334</v>
       </c>
       <c r="F2503" s="0" t="s">
-        <v>9333</v>
+        <v>9335</v>
       </c>
     </row>
     <row r="2504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2504" s="0" t="s">
-        <v>9334</v>
+        <v>9336</v>
       </c>
       <c r="B2504" s="0" t="s">
-        <v>1381</v>
+        <v>345</v>
       </c>
       <c r="D2504" s="0" t="s">
-        <v>9335</v>
+        <v>9337</v>
       </c>
       <c r="E2504" s="0" t="s">
-        <v>9336</v>
+        <v>9338</v>
       </c>
       <c r="F2504" s="0" t="s">
-        <v>9337</v>
+        <v>9339</v>
       </c>
     </row>
     <row r="2505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2505" s="0" t="s">
-        <v>9338</v>
+        <v>9340</v>
       </c>
       <c r="B2505" s="0" t="s">
-        <v>1381</v>
+        <v>345</v>
       </c>
       <c r="D2505" s="0" t="s">
-        <v>9339</v>
+        <v>9341</v>
       </c>
       <c r="E2505" s="0" t="s">
-        <v>9340</v>
+        <v>9342</v>
       </c>
       <c r="F2505" s="0" t="s">
-        <v>9341</v>
+        <v>9343</v>
       </c>
     </row>
     <row r="2506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2506" s="0" t="s">
-        <v>9342</v>
+        <v>9344</v>
       </c>
       <c r="B2506" s="0" t="s">
-        <v>1381</v>
+        <v>345</v>
       </c>
       <c r="D2506" s="0" t="s">
-        <v>9343</v>
+        <v>9345</v>
       </c>
       <c r="E2506" s="0" t="s">
-        <v>9344</v>
+        <v>2482</v>
       </c>
       <c r="F2506" s="0" t="s">
-        <v>9345</v>
+        <v>9346</v>
       </c>
     </row>
     <row r="2507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2507" s="0" t="s">
-        <v>9346</v>
+        <v>9347</v>
       </c>
       <c r="B2507" s="0" t="s">
         <v>1381</v>
       </c>
       <c r="D2507" s="0" t="s">
-        <v>9347</v>
+        <v>9348</v>
       </c>
       <c r="E2507" s="0" t="s">
-        <v>9348</v>
+        <v>9349</v>
       </c>
       <c r="F2507" s="0" t="s">
-        <v>9349</v>
+        <v>9350</v>
       </c>
     </row>
     <row r="2508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2508" s="0" t="s">
-        <v>9350</v>
+        <v>9351</v>
       </c>
       <c r="B2508" s="0" t="s">
         <v>1381</v>
       </c>
       <c r="D2508" s="0" t="s">
-        <v>9351</v>
+        <v>9352</v>
       </c>
       <c r="E2508" s="0" t="s">
-        <v>9352</v>
+        <v>9353</v>
       </c>
       <c r="F2508" s="0" t="s">
-        <v>9353</v>
+        <v>9354</v>
       </c>
     </row>
     <row r="2509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2509" s="0" t="s">
-        <v>9354</v>
+        <v>9355</v>
       </c>
       <c r="B2509" s="0" t="s">
         <v>1381</v>
       </c>
       <c r="D2509" s="0" t="s">
-        <v>9355</v>
+        <v>9356</v>
       </c>
       <c r="E2509" s="0" t="s">
-        <v>9356</v>
+        <v>9357</v>
       </c>
       <c r="F2509" s="0" t="s">
-        <v>9357</v>
+        <v>9358</v>
       </c>
     </row>
     <row r="2510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2510" s="0" t="s">
-        <v>9358</v>
+        <v>9359</v>
       </c>
       <c r="B2510" s="0" t="s">
         <v>1381</v>
       </c>
       <c r="D2510" s="0" t="s">
-        <v>9347</v>
+        <v>9360</v>
       </c>
       <c r="E2510" s="0" t="s">
-        <v>9359</v>
+        <v>9361</v>
       </c>
       <c r="F2510" s="0" t="s">
-        <v>9349</v>
+        <v>9362</v>
       </c>
     </row>
     <row r="2511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2511" s="0" t="s">
-        <v>9360</v>
+        <v>9363</v>
       </c>
       <c r="B2511" s="0" t="s">
         <v>1381</v>
       </c>
       <c r="D2511" s="0" t="s">
-        <v>9361</v>
+        <v>9364</v>
       </c>
       <c r="E2511" s="0" t="s">
-        <v>9362</v>
+        <v>9365</v>
       </c>
       <c r="F2511" s="0" t="s">
-        <v>9363</v>
+        <v>9366</v>
       </c>
     </row>
     <row r="2512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2512" s="0" t="s">
-        <v>9364</v>
+        <v>9367</v>
       </c>
       <c r="B2512" s="0" t="s">
-        <v>9365</v>
+        <v>1381</v>
       </c>
       <c r="D2512" s="0" t="s">
-        <v>9366</v>
+        <v>9368</v>
       </c>
       <c r="E2512" s="0" t="s">
-        <v>9367</v>
+        <v>9369</v>
       </c>
       <c r="F2512" s="0" t="s">
-        <v>9368</v>
+        <v>9370</v>
       </c>
     </row>
     <row r="2513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2513" s="0" t="s">
-        <v>9369</v>
+        <v>9371</v>
       </c>
       <c r="B2513" s="0" t="s">
-        <v>7476</v>
+        <v>1381</v>
       </c>
       <c r="D2513" s="0" t="s">
-        <v>9370</v>
+        <v>9372</v>
       </c>
       <c r="E2513" s="0" t="s">
-        <v>9371</v>
+        <v>9373</v>
       </c>
       <c r="F2513" s="0" t="s">
-        <v>9372</v>
+        <v>9374</v>
       </c>
     </row>
     <row r="2514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2514" s="0" t="s">
-        <v>9373</v>
+        <v>9375</v>
       </c>
       <c r="B2514" s="0" t="s">
-        <v>9374</v>
+        <v>1381</v>
       </c>
       <c r="D2514" s="0" t="s">
-        <v>9375</v>
+        <v>9364</v>
       </c>
       <c r="E2514" s="0" t="s">
         <v>9376</v>
       </c>
       <c r="F2514" s="0" t="s">
-        <v>9377</v>
+        <v>9366</v>
       </c>
     </row>
     <row r="2515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2515" s="0" t="s">
+        <v>9377</v>
+      </c>
+      <c r="B2515" s="0" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D2515" s="0" t="s">
         <v>9378</v>
       </c>
-      <c r="B2515" s="0" t="s">
-        <v>9374</v>
-      </c>
-      <c r="D2515" s="0" t="s">
+      <c r="E2515" s="0" t="s">
         <v>9379</v>
       </c>
-      <c r="E2515" s="0" t="s">
+      <c r="F2515" s="0" t="s">
         <v>9380</v>
-      </c>
-      <c r="F2515" s="0" t="s">
-        <v>9381</v>
       </c>
     </row>
     <row r="2516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2516" s="0" t="s">
-        <v>1</v>
+        <v>9381</v>
       </c>
       <c r="B2516" s="0" t="s">
-        <v>2945</v>
+        <v>9382</v>
       </c>
       <c r="D2516" s="0" t="s">
-        <v>3449</v>
+        <v>9383</v>
       </c>
       <c r="E2516" s="0" t="s">
-        <v>3450</v>
+        <v>9384</v>
       </c>
       <c r="F2516" s="0" t="s">
-        <v>3451</v>
+        <v>9385</v>
       </c>
     </row>
     <row r="2517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2517" s="0" t="s">
-        <v>9382</v>
+        <v>9386</v>
       </c>
       <c r="B2517" s="0" t="s">
-        <v>2945</v>
+        <v>7476</v>
       </c>
       <c r="D2517" s="0" t="s">
-        <v>9383</v>
+        <v>9387</v>
       </c>
       <c r="E2517" s="0" t="s">
-        <v>9384</v>
+        <v>9388</v>
       </c>
       <c r="F2517" s="0" t="s">
-        <v>9385</v>
+        <v>9389</v>
       </c>
     </row>
     <row r="2518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2518" s="0" t="s">
-        <v>9386</v>
+        <v>9390</v>
       </c>
       <c r="B2518" s="0" t="s">
-        <v>2945</v>
+        <v>9391</v>
       </c>
       <c r="D2518" s="0" t="s">
-        <v>9387</v>
+        <v>9392</v>
       </c>
       <c r="E2518" s="0" t="s">
-        <v>9388</v>
+        <v>9393</v>
       </c>
       <c r="F2518" s="0" t="s">
-        <v>9389</v>
+        <v>9394</v>
       </c>
     </row>
     <row r="2519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2519" s="0" t="s">
-        <v>9390</v>
+        <v>9395</v>
       </c>
       <c r="B2519" s="0" t="s">
-        <v>1178</v>
+        <v>9391</v>
       </c>
       <c r="D2519" s="0" t="s">
-        <v>9391</v>
+        <v>9396</v>
       </c>
       <c r="E2519" s="0" t="s">
-        <v>9392</v>
+        <v>9397</v>
       </c>
       <c r="F2519" s="0" t="s">
-        <v>9393</v>
+        <v>9398</v>
       </c>
     </row>
     <row r="2520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2520" s="0" t="s">
-        <v>9394</v>
+        <v>1</v>
       </c>
       <c r="B2520" s="0" t="s">
-        <v>321</v>
+        <v>2945</v>
       </c>
       <c r="D2520" s="0" t="s">
-        <v>9395</v>
+        <v>3449</v>
       </c>
       <c r="E2520" s="0" t="s">
-        <v>9396</v>
+        <v>3450</v>
       </c>
       <c r="F2520" s="0" t="s">
-        <v>9397</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="2521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2521" s="0" t="s">
-        <v>9398</v>
+        <v>9399</v>
       </c>
       <c r="B2521" s="0" t="s">
-        <v>517</v>
+        <v>2945</v>
       </c>
       <c r="D2521" s="0" t="s">
-        <v>9399</v>
+        <v>9400</v>
       </c>
       <c r="E2521" s="0" t="s">
-        <v>9400</v>
+        <v>9401</v>
       </c>
       <c r="F2521" s="0" t="s">
-        <v>9401</v>
+        <v>9402</v>
       </c>
     </row>
     <row r="2522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2522" s="0" t="s">
-        <v>9402</v>
+        <v>9403</v>
       </c>
       <c r="B2522" s="0" t="s">
-        <v>517</v>
+        <v>2945</v>
       </c>
       <c r="D2522" s="0" t="s">
-        <v>9403</v>
+        <v>9404</v>
       </c>
       <c r="E2522" s="0" t="s">
-        <v>9404</v>
+        <v>9405</v>
       </c>
       <c r="F2522" s="0" t="s">
-        <v>9405</v>
+        <v>9406</v>
       </c>
     </row>
     <row r="2523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2523" s="0" t="s">
-        <v>9406</v>
+        <v>9407</v>
       </c>
       <c r="B2523" s="0" t="s">
-        <v>517</v>
+        <v>1178</v>
       </c>
       <c r="D2523" s="0" t="s">
-        <v>9407</v>
+        <v>9408</v>
       </c>
       <c r="E2523" s="0" t="s">
-        <v>9408</v>
+        <v>9409</v>
       </c>
       <c r="F2523" s="0" t="s">
-        <v>9409</v>
+        <v>9410</v>
       </c>
     </row>
     <row r="2524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2524" s="0" t="s">
-        <v>9410</v>
+        <v>9411</v>
       </c>
       <c r="B2524" s="0" t="s">
-        <v>517</v>
+        <v>321</v>
       </c>
       <c r="D2524" s="0" t="s">
-        <v>9411</v>
+        <v>9412</v>
       </c>
       <c r="E2524" s="0" t="s">
-        <v>9412</v>
+        <v>9413</v>
       </c>
       <c r="F2524" s="0" t="s">
-        <v>9413</v>
+        <v>9414</v>
       </c>
     </row>
     <row r="2525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2525" s="0" t="s">
-        <v>9414</v>
+        <v>9415</v>
       </c>
       <c r="B2525" s="0" t="s">
         <v>517</v>
       </c>
       <c r="D2525" s="0" t="s">
-        <v>7871</v>
+        <v>9416</v>
       </c>
       <c r="E2525" s="0" t="s">
-        <v>9415</v>
+        <v>9417</v>
       </c>
       <c r="F2525" s="0" t="s">
-        <v>9416</v>
+        <v>9418</v>
       </c>
     </row>
     <row r="2526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2526" s="0" t="s">
-        <v>9417</v>
+        <v>9419</v>
       </c>
       <c r="B2526" s="0" t="s">
         <v>517</v>
       </c>
       <c r="D2526" s="0" t="s">
-        <v>9418</v>
+        <v>9420</v>
       </c>
       <c r="E2526" s="0" t="s">
-        <v>9419</v>
+        <v>9421</v>
       </c>
       <c r="F2526" s="0" t="s">
-        <v>9420</v>
+        <v>9422</v>
       </c>
     </row>
     <row r="2527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2527" s="0" t="s">
-        <v>9421</v>
+        <v>9423</v>
       </c>
       <c r="B2527" s="0" t="s">
         <v>517</v>
       </c>
       <c r="D2527" s="0" t="s">
-        <v>9422</v>
+        <v>9424</v>
       </c>
       <c r="E2527" s="0" t="s">
-        <v>9423</v>
+        <v>9425</v>
       </c>
       <c r="F2527" s="0" t="s">
-        <v>9424</v>
+        <v>9426</v>
       </c>
     </row>
     <row r="2528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2528" s="0" t="s">
-        <v>9425</v>
+        <v>9427</v>
       </c>
       <c r="B2528" s="0" t="s">
-        <v>8523</v>
+        <v>517</v>
       </c>
       <c r="D2528" s="0" t="s">
-        <v>9426</v>
+        <v>9428</v>
       </c>
       <c r="E2528" s="0" t="s">
-        <v>9427</v>
+        <v>9429</v>
       </c>
       <c r="F2528" s="0" t="s">
-        <v>9428</v>
+        <v>9430</v>
       </c>
     </row>
     <row r="2529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2529" s="0" t="s">
-        <v>9429</v>
+        <v>9431</v>
       </c>
       <c r="B2529" s="0" t="s">
         <v>517</v>
       </c>
       <c r="D2529" s="0" t="s">
-        <v>9430</v>
+        <v>7871</v>
       </c>
       <c r="E2529" s="0" t="s">
-        <v>9431</v>
+        <v>9432</v>
       </c>
       <c r="F2529" s="0" t="s">
-        <v>9432</v>
+        <v>9433</v>
       </c>
     </row>
     <row r="2530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2530" s="0" t="s">
-        <v>9433</v>
+        <v>9434</v>
       </c>
       <c r="B2530" s="0" t="s">
-        <v>3983</v>
+        <v>517</v>
       </c>
       <c r="D2530" s="0" t="s">
-        <v>9434</v>
+        <v>9435</v>
       </c>
       <c r="E2530" s="0" t="s">
-        <v>9435</v>
+        <v>9436</v>
       </c>
       <c r="F2530" s="0" t="s">
-        <v>9436</v>
+        <v>9437</v>
       </c>
     </row>
     <row r="2531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2531" s="0" t="s">
-        <v>9437</v>
+        <v>9438</v>
       </c>
       <c r="B2531" s="0" t="s">
-        <v>632</v>
+        <v>517</v>
       </c>
       <c r="D2531" s="0" t="s">
-        <v>9438</v>
+        <v>9439</v>
       </c>
       <c r="E2531" s="0" t="s">
-        <v>9439</v>
+        <v>9440</v>
       </c>
       <c r="F2531" s="0" t="s">
-        <v>9440</v>
+        <v>9441</v>
       </c>
     </row>
     <row r="2532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2532" s="0" t="s">
-        <v>9441</v>
+        <v>9442</v>
       </c>
       <c r="B2532" s="0" t="s">
-        <v>2372</v>
+        <v>8524</v>
       </c>
       <c r="D2532" s="0" t="s">
-        <v>9442</v>
+        <v>9443</v>
       </c>
       <c r="E2532" s="0" t="s">
-        <v>9443</v>
+        <v>9444</v>
       </c>
       <c r="F2532" s="0" t="s">
-        <v>9444</v>
+        <v>9445</v>
       </c>
     </row>
     <row r="2533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2533" s="0" t="s">
-        <v>9445</v>
+        <v>9446</v>
       </c>
       <c r="B2533" s="0" t="s">
-        <v>2372</v>
+        <v>517</v>
       </c>
       <c r="D2533" s="0" t="s">
-        <v>9446</v>
+        <v>9447</v>
       </c>
       <c r="E2533" s="0" t="s">
-        <v>9447</v>
+        <v>9448</v>
       </c>
       <c r="F2533" s="0" t="s">
-        <v>9448</v>
+        <v>9449</v>
       </c>
     </row>
     <row r="2534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2534" s="0" t="s">
-        <v>9449</v>
+        <v>9450</v>
       </c>
       <c r="B2534" s="0" t="s">
-        <v>2372</v>
+        <v>3983</v>
       </c>
       <c r="D2534" s="0" t="s">
-        <v>9450</v>
+        <v>9451</v>
       </c>
       <c r="E2534" s="0" t="s">
-        <v>9451</v>
+        <v>9452</v>
       </c>
       <c r="F2534" s="0" t="s">
-        <v>9452</v>
+        <v>9453</v>
       </c>
     </row>
     <row r="2535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2535" s="0" t="s">
-        <v>9453</v>
+        <v>9454</v>
       </c>
       <c r="B2535" s="0" t="s">
         <v>632</v>
       </c>
       <c r="D2535" s="0" t="s">
-        <v>9454</v>
+        <v>9455</v>
       </c>
       <c r="E2535" s="0" t="s">
-        <v>5171</v>
+        <v>9456</v>
       </c>
       <c r="F2535" s="0" t="s">
-        <v>9455</v>
+        <v>9457</v>
       </c>
     </row>
     <row r="2536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2536" s="0" t="s">
-        <v>9456</v>
+        <v>9458</v>
       </c>
       <c r="B2536" s="0" t="s">
-        <v>632</v>
+        <v>2372</v>
       </c>
       <c r="D2536" s="0" t="s">
-        <v>9457</v>
+        <v>9459</v>
       </c>
       <c r="E2536" s="0" t="s">
-        <v>9458</v>
+        <v>9460</v>
       </c>
       <c r="F2536" s="0" t="s">
-        <v>9459</v>
+        <v>9461</v>
       </c>
     </row>
     <row r="2537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2537" s="0" t="s">
-        <v>9460</v>
+        <v>9462</v>
       </c>
       <c r="B2537" s="0" t="s">
-        <v>1752</v>
-      </c>
-      <c r="C2537" s="0" t="s">
-        <v>5937</v>
+        <v>2372</v>
       </c>
       <c r="D2537" s="0" t="s">
-        <v>9461</v>
+        <v>9463</v>
       </c>
       <c r="E2537" s="0" t="s">
-        <v>9462</v>
+        <v>9464</v>
       </c>
       <c r="F2537" s="0" t="s">
-        <v>9463</v>
+        <v>9465</v>
       </c>
     </row>
     <row r="2538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2538" s="0" t="s">
-        <v>9464</v>
+        <v>9466</v>
       </c>
       <c r="B2538" s="0" t="s">
-        <v>632</v>
-      </c>
-      <c r="C2538" s="0" t="s">
-        <v>5937</v>
+        <v>2372</v>
       </c>
       <c r="D2538" s="0" t="s">
-        <v>9465</v>
+        <v>9467</v>
       </c>
       <c r="E2538" s="0" t="s">
-        <v>9465</v>
+        <v>9468</v>
       </c>
       <c r="F2538" s="0" t="s">
-        <v>9465</v>
+        <v>9469</v>
       </c>
     </row>
     <row r="2539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2539" s="0" t="s">
-        <v>9466</v>
+        <v>9470</v>
       </c>
       <c r="B2539" s="0" t="s">
         <v>632</v>
       </c>
       <c r="D2539" s="0" t="s">
-        <v>9467</v>
+        <v>9471</v>
       </c>
       <c r="E2539" s="0" t="s">
-        <v>9468</v>
+        <v>5171</v>
       </c>
       <c r="F2539" s="0" t="s">
-        <v>9469</v>
+        <v>9472</v>
       </c>
     </row>
     <row r="2540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2540" s="0" t="s">
-        <v>9470</v>
+        <v>9473</v>
       </c>
       <c r="B2540" s="0" t="s">
         <v>632</v>
       </c>
       <c r="D2540" s="0" t="s">
-        <v>9471</v>
+        <v>9474</v>
       </c>
       <c r="E2540" s="0" t="s">
-        <v>9472</v>
+        <v>9475</v>
       </c>
       <c r="F2540" s="0" t="s">
-        <v>9473</v>
-      </c>
-    </row>
-    <row r="2541" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9476</v>
+      </c>
+    </row>
+    <row r="2541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2541" s="0" t="s">
-        <v>9474</v>
+        <v>9477</v>
       </c>
       <c r="B2541" s="0" t="s">
-        <v>592</v>
-      </c>
-      <c r="D2541" s="2" t="s">
-        <v>9475</v>
-      </c>
-      <c r="E2541" s="2" t="s">
-        <v>9476</v>
-      </c>
-      <c r="F2541" s="2" t="s">
-        <v>9477</v>
+        <v>1752</v>
+      </c>
+      <c r="C2541" s="0" t="s">
+        <v>5937</v>
+      </c>
+      <c r="D2541" s="0" t="s">
+        <v>9478</v>
+      </c>
+      <c r="E2541" s="0" t="s">
+        <v>9479</v>
+      </c>
+      <c r="F2541" s="0" t="s">
+        <v>9480</v>
       </c>
     </row>
     <row r="2542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2542" s="0" t="s">
-        <v>9478</v>
+        <v>9481</v>
       </c>
       <c r="B2542" s="0" t="s">
-        <v>1878</v>
+        <v>632</v>
+      </c>
+      <c r="C2542" s="0" t="s">
+        <v>5937</v>
       </c>
       <c r="D2542" s="0" t="s">
-        <v>9479</v>
+        <v>9482</v>
       </c>
       <c r="E2542" s="0" t="s">
-        <v>9480</v>
+        <v>9482</v>
       </c>
       <c r="F2542" s="0" t="s">
-        <v>9481</v>
+        <v>9482</v>
       </c>
     </row>
     <row r="2543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2543" s="0" t="s">
-        <v>9482</v>
+        <v>9483</v>
       </c>
       <c r="B2543" s="0" t="s">
-        <v>4036</v>
+        <v>632</v>
       </c>
       <c r="D2543" s="0" t="s">
-        <v>9483</v>
+        <v>9484</v>
       </c>
       <c r="E2543" s="0" t="s">
-        <v>9484</v>
+        <v>9485</v>
       </c>
       <c r="F2543" s="0" t="s">
-        <v>9485</v>
+        <v>9486</v>
       </c>
     </row>
     <row r="2544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2544" s="0" t="s">
-        <v>9486</v>
+        <v>9487</v>
       </c>
       <c r="B2544" s="0" t="s">
-        <v>4036</v>
+        <v>632</v>
       </c>
       <c r="D2544" s="0" t="s">
-        <v>9487</v>
+        <v>9488</v>
       </c>
       <c r="E2544" s="0" t="s">
-        <v>9488</v>
+        <v>9489</v>
       </c>
       <c r="F2544" s="0" t="s">
-        <v>9489</v>
-      </c>
-    </row>
-    <row r="2545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9490</v>
+      </c>
+    </row>
+    <row r="2545" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2545" s="0" t="s">
-        <v>9490</v>
+        <v>9491</v>
       </c>
       <c r="B2545" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="D2545" s="0" t="s">
-        <v>9491</v>
-      </c>
-      <c r="E2545" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="D2545" s="2" t="s">
         <v>9492</v>
       </c>
-      <c r="F2545" s="0" t="s">
+      <c r="E2545" s="2" t="s">
         <v>9493</v>
+      </c>
+      <c r="F2545" s="2" t="s">
+        <v>9494</v>
       </c>
     </row>
     <row r="2546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2546" s="0" t="s">
-        <v>9494</v>
+        <v>9495</v>
       </c>
       <c r="B2546" s="0" t="s">
-        <v>618</v>
+        <v>1878</v>
       </c>
       <c r="D2546" s="0" t="s">
-        <v>9495</v>
+        <v>9496</v>
       </c>
       <c r="E2546" s="0" t="s">
-        <v>9496</v>
+        <v>9497</v>
       </c>
       <c r="F2546" s="0" t="s">
-        <v>9497</v>
+        <v>9498</v>
       </c>
     </row>
     <row r="2547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2547" s="0" t="s">
-        <v>9498</v>
+        <v>9499</v>
       </c>
       <c r="B2547" s="0" t="s">
-        <v>618</v>
+        <v>4036</v>
       </c>
       <c r="D2547" s="0" t="s">
-        <v>9499</v>
+        <v>9500</v>
       </c>
       <c r="E2547" s="0" t="s">
-        <v>9500</v>
+        <v>9501</v>
       </c>
       <c r="F2547" s="0" t="s">
-        <v>9501</v>
+        <v>9502</v>
       </c>
     </row>
     <row r="2548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2548" s="0" t="s">
-        <v>9502</v>
+        <v>9503</v>
       </c>
       <c r="B2548" s="0" t="s">
-        <v>9263</v>
+        <v>4036</v>
       </c>
       <c r="D2548" s="0" t="s">
-        <v>9503</v>
+        <v>9504</v>
       </c>
       <c r="E2548" s="0" t="s">
-        <v>9504</v>
+        <v>9505</v>
       </c>
       <c r="F2548" s="0" t="s">
-        <v>9505</v>
+        <v>9506</v>
       </c>
     </row>
     <row r="2549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2549" s="0" t="s">
-        <v>9506</v>
+        <v>9507</v>
       </c>
       <c r="B2549" s="0" t="s">
-        <v>321</v>
+        <v>618</v>
       </c>
       <c r="D2549" s="0" t="s">
-        <v>9507</v>
+        <v>9508</v>
       </c>
       <c r="E2549" s="0" t="s">
-        <v>9508</v>
+        <v>9509</v>
       </c>
       <c r="F2549" s="0" t="s">
-        <v>9509</v>
+        <v>9510</v>
       </c>
     </row>
     <row r="2550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2550" s="0" t="s">
-        <v>9510</v>
+        <v>9511</v>
       </c>
       <c r="B2550" s="0" t="s">
-        <v>326</v>
+        <v>618</v>
       </c>
       <c r="D2550" s="0" t="s">
-        <v>9511</v>
+        <v>9512</v>
       </c>
       <c r="E2550" s="0" t="s">
-        <v>9511</v>
+        <v>9513</v>
       </c>
       <c r="F2550" s="0" t="s">
-        <v>9511</v>
+        <v>9514</v>
       </c>
     </row>
     <row r="2551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2551" s="0" t="s">
-        <v>9512</v>
+        <v>9515</v>
       </c>
       <c r="B2551" s="0" t="s">
-        <v>326</v>
+        <v>618</v>
       </c>
       <c r="D2551" s="0" t="s">
-        <v>9513</v>
+        <v>9516</v>
       </c>
       <c r="E2551" s="0" t="s">
-        <v>9514</v>
+        <v>9517</v>
       </c>
       <c r="F2551" s="0" t="s">
-        <v>9515</v>
+        <v>9518</v>
       </c>
     </row>
     <row r="2552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2552" s="0" t="s">
-        <v>9516</v>
+        <v>9519</v>
       </c>
       <c r="B2552" s="0" t="s">
-        <v>9517</v>
+        <v>9280</v>
       </c>
       <c r="D2552" s="0" t="s">
-        <v>9518</v>
+        <v>9520</v>
       </c>
       <c r="E2552" s="0" t="s">
-        <v>7436</v>
+        <v>9521</v>
       </c>
       <c r="F2552" s="0" t="s">
-        <v>9519</v>
+        <v>9522</v>
       </c>
     </row>
     <row r="2553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2553" s="0" t="s">
-        <v>9520</v>
+        <v>9523</v>
       </c>
       <c r="B2553" s="0" t="s">
-        <v>9517</v>
+        <v>321</v>
       </c>
       <c r="D2553" s="0" t="s">
-        <v>9521</v>
+        <v>9524</v>
       </c>
       <c r="E2553" s="0" t="s">
-        <v>9522</v>
+        <v>9525</v>
       </c>
       <c r="F2553" s="0" t="s">
-        <v>9523</v>
+        <v>9526</v>
       </c>
     </row>
     <row r="2554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2554" s="0" t="s">
-        <v>9524</v>
+        <v>9527</v>
       </c>
       <c r="B2554" s="0" t="s">
-        <v>3516</v>
+        <v>326</v>
       </c>
       <c r="D2554" s="0" t="s">
-        <v>9525</v>
+        <v>9528</v>
       </c>
       <c r="E2554" s="0" t="s">
-        <v>9526</v>
+        <v>9528</v>
       </c>
       <c r="F2554" s="0" t="s">
-        <v>9527</v>
+        <v>9528</v>
       </c>
     </row>
     <row r="2555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2555" s="0" t="s">
-        <v>9528</v>
+        <v>9529</v>
       </c>
       <c r="B2555" s="0" t="s">
-        <v>9529</v>
+        <v>326</v>
       </c>
       <c r="D2555" s="0" t="s">
         <v>9530</v>
@@ -78846,13 +78897,13 @@
         <v>9533</v>
       </c>
       <c r="B2556" s="0" t="s">
-        <v>9529</v>
+        <v>9534</v>
       </c>
       <c r="D2556" s="0" t="s">
-        <v>9534</v>
+        <v>9535</v>
       </c>
       <c r="E2556" s="0" t="s">
-        <v>9535</v>
+        <v>7436</v>
       </c>
       <c r="F2556" s="0" t="s">
         <v>9536</v>
@@ -78863,7 +78914,7 @@
         <v>9537</v>
       </c>
       <c r="B2557" s="0" t="s">
-        <v>9529</v>
+        <v>9534</v>
       </c>
       <c r="D2557" s="0" t="s">
         <v>9538</v>
@@ -78880,24 +78931,24 @@
         <v>9541</v>
       </c>
       <c r="B2558" s="0" t="s">
+        <v>3516</v>
+      </c>
+      <c r="D2558" s="0" t="s">
         <v>9542</v>
       </c>
-      <c r="D2558" s="0" t="s">
+      <c r="E2558" s="0" t="s">
         <v>9543</v>
       </c>
-      <c r="E2558" s="0" t="s">
+      <c r="F2558" s="0" t="s">
         <v>9544</v>
-      </c>
-      <c r="F2558" s="0" t="s">
-        <v>9545</v>
       </c>
     </row>
     <row r="2559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2559" s="0" t="s">
+        <v>9545</v>
+      </c>
+      <c r="B2559" s="0" t="s">
         <v>9546</v>
-      </c>
-      <c r="B2559" s="0" t="s">
-        <v>4152</v>
       </c>
       <c r="D2559" s="0" t="s">
         <v>9547</v>
@@ -78914,7 +78965,7 @@
         <v>9550</v>
       </c>
       <c r="B2560" s="0" t="s">
-        <v>4152</v>
+        <v>9546</v>
       </c>
       <c r="D2560" s="0" t="s">
         <v>9551</v>
@@ -78931,7 +78982,7 @@
         <v>9554</v>
       </c>
       <c r="B2561" s="0" t="s">
-        <v>920</v>
+        <v>9546</v>
       </c>
       <c r="D2561" s="0" t="s">
         <v>9555</v>
@@ -78943,63 +78994,63 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="2562" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2562" s="0" t="s">
         <v>9558</v>
       </c>
       <c r="B2562" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="D2562" s="2" t="s">
         <v>9559</v>
       </c>
-      <c r="E2562" s="2" t="s">
+      <c r="D2562" s="0" t="s">
         <v>9560</v>
       </c>
-      <c r="F2562" s="2" t="s">
+      <c r="E2562" s="0" t="s">
         <v>9561</v>
+      </c>
+      <c r="F2562" s="0" t="s">
+        <v>9562</v>
       </c>
     </row>
     <row r="2563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2563" s="0" t="s">
-        <v>9562</v>
+        <v>9563</v>
       </c>
       <c r="B2563" s="0" t="s">
-        <v>331</v>
+        <v>4152</v>
       </c>
       <c r="D2563" s="0" t="s">
-        <v>9563</v>
+        <v>9564</v>
       </c>
       <c r="E2563" s="0" t="s">
-        <v>9564</v>
+        <v>9565</v>
       </c>
       <c r="F2563" s="0" t="s">
-        <v>9565</v>
+        <v>9566</v>
       </c>
     </row>
     <row r="2564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2564" s="0" t="s">
-        <v>9566</v>
+        <v>9567</v>
       </c>
       <c r="B2564" s="0" t="s">
-        <v>331</v>
+        <v>4152</v>
       </c>
       <c r="D2564" s="0" t="s">
-        <v>9567</v>
+        <v>9568</v>
       </c>
       <c r="E2564" s="0" t="s">
-        <v>9568</v>
+        <v>9569</v>
       </c>
       <c r="F2564" s="0" t="s">
-        <v>9569</v>
+        <v>9570</v>
       </c>
     </row>
     <row r="2565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2565" s="0" t="s">
-        <v>9570</v>
+        <v>9571</v>
       </c>
       <c r="B2565" s="0" t="s">
-        <v>9571</v>
+        <v>920</v>
       </c>
       <c r="D2565" s="0" t="s">
         <v>9572</v>
@@ -79011,922 +79062,990 @@
         <v>9574</v>
       </c>
     </row>
-    <row r="2566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2566" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2566" s="0" t="s">
         <v>9575</v>
       </c>
       <c r="B2566" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="D2566" s="0" t="s">
+      <c r="D2566" s="2" t="s">
         <v>9576</v>
       </c>
-      <c r="E2566" s="0" t="s">
-        <v>9568</v>
-      </c>
-      <c r="F2566" s="0" t="s">
+      <c r="E2566" s="2" t="s">
         <v>9577</v>
+      </c>
+      <c r="F2566" s="2" t="s">
+        <v>9578</v>
       </c>
     </row>
     <row r="2567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2567" s="0" t="s">
-        <v>9578</v>
+        <v>9579</v>
       </c>
       <c r="B2567" s="0" t="s">
         <v>331</v>
       </c>
       <c r="D2567" s="0" t="s">
-        <v>9579</v>
+        <v>9580</v>
       </c>
       <c r="E2567" s="0" t="s">
-        <v>9580</v>
+        <v>9581</v>
       </c>
       <c r="F2567" s="0" t="s">
-        <v>9581</v>
+        <v>9582</v>
       </c>
     </row>
     <row r="2568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2568" s="0" t="s">
-        <v>9582</v>
+        <v>9583</v>
       </c>
       <c r="B2568" s="0" t="s">
-        <v>19</v>
+        <v>331</v>
       </c>
       <c r="D2568" s="0" t="s">
-        <v>9583</v>
+        <v>9584</v>
       </c>
       <c r="E2568" s="0" t="s">
-        <v>9584</v>
+        <v>9585</v>
       </c>
       <c r="F2568" s="0" t="s">
-        <v>9585</v>
+        <v>9586</v>
       </c>
     </row>
     <row r="2569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2569" s="0" t="s">
-        <v>9586</v>
+        <v>9587</v>
       </c>
       <c r="B2569" s="0" t="s">
-        <v>19</v>
+        <v>9588</v>
       </c>
       <c r="D2569" s="0" t="s">
-        <v>9587</v>
+        <v>9589</v>
       </c>
       <c r="E2569" s="0" t="s">
-        <v>9588</v>
+        <v>9590</v>
       </c>
       <c r="F2569" s="0" t="s">
-        <v>9589</v>
+        <v>9591</v>
       </c>
     </row>
     <row r="2570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2570" s="0" t="s">
-        <v>9590</v>
+        <v>9592</v>
       </c>
       <c r="B2570" s="0" t="s">
         <v>331</v>
       </c>
       <c r="D2570" s="0" t="s">
-        <v>9591</v>
+        <v>9593</v>
       </c>
       <c r="E2570" s="0" t="s">
-        <v>9592</v>
+        <v>9585</v>
       </c>
       <c r="F2570" s="0" t="s">
-        <v>9593</v>
+        <v>9594</v>
       </c>
     </row>
     <row r="2571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2571" s="0" t="s">
-        <v>9594</v>
+        <v>9595</v>
       </c>
       <c r="B2571" s="0" t="s">
         <v>331</v>
       </c>
       <c r="D2571" s="0" t="s">
-        <v>9595</v>
+        <v>9596</v>
       </c>
       <c r="E2571" s="0" t="s">
-        <v>9596</v>
+        <v>9597</v>
       </c>
       <c r="F2571" s="0" t="s">
-        <v>9597</v>
+        <v>9598</v>
       </c>
     </row>
     <row r="2572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2572" s="0" t="s">
-        <v>9598</v>
+        <v>9599</v>
       </c>
       <c r="B2572" s="0" t="s">
-        <v>331</v>
+        <v>19</v>
       </c>
       <c r="D2572" s="0" t="s">
-        <v>9599</v>
+        <v>9600</v>
       </c>
       <c r="E2572" s="0" t="s">
-        <v>9600</v>
+        <v>9601</v>
       </c>
       <c r="F2572" s="0" t="s">
-        <v>9601</v>
+        <v>9602</v>
       </c>
     </row>
     <row r="2573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2573" s="0" t="s">
-        <v>9602</v>
+        <v>9603</v>
       </c>
       <c r="B2573" s="0" t="s">
-        <v>331</v>
+        <v>19</v>
       </c>
       <c r="D2573" s="0" t="s">
-        <v>7005</v>
+        <v>9604</v>
       </c>
       <c r="E2573" s="0" t="s">
-        <v>7006</v>
+        <v>9605</v>
       </c>
       <c r="F2573" s="0" t="s">
-        <v>7007</v>
+        <v>9606</v>
       </c>
     </row>
     <row r="2574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2574" s="0" t="s">
-        <v>9603</v>
+        <v>9607</v>
       </c>
       <c r="B2574" s="0" t="s">
         <v>331</v>
       </c>
       <c r="D2574" s="0" t="s">
-        <v>9604</v>
+        <v>9608</v>
       </c>
       <c r="E2574" s="0" t="s">
-        <v>9605</v>
+        <v>9609</v>
       </c>
       <c r="F2574" s="0" t="s">
-        <v>9606</v>
+        <v>9610</v>
       </c>
     </row>
     <row r="2575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2575" s="0" t="s">
-        <v>9607</v>
+        <v>9611</v>
       </c>
       <c r="B2575" s="0" t="s">
-        <v>1295</v>
+        <v>331</v>
       </c>
       <c r="D2575" s="0" t="s">
-        <v>9608</v>
+        <v>9612</v>
       </c>
       <c r="E2575" s="0" t="s">
-        <v>9609</v>
+        <v>9613</v>
       </c>
       <c r="F2575" s="0" t="s">
-        <v>9610</v>
+        <v>9614</v>
       </c>
     </row>
     <row r="2576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2576" s="0" t="s">
-        <v>9611</v>
+        <v>9615</v>
       </c>
       <c r="B2576" s="0" t="s">
-        <v>16</v>
+        <v>331</v>
       </c>
       <c r="D2576" s="0" t="s">
-        <v>9612</v>
+        <v>9616</v>
       </c>
       <c r="E2576" s="0" t="s">
-        <v>9613</v>
+        <v>9617</v>
       </c>
       <c r="F2576" s="0" t="s">
-        <v>9614</v>
+        <v>9618</v>
       </c>
     </row>
     <row r="2577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2577" s="0" t="s">
-        <v>9615</v>
+        <v>9619</v>
       </c>
       <c r="B2577" s="0" t="s">
-        <v>16</v>
+        <v>331</v>
       </c>
       <c r="D2577" s="0" t="s">
-        <v>9616</v>
+        <v>7005</v>
       </c>
       <c r="E2577" s="0" t="s">
-        <v>9617</v>
+        <v>7006</v>
       </c>
       <c r="F2577" s="0" t="s">
-        <v>9618</v>
+        <v>7007</v>
       </c>
     </row>
     <row r="2578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2578" s="0" t="s">
-        <v>9619</v>
+        <v>9620</v>
       </c>
       <c r="B2578" s="0" t="s">
-        <v>16</v>
+        <v>331</v>
       </c>
       <c r="D2578" s="0" t="s">
-        <v>9620</v>
+        <v>9621</v>
       </c>
       <c r="E2578" s="0" t="s">
-        <v>9621</v>
+        <v>9622</v>
       </c>
       <c r="F2578" s="0" t="s">
-        <v>9622</v>
+        <v>9623</v>
       </c>
     </row>
     <row r="2579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2579" s="0" t="s">
-        <v>9623</v>
+        <v>9624</v>
       </c>
       <c r="B2579" s="0" t="s">
-        <v>16</v>
+        <v>1295</v>
       </c>
       <c r="D2579" s="0" t="s">
-        <v>9624</v>
+        <v>9625</v>
       </c>
       <c r="E2579" s="0" t="s">
-        <v>9625</v>
+        <v>9626</v>
       </c>
       <c r="F2579" s="0" t="s">
-        <v>9626</v>
+        <v>9627</v>
       </c>
     </row>
     <row r="2580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2580" s="0" t="s">
-        <v>9627</v>
+        <v>9628</v>
       </c>
       <c r="B2580" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D2580" s="0" t="s">
-        <v>9628</v>
+        <v>9629</v>
       </c>
       <c r="E2580" s="0" t="s">
-        <v>9629</v>
+        <v>9630</v>
       </c>
       <c r="F2580" s="0" t="s">
-        <v>9630</v>
+        <v>9631</v>
       </c>
     </row>
     <row r="2581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2581" s="0" t="s">
-        <v>9631</v>
+        <v>9632</v>
       </c>
       <c r="B2581" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D2581" s="0" t="s">
-        <v>9632</v>
+        <v>9633</v>
       </c>
       <c r="E2581" s="0" t="s">
-        <v>9633</v>
+        <v>9634</v>
       </c>
       <c r="F2581" s="0" t="s">
-        <v>9634</v>
+        <v>9635</v>
       </c>
     </row>
     <row r="2582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2582" s="0" t="s">
-        <v>9635</v>
+        <v>9636</v>
       </c>
       <c r="B2582" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D2582" s="0" t="s">
-        <v>9636</v>
+        <v>9637</v>
       </c>
       <c r="E2582" s="0" t="s">
-        <v>9637</v>
+        <v>9638</v>
       </c>
       <c r="F2582" s="0" t="s">
-        <v>9638</v>
+        <v>9639</v>
       </c>
     </row>
     <row r="2583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2583" s="0" t="s">
-        <v>9639</v>
+        <v>9640</v>
       </c>
       <c r="B2583" s="0" t="s">
-        <v>592</v>
+        <v>16</v>
       </c>
       <c r="D2583" s="0" t="s">
-        <v>9640</v>
+        <v>9641</v>
       </c>
       <c r="E2583" s="0" t="s">
-        <v>9641</v>
+        <v>9642</v>
       </c>
       <c r="F2583" s="0" t="s">
-        <v>9642</v>
+        <v>9643</v>
       </c>
     </row>
     <row r="2584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2584" s="0" t="s">
-        <v>9643</v>
+        <v>9644</v>
       </c>
       <c r="B2584" s="0" t="s">
-        <v>587</v>
+        <v>16</v>
       </c>
       <c r="D2584" s="0" t="s">
-        <v>9644</v>
+        <v>9645</v>
       </c>
       <c r="E2584" s="0" t="s">
-        <v>9645</v>
+        <v>9646</v>
       </c>
       <c r="F2584" s="0" t="s">
-        <v>9646</v>
-      </c>
-    </row>
-    <row r="2585" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9647</v>
+      </c>
+    </row>
+    <row r="2585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2585" s="0" t="s">
-        <v>9647</v>
+        <v>9648</v>
       </c>
       <c r="B2585" s="0" t="s">
-        <v>587</v>
-      </c>
-      <c r="D2585" s="2" t="s">
-        <v>9648</v>
-      </c>
-      <c r="E2585" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2585" s="0" t="s">
         <v>9649</v>
       </c>
-      <c r="F2585" s="2" t="s">
+      <c r="E2585" s="0" t="s">
         <v>9650</v>
       </c>
-    </row>
-    <row r="2586" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2585" s="0" t="s">
+        <v>9651</v>
+      </c>
+    </row>
+    <row r="2586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2586" s="0" t="s">
-        <v>9651</v>
+        <v>9652</v>
       </c>
       <c r="B2586" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2586" s="2" t="s">
-        <v>9652</v>
-      </c>
-      <c r="E2586" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2586" s="0" t="s">
         <v>9653</v>
       </c>
-      <c r="F2586" s="2" t="s">
+      <c r="E2586" s="0" t="s">
         <v>9654</v>
+      </c>
+      <c r="F2586" s="0" t="s">
+        <v>9655</v>
       </c>
     </row>
     <row r="2587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2587" s="0" t="s">
-        <v>9655</v>
+        <v>9656</v>
       </c>
       <c r="B2587" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="D2587" s="0" t="s">
+        <v>9657</v>
+      </c>
+      <c r="E2587" s="0" t="s">
+        <v>9658</v>
+      </c>
+      <c r="F2587" s="0" t="s">
+        <v>9659</v>
+      </c>
+    </row>
+    <row r="2588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2588" s="0" t="s">
+        <v>9660</v>
+      </c>
+      <c r="B2588" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="D2588" s="0" t="s">
+        <v>9661</v>
+      </c>
+      <c r="E2588" s="0" t="s">
+        <v>9662</v>
+      </c>
+      <c r="F2588" s="0" t="s">
+        <v>9663</v>
+      </c>
+    </row>
+    <row r="2589" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2589" s="0" t="s">
+        <v>9664</v>
+      </c>
+      <c r="B2589" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="D2589" s="2" t="s">
+        <v>9665</v>
+      </c>
+      <c r="E2589" s="2" t="s">
+        <v>9666</v>
+      </c>
+      <c r="F2589" s="2" t="s">
+        <v>9667</v>
+      </c>
+    </row>
+    <row r="2590" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2590" s="0" t="s">
+        <v>9668</v>
+      </c>
+      <c r="B2590" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D2587" s="0" t="s">
-        <v>9656</v>
-      </c>
-      <c r="E2587" s="0" t="s">
-        <v>9657</v>
-      </c>
-      <c r="F2587" s="0" t="s">
-        <v>9658</v>
-      </c>
-    </row>
-    <row r="2588" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2588" s="0" t="s">
-        <v>9659</v>
-      </c>
-      <c r="B2588" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2588" s="2" t="s">
-        <v>9660</v>
-      </c>
-      <c r="E2588" s="2" t="s">
-        <v>9661</v>
-      </c>
-      <c r="F2588" s="2" t="s">
-        <v>9662</v>
-      </c>
-    </row>
-    <row r="2589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2589" s="0" t="s">
-        <v>9663</v>
-      </c>
-      <c r="B2589" s="0" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D2589" s="0" t="s">
-        <v>2560</v>
-      </c>
-      <c r="E2589" s="0" t="s">
-        <v>2561</v>
-      </c>
-      <c r="F2589" s="0" t="s">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="2590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2590" s="0" t="s">
-        <v>9664</v>
-      </c>
-      <c r="B2590" s="0" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D2590" s="0" t="s">
-        <v>9665</v>
-      </c>
-      <c r="E2590" s="0" t="s">
-        <v>9666</v>
-      </c>
-      <c r="F2590" s="0" t="s">
-        <v>9667</v>
+      <c r="D2590" s="2" t="s">
+        <v>9669</v>
+      </c>
+      <c r="E2590" s="2" t="s">
+        <v>9670</v>
+      </c>
+      <c r="F2590" s="2" t="s">
+        <v>9671</v>
       </c>
     </row>
     <row r="2591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2591" s="0" t="s">
-        <v>9668</v>
+        <v>9672</v>
       </c>
       <c r="B2591" s="0" t="s">
-        <v>1792</v>
+        <v>19</v>
       </c>
       <c r="D2591" s="0" t="s">
-        <v>9669</v>
+        <v>9673</v>
       </c>
       <c r="E2591" s="0" t="s">
-        <v>9670</v>
+        <v>9674</v>
       </c>
       <c r="F2591" s="0" t="s">
-        <v>9671</v>
-      </c>
-    </row>
-    <row r="2592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9675</v>
+      </c>
+    </row>
+    <row r="2592" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2592" s="0" t="s">
-        <v>9672</v>
+        <v>9676</v>
       </c>
       <c r="B2592" s="0" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D2592" s="0" t="s">
-        <v>9673</v>
-      </c>
-      <c r="E2592" s="0" t="s">
-        <v>9674</v>
-      </c>
-      <c r="F2592" s="0" t="s">
-        <v>9675</v>
+        <v>19</v>
+      </c>
+      <c r="D2592" s="2" t="s">
+        <v>9677</v>
+      </c>
+      <c r="E2592" s="2" t="s">
+        <v>9678</v>
+      </c>
+      <c r="F2592" s="2" t="s">
+        <v>9679</v>
       </c>
     </row>
     <row r="2593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2593" s="0" t="s">
-        <v>9676</v>
+        <v>9680</v>
       </c>
       <c r="B2593" s="0" t="s">
         <v>1792</v>
       </c>
       <c r="D2593" s="0" t="s">
-        <v>9677</v>
+        <v>2560</v>
       </c>
       <c r="E2593" s="0" t="s">
-        <v>9678</v>
+        <v>2561</v>
       </c>
       <c r="F2593" s="0" t="s">
-        <v>9679</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="2594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2594" s="0" t="s">
-        <v>9680</v>
+        <v>9681</v>
       </c>
       <c r="B2594" s="0" t="s">
         <v>1792</v>
       </c>
       <c r="D2594" s="0" t="s">
-        <v>9681</v>
+        <v>9682</v>
       </c>
       <c r="E2594" s="0" t="s">
-        <v>9682</v>
+        <v>9683</v>
       </c>
       <c r="F2594" s="0" t="s">
-        <v>9683</v>
+        <v>9684</v>
       </c>
     </row>
     <row r="2595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2595" s="0" t="s">
-        <v>9684</v>
+        <v>9685</v>
       </c>
       <c r="B2595" s="0" t="s">
         <v>1792</v>
       </c>
       <c r="D2595" s="0" t="s">
-        <v>9685</v>
+        <v>9686</v>
       </c>
       <c r="E2595" s="0" t="s">
-        <v>9686</v>
+        <v>9687</v>
       </c>
       <c r="F2595" s="0" t="s">
-        <v>9687</v>
+        <v>9688</v>
       </c>
     </row>
     <row r="2596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2596" s="0" t="s">
-        <v>9688</v>
+        <v>9689</v>
       </c>
       <c r="B2596" s="0" t="s">
         <v>1792</v>
       </c>
       <c r="D2596" s="0" t="s">
-        <v>9689</v>
+        <v>9690</v>
       </c>
       <c r="E2596" s="0" t="s">
-        <v>9690</v>
+        <v>9691</v>
       </c>
       <c r="F2596" s="0" t="s">
-        <v>9691</v>
+        <v>9692</v>
       </c>
     </row>
     <row r="2597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2597" s="0" t="s">
-        <v>9692</v>
+        <v>9693</v>
       </c>
       <c r="B2597" s="0" t="s">
-        <v>657</v>
+        <v>1792</v>
       </c>
       <c r="D2597" s="0" t="s">
-        <v>9693</v>
+        <v>9694</v>
       </c>
       <c r="E2597" s="0" t="s">
-        <v>9694</v>
+        <v>9695</v>
       </c>
       <c r="F2597" s="0" t="s">
-        <v>9695</v>
-      </c>
-    </row>
-    <row r="2598" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9696</v>
+      </c>
+    </row>
+    <row r="2598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2598" s="0" t="s">
-        <v>9696</v>
+        <v>9697</v>
       </c>
       <c r="B2598" s="0" t="s">
-        <v>657</v>
-      </c>
-      <c r="D2598" s="2" t="s">
-        <v>9697</v>
-      </c>
-      <c r="E2598" s="2" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D2598" s="0" t="s">
         <v>9698</v>
       </c>
-      <c r="F2598" s="2" t="s">
+      <c r="E2598" s="0" t="s">
         <v>9699</v>
+      </c>
+      <c r="F2598" s="0" t="s">
+        <v>9700</v>
       </c>
     </row>
     <row r="2599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2599" s="0" t="s">
-        <v>9700</v>
+        <v>9701</v>
       </c>
       <c r="B2599" s="0" t="s">
         <v>1792</v>
       </c>
       <c r="D2599" s="0" t="s">
-        <v>9701</v>
+        <v>9702</v>
       </c>
       <c r="E2599" s="0" t="s">
-        <v>9702</v>
+        <v>9703</v>
       </c>
       <c r="F2599" s="0" t="s">
-        <v>9703</v>
+        <v>9704</v>
       </c>
     </row>
     <row r="2600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2600" s="0" t="s">
-        <v>9704</v>
+        <v>9705</v>
       </c>
       <c r="B2600" s="0" t="s">
         <v>1792</v>
       </c>
       <c r="D2600" s="0" t="s">
-        <v>9705</v>
+        <v>9706</v>
       </c>
       <c r="E2600" s="0" t="s">
-        <v>9706</v>
+        <v>9707</v>
       </c>
       <c r="F2600" s="0" t="s">
-        <v>9707</v>
+        <v>9708</v>
       </c>
     </row>
     <row r="2601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2601" s="0" t="s">
-        <v>9708</v>
+        <v>9709</v>
       </c>
       <c r="B2601" s="0" t="s">
-        <v>1792</v>
+        <v>657</v>
       </c>
       <c r="D2601" s="0" t="s">
-        <v>9709</v>
+        <v>9710</v>
       </c>
       <c r="E2601" s="0" t="s">
-        <v>9710</v>
+        <v>9711</v>
       </c>
       <c r="F2601" s="0" t="s">
-        <v>9711</v>
-      </c>
-    </row>
-    <row r="2602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9712</v>
+      </c>
+    </row>
+    <row r="2602" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2602" s="0" t="s">
-        <v>9712</v>
+        <v>9713</v>
       </c>
       <c r="B2602" s="0" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D2602" s="0" t="s">
-        <v>9713</v>
-      </c>
-      <c r="E2602" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="D2602" s="2" t="s">
         <v>9714</v>
       </c>
-      <c r="F2602" s="0" t="s">
+      <c r="E2602" s="2" t="s">
         <v>9715</v>
+      </c>
+      <c r="F2602" s="2" t="s">
+        <v>9716</v>
       </c>
     </row>
     <row r="2603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2603" s="0" t="s">
-        <v>9716</v>
+        <v>9717</v>
       </c>
       <c r="B2603" s="0" t="s">
         <v>1792</v>
       </c>
       <c r="D2603" s="0" t="s">
-        <v>9717</v>
+        <v>9718</v>
       </c>
       <c r="E2603" s="0" t="s">
-        <v>9718</v>
+        <v>9719</v>
       </c>
       <c r="F2603" s="0" t="s">
-        <v>9719</v>
+        <v>9720</v>
       </c>
     </row>
     <row r="2604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2604" s="0" t="s">
-        <v>9720</v>
+        <v>9721</v>
       </c>
       <c r="B2604" s="0" t="s">
         <v>1792</v>
       </c>
       <c r="D2604" s="0" t="s">
-        <v>9721</v>
+        <v>9722</v>
       </c>
       <c r="E2604" s="0" t="s">
-        <v>9722</v>
+        <v>9723</v>
       </c>
       <c r="F2604" s="0" t="s">
-        <v>9723</v>
+        <v>9724</v>
       </c>
     </row>
     <row r="2605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2605" s="0" t="s">
-        <v>9724</v>
+        <v>9725</v>
       </c>
       <c r="B2605" s="0" t="s">
         <v>1792</v>
       </c>
       <c r="D2605" s="0" t="s">
-        <v>9725</v>
+        <v>9726</v>
       </c>
       <c r="E2605" s="0" t="s">
-        <v>9726</v>
+        <v>9727</v>
       </c>
       <c r="F2605" s="0" t="s">
-        <v>9727</v>
+        <v>9728</v>
       </c>
     </row>
     <row r="2606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2606" s="0" t="s">
-        <v>9728</v>
+        <v>9729</v>
       </c>
       <c r="B2606" s="0" t="s">
         <v>1792</v>
       </c>
       <c r="D2606" s="0" t="s">
-        <v>9729</v>
+        <v>9730</v>
       </c>
       <c r="E2606" s="0" t="s">
-        <v>9730</v>
+        <v>9731</v>
       </c>
       <c r="F2606" s="0" t="s">
-        <v>9731</v>
-      </c>
-    </row>
-    <row r="2607" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9732</v>
+      </c>
+    </row>
+    <row r="2607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2607" s="0" t="s">
-        <v>9732</v>
+        <v>9733</v>
       </c>
       <c r="B2607" s="0" t="s">
         <v>1792</v>
       </c>
-      <c r="D2607" s="2" t="s">
-        <v>9733</v>
-      </c>
-      <c r="E2607" s="2" t="s">
+      <c r="D2607" s="0" t="s">
         <v>9734</v>
       </c>
-      <c r="F2607" s="2" t="s">
+      <c r="E2607" s="0" t="s">
         <v>9735</v>
+      </c>
+      <c r="F2607" s="0" t="s">
+        <v>9736</v>
       </c>
     </row>
     <row r="2608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2608" s="0" t="s">
-        <v>9736</v>
+        <v>9737</v>
       </c>
       <c r="B2608" s="0" t="s">
-        <v>4197</v>
+        <v>1792</v>
       </c>
       <c r="D2608" s="0" t="s">
-        <v>9737</v>
+        <v>9738</v>
       </c>
       <c r="E2608" s="0" t="s">
-        <v>9738</v>
+        <v>9739</v>
       </c>
       <c r="F2608" s="0" t="s">
-        <v>9739</v>
-      </c>
-    </row>
-    <row r="2609" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9740</v>
+      </c>
+    </row>
+    <row r="2609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2609" s="0" t="s">
-        <v>9740</v>
+        <v>9741</v>
       </c>
       <c r="B2609" s="0" t="s">
-        <v>4197</v>
-      </c>
-      <c r="D2609" s="2" t="s">
-        <v>9741</v>
-      </c>
-      <c r="E2609" s="2" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D2609" s="0" t="s">
         <v>9742</v>
       </c>
-      <c r="F2609" s="2" t="s">
+      <c r="E2609" s="0" t="s">
         <v>9743</v>
+      </c>
+      <c r="F2609" s="0" t="s">
+        <v>9744</v>
       </c>
     </row>
     <row r="2610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2610" s="0" t="s">
-        <v>9744</v>
+        <v>9745</v>
       </c>
       <c r="B2610" s="0" t="s">
-        <v>1424</v>
+        <v>1792</v>
       </c>
       <c r="D2610" s="0" t="s">
-        <v>9745</v>
+        <v>9746</v>
       </c>
       <c r="E2610" s="0" t="s">
-        <v>9746</v>
+        <v>9747</v>
       </c>
       <c r="F2610" s="0" t="s">
-        <v>9747</v>
-      </c>
-    </row>
-    <row r="2611" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9748</v>
+      </c>
+    </row>
+    <row r="2611" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2611" s="0" t="s">
-        <v>9748</v>
+        <v>9749</v>
       </c>
       <c r="B2611" s="0" t="s">
-        <v>1424</v>
+        <v>1792</v>
       </c>
       <c r="D2611" s="2" t="s">
-        <v>9749</v>
+        <v>9750</v>
       </c>
       <c r="E2611" s="2" t="s">
-        <v>9750</v>
+        <v>9751</v>
       </c>
       <c r="F2611" s="2" t="s">
-        <v>9751</v>
+        <v>9752</v>
       </c>
     </row>
     <row r="2612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2612" s="0" t="s">
-        <v>9752</v>
+        <v>9753</v>
       </c>
       <c r="B2612" s="0" t="s">
         <v>4197</v>
       </c>
       <c r="D2612" s="0" t="s">
-        <v>9753</v>
+        <v>9754</v>
       </c>
       <c r="E2612" s="0" t="s">
-        <v>9754</v>
+        <v>9755</v>
       </c>
       <c r="F2612" s="0" t="s">
-        <v>9755</v>
-      </c>
-    </row>
-    <row r="2613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9756</v>
+      </c>
+    </row>
+    <row r="2613" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2613" s="0" t="s">
-        <v>9756</v>
+        <v>9757</v>
       </c>
       <c r="B2613" s="0" t="s">
-        <v>748</v>
-      </c>
-      <c r="D2613" s="0" t="s">
-        <v>9757</v>
-      </c>
-      <c r="E2613" s="0" t="s">
+        <v>4197</v>
+      </c>
+      <c r="D2613" s="2" t="s">
         <v>9758</v>
       </c>
-      <c r="F2613" s="0" t="s">
+      <c r="E2613" s="2" t="s">
         <v>9759</v>
+      </c>
+      <c r="F2613" s="2" t="s">
+        <v>9760</v>
       </c>
     </row>
     <row r="2614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2614" s="0" t="s">
-        <v>9760</v>
+        <v>9761</v>
       </c>
       <c r="B2614" s="0" t="s">
-        <v>748</v>
+        <v>8128</v>
       </c>
       <c r="D2614" s="0" t="s">
-        <v>9761</v>
+        <v>9762</v>
       </c>
       <c r="E2614" s="0" t="s">
-        <v>9762</v>
+        <v>9763</v>
       </c>
       <c r="F2614" s="0" t="s">
-        <v>9763</v>
-      </c>
-    </row>
-    <row r="2615" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9764</v>
+      </c>
+    </row>
+    <row r="2615" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2615" s="0" t="s">
-        <v>9764</v>
+        <v>9765</v>
       </c>
       <c r="B2615" s="0" t="s">
-        <v>748</v>
+        <v>8128</v>
       </c>
       <c r="D2615" s="2" t="s">
-        <v>9765</v>
+        <v>9766</v>
       </c>
       <c r="E2615" s="2" t="s">
-        <v>9766</v>
+        <v>9767</v>
       </c>
       <c r="F2615" s="2" t="s">
-        <v>9767</v>
-      </c>
-    </row>
-    <row r="2616" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9768</v>
+      </c>
+    </row>
+    <row r="2616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2616" s="0" t="s">
-        <v>9768</v>
+        <v>9769</v>
       </c>
       <c r="B2616" s="0" t="s">
-        <v>1424</v>
-      </c>
-      <c r="D2616" s="2" t="s">
-        <v>9769</v>
-      </c>
-      <c r="E2616" s="2" t="s">
+        <v>4197</v>
+      </c>
+      <c r="D2616" s="0" t="s">
         <v>9770</v>
       </c>
-      <c r="F2616" s="2" t="s">
+      <c r="E2616" s="0" t="s">
         <v>9771</v>
+      </c>
+      <c r="F2616" s="0" t="s">
+        <v>9772</v>
       </c>
     </row>
     <row r="2617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2617" s="0" t="s">
-        <v>9772</v>
+        <v>9773</v>
       </c>
       <c r="B2617" s="0" t="s">
-        <v>657</v>
+        <v>748</v>
       </c>
       <c r="D2617" s="0" t="s">
-        <v>9773</v>
+        <v>9774</v>
       </c>
       <c r="E2617" s="0" t="s">
-        <v>9774</v>
+        <v>9775</v>
       </c>
       <c r="F2617" s="0" t="s">
-        <v>9775</v>
+        <v>9776</v>
       </c>
     </row>
     <row r="2618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2618" s="0" t="s">
-        <v>9776</v>
+        <v>9777</v>
       </c>
       <c r="B2618" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="D2618" s="0" t="s">
+        <v>9778</v>
+      </c>
+      <c r="E2618" s="0" t="s">
+        <v>9779</v>
+      </c>
+      <c r="F2618" s="0" t="s">
+        <v>9780</v>
+      </c>
+    </row>
+    <row r="2619" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2619" s="0" t="s">
+        <v>9781</v>
+      </c>
+      <c r="B2619" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="D2619" s="2" t="s">
+        <v>9782</v>
+      </c>
+      <c r="E2619" s="2" t="s">
+        <v>9783</v>
+      </c>
+      <c r="F2619" s="2" t="s">
+        <v>9784</v>
+      </c>
+    </row>
+    <row r="2620" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2620" s="0" t="s">
+        <v>9785</v>
+      </c>
+      <c r="B2620" s="0" t="s">
+        <v>8128</v>
+      </c>
+      <c r="D2620" s="2" t="s">
+        <v>9786</v>
+      </c>
+      <c r="E2620" s="2" t="s">
+        <v>9787</v>
+      </c>
+      <c r="F2620" s="2" t="s">
+        <v>9788</v>
+      </c>
+    </row>
+    <row r="2621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2621" s="0" t="s">
+        <v>9789</v>
+      </c>
+      <c r="B2621" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="D2621" s="0" t="s">
+        <v>9790</v>
+      </c>
+      <c r="E2621" s="0" t="s">
+        <v>9791</v>
+      </c>
+      <c r="F2621" s="0" t="s">
+        <v>9792</v>
+      </c>
+    </row>
+    <row r="2622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2622" s="0" t="s">
+        <v>9793</v>
+      </c>
+      <c r="B2622" s="0" t="s">
         <v>556</v>
       </c>
-      <c r="D2618" s="0" t="s">
-        <v>9777</v>
-      </c>
-      <c r="E2618" s="0" t="s">
-        <v>9778</v>
-      </c>
-      <c r="F2618" s="0" t="s">
-        <v>9779</v>
-      </c>
-    </row>
-    <row r="2619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2619" s="0" t="s">
-        <v>9780</v>
-      </c>
-      <c r="B2619" s="0" t="s">
+      <c r="D2622" s="0" t="s">
+        <v>9794</v>
+      </c>
+      <c r="E2622" s="0" t="s">
+        <v>9795</v>
+      </c>
+      <c r="F2622" s="0" t="s">
+        <v>9796</v>
+      </c>
+    </row>
+    <row r="2623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2623" s="0" t="s">
+        <v>9797</v>
+      </c>
+      <c r="B2623" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D2619" s="0" t="s">
-        <v>9781</v>
-      </c>
-      <c r="E2619" s="0" t="s">
-        <v>9782</v>
-      </c>
-      <c r="F2619" s="0" t="s">
-        <v>9783</v>
+      <c r="D2623" s="0" t="s">
+        <v>9798</v>
+      </c>
+      <c r="E2623" s="0" t="s">
+        <v>9799</v>
+      </c>
+      <c r="F2623" s="0" t="s">
+        <v>9800</v>
       </c>
     </row>
   </sheetData>
